--- a/llm_log.xlsx
+++ b/llm_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-05 20:04:43</t>
+          <t>2025-04-06 15:30:07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -470,7 +470,7 @@
         <is>
           <t>Extraiga los siguientes datos del texto: origen, destino, fecha, duración del viaje, tipo de viaje, acompañantes, presupuesto y expectativas.
 Texto:
-Desde dónde viaja: Pasto; Hacia dónde se dirige: costa rica; Cuándo viajar: noviembre; Duración del viaje: entre 5 y 7 días; Tipo de viaje: turismo ecológico; Con quién viaja: con un amigo; Presupuesto: entre 8 y 10 millones; Expectativas adicionales: quiero hacer avistamiento de aves
+Desde dónde viaja: pereira; Hacia dónde se dirige: roma, italia; Cuándo viajar: verano europa; Duración del viaje: 4 o 5 días; Tipo de viaje: cultural y gastronomico; Con quién viaja: solo; Presupuesto: 5 millones; Expectativas adicionales: quiero comer la mejor pasta
 Responda en formato JSON corto.</t>
         </is>
       </c>
@@ -478,14 +478,14 @@
         <is>
           <t>```json
 {
-  "origen": "Pasto",
-  "destino": "Costa Rica",
-  "fecha": "Noviembre",
-  "duracion": "5-7 días",
-  "tipo_viaje": "Turismo ecológico",
-  "acompanantes": "Un amigo",
-  "presupuesto": "8-10 millones",
-  "expectativas": "Avistamiento de aves"
+  "origen": "pereira",
+  "destino": "roma, italia",
+  "fecha": "verano europa",
+  "duracion": "4 o 5 días",
+  "tipo_viaje": "cultural y gastronomico",
+  "acompanantes": "solo",
+  "presupuesto": "5 millones",
+  "expectativas": "comer la mejor pasta"
 }
 ```</t>
         </is>
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-05 20:04:43</t>
+          <t>2025-04-06 15:30:08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,30 +504,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dado este requerimiento de viaje: ```json
-{
-  "origen": "Pasto",
-  "destino": "Costa Rica",
-  "fecha": "Noviembre",
-  "duracion": "5-7 días",
-  "tipo_viaje": "Turismo ecológico",
-  "acompanantes": "Un amigo",
-  "presupuesto": "8-10 millones",
-  "expectativas": "Avistamiento de aves"
-}
-```, genere una sola consulta de búsqueda en español (máximo una línea) para buscar los requisitos migratorios en internet.</t>
+          <t>Dado este requerimiento de viaje: {"origen": "pereira", "destino": "roma, italia"}, genere una sola consulta de búsqueda en español (máximo una línea) para buscar los requisitos migratorios en internet.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Requisitos migratorios Costa Rica desde Colombia para turismo ecológico en noviembre.</t>
+          <t>Requisitos migratorios para viajar de Pereira a Roma, Italia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-05 20:04:43</t>
+          <t>2025-04-06 15:30:09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -538,20 +527,20 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Con base en este contexto migratorio generado por el sistema:
-Requisitos migratorios Costa Rica desde Colombia para turismo ecológico en noviembre.
+Requisitos migratorios para viajar de Pereira a Roma, Italia.
 Escriba una consulta de búsqueda breve y específica en español para internet. La consulta debe buscar requisitos migratorios oficiales para ciudadanos colombianos hacia el país destino. No escriba explicaciones, solo la consulta en una línea.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Requisitos migratorios Costa Rica colombianos turismo</t>
+          <t>Requisitos migratorios Italia colombianos</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-05 20:04:45</t>
+          <t>2025-04-06 15:30:10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -561,23 +550,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Requisitos migratorios Costa Rica colombianos turismo</t>
+          <t>Requisitos migratorios Italia colombianos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Requisitos Visa De Turismo Para Único Ingreso a Costa Rica: https://www.embajadadecostarica.org/wp-content/uploads/2024/12/Requisitos-visa-de-turismo-pagina-web-DC2024.pdf
-Embajada y Consulado General de Costa Rica en Colombia: https://www.embajadadecostarica.org/visas/
-Solicitar la Visa a Costa Rica de Turismo para colombianos: https://colombiacr.com.co/visaacr
-¿Qué piden a los colombianos para entrar a Costa Rica? Lista de ...: https://www.wradio.com.co/2024/05/10/que-piden-a-los-colombianos-para-entrar-a-costa-rica-lista-de-documentos-vacunas-y-mas/
-Requisitos de ingreso - Visit Costa Rica - Pautas: https://es.visitcostarica.com/planning-your-trip/entry-requirements</t>
+          <t>7 requisitos para viajar a Italia desde Colombia este 2025: https://colombianabroad.com/requisitos-entrada-italia-colombia/
+Requisitos para viajar a Italia 2025 como turista (visto): https://www.conociendoitalia.com/requisitos-para-viajar-a-italia/
+Cancillería emite recomendaciones para colombianos que viajan a Europa: https://www.cancilleria.gov.co/newsroom/news/cancilleria-emite-recomendaciones-colombianos-viajan-europa
+Esto se necesita para ir a Italia desde Colombia: Lista completa de ...: https://www.wradio.com.co/2024/04/08/esto-se-necesita-para-ir-a-italia-desde-colombia-lista-completa-de-requisitos/
+Indicaciones ingreso/salida de Colombia e ingreso a Italia: https://ambbogota.esteri.it/es/news/dall_ambasciata/2023/09/indicaciones-ingreso-salida-de-colombia-e-ingreso-a-italia/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-05 20:04:46</t>
+          <t>2025-04-06 15:30:13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -588,35 +577,38 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>Con base en esta información y los resultados web, indique los requisitos migratorios para el viaje:
-Requisitos migratorios Costa Rica desde Colombia para turismo ecológico en noviembre.
+Requisitos migratorios para viajar de Pereira a Roma, Italia.
 Resultados de internet:
- Requisitos Visa De Turismo Para Único Ingreso a Costa Rica: https://www.embajadadecostarica.org/wp-content/uploads/2024/12/Requisitos-visa-de-turismo-pagina-web-DC2024.pdf
-Embajada y Consulado General de Costa Rica en Colombia: https://www.embajadadecostarica.org/visas/
-Solicitar la Visa a Costa Rica de Turismo para colombianos: https://colombiacr.com.co/visaacr
-¿Qué piden a los colombianos para entrar a Costa Rica? Lista de ...: https://www.wradio.com.co/2024/05/10/que-piden-a-los-colombianos-para-entrar-a-costa-rica-lista-de-documentos-vacunas-y-mas/
-Requisitos de ingreso - Visit Costa Rica - Pautas: https://es.visitcostarica.com/planning-your-trip/entry-requirements
+7 requisitos para viajar a Italia desde Colombia este 2025: https://colombianabroad.com/requisitos-entrada-italia-colombia/
+Requisitos para viajar a Italia 2025 como turista (visto): https://www.conociendoitalia.com/requisitos-para-viajar-a-italia/
+Cancillería emite recomendaciones para colombianos que viajan a Europa: https://www.cancilleria.gov.co/newsroom/news/cancilleria-emite-recomendaciones-colombianos-viajan-europa
+Esto se necesita para ir a Italia desde Colombia: Lista completa de ...: https://www.wradio.com.co/2024/04/08/esto-se-necesita-para-ir-a-italia-desde-colombia-lista-completa-de-requisitos/
+Indicaciones ingreso/salida de Colombia e ingreso a Italia: https://ambbogota.esteri.it/es/news/dall_ambasciata/2023/09/indicaciones-ingreso-salida-de-colombia-e-ingreso-a-italia/
 Sea claro y conciso. Liste si se requiere visa, vacunas u otros documentos.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Con base en la información proporcionada y los resultados web, los requisitos migratorios para colombianos que viajan a Costa Rica para turismo ecológico en noviembre son:
-*   **Visa:** Dependiendo de tu nacionalidad, es posible que necesites una visa. Consulta los enlaces proporcionados, especialmente el de la Embajada de Costa Rica en Colombia, para determinar si necesitas visa.
-*   **Pasaporte:** Pasaporte vigente con al menos seis meses de validez al momento del ingreso.
-*   **Tiquete de salida:** Billete de avión de salida de Costa Rica (ida y vuelta).
-*   **Prueba de solvencia económica:** Demostrar que se cuenta con los recursos económicos suficientes para cubrir los gastos durante la estadía.
-*   **Vacunas:** No se exigen vacunas obligatorias para ingresar a Costa Rica desde Colombia.
-*   **Otros documentos:** Es recomendable llevar una copia de la reserva del hotel o lugar de hospedaje, así como un itinerario del viaje.
-**Importante:**
-*   Verifica la información más actualizada en los sitios web oficiales de la Embajada de Costa Rica en Colombia y Visit Costa Rica, ya que los requisitos pueden cambiar.
-*   Asegúrate de cumplir con todos los requisitos para evitar problemas al ingresar al país.</t>
+          <t>Para viajar de Pereira a Roma, Italia, los requisitos migratorios generales (basados en los resultados de búsqueda y asumiendo que eres ciudadano colombiano viajando como turista en 2025) son:
+*   **Visa:** No se requiere visa para estancias turísticas cortas (hasta 90 días) dentro de un período de 180 días.
+*   **Pasaporte:** Pasaporte válido con una vigencia de al menos 3 meses después de la fecha prevista de salida de Italia/Espacio Schengen.
+*   **Tiquete de Regreso:** Billete de avión de ida y vuelta que demuestre la intención de regresar a Colombia.
+*   **Justificación del Viaje:** Documentación que justifique el propósito del viaje (ej: reservas de hotel, itinerario turístico).
+*   **Solvencia Económica:** Demostrar que se cuenta con los recursos económicos suficientes para cubrir los gastos durante la estancia. Esto puede ser en efectivo, tarjetas de crédito, cheques de viajero, etc. Se recomienda verificar el monto mínimo requerido actualizado para 2025.
+*   **Seguro de Viaje:** Es obligatorio contar con un seguro de viaje con cobertura médica internacional que cubra gastos de hospitalización y repatriación, con una cobertura mínima de 30.000 euros.
+*   **Vacunas:** No hay vacunas obligatorias para ingresar a Italia desde Colombia, pero se recomienda consultar con un médico sobre las vacunas recomendadas para viajes internacionales.
+*   **Formulario de localización de pasajeros (PLF):** Es posible que se requiera completar un formulario de localización de pasajeros (PLF) antes de viajar. Esto dependerá de las regulaciones sanitarias vigentes en el momento del viaje.
+**Recomendaciones Adicionales:**
+*   **Consulta las fuentes oficiales:** Verifica la información directamente en las páginas web de la Embajada de Italia en Colombia y la Cancillería de Colombia para obtener la información más actualizada y precisa.
+*   **Considera posibles cambios:** Los requisitos pueden cambiar, especialmente en lo relacionado con la pandemia. Mantente informado cerca de la fecha de tu viaje.
+**Nota:** Esta información es una guía general. Es fundamental verificar los requisitos específicos y actualizados en las fuentes oficiales antes de viajar.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-05 20:04:48</t>
+          <t>2025-04-06 15:30:15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,34 +619,23 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>Describa brevemente el clima, las temporadas turísticas (alta o baja) y eventos relevantes en el destino según esta información:
-```json
-{
-  "origen": "Pasto",
-  "destino": "Costa Rica",
-  "fecha": "Noviembre",
-  "duracion": "5-7 días",
-  "tipo_viaje": "Turismo ecológico",
-  "acompanantes": "Un amigo",
-  "presupuesto": "8-10 millones",
-  "expectativas": "Avistamiento de aves"
-}
-```
+roma, italia, verano europa
 Use viñetas si es posible. Sea claro y evite detalles innecesarios.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Basado en la información proporcionada para un viaje a Costa Rica en Noviembre:
-*   **Clima:** Noviembre marca el final de la temporada de lluvias en la mayor parte de Costa Rica, especialmente en la costa del Pacífico. Se pueden esperar lluvias intermitentes, pero también días soleados. La costa del Caribe tiende a ser más lluviosa en esta época.
-*   **Temporada Turística:** Noviembre se considera temporada baja/media. Los precios suelen ser más bajos que en la temporada alta (Diciembre-Abril) y hay menos multitudes.
-*   **Eventos Relevantes:** Aunque no hay eventos nacionales específicos mencionados, Noviembre es un buen mes para el avistamiento de aves migratorias, lo que se alinea con las expectativas del viaje.</t>
+          <t>Aquí tienes una descripción concisa del clima, temporadas turísticas y eventos en Roma, Italia, durante el verano europeo:
+*   **Clima:** Caluroso y seco. Temperaturas elevadas, especialmente en julio y agosto.
+*   **Temporada Turística:** Alta. El verano es la temporada más popular para visitar Roma, por lo que hay mucha gente y precios más altos.
+*   **Eventos Relevantes:** Festivales al aire libre, conciertos, eventos culturales y celebraciones religiosas.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-05 20:04:48</t>
+          <t>2025-04-06 15:30:15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -665,23 +646,23 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>Según este contexto turístico:
-Basado en la información proporcionada para un viaje a Costa Rica en Noviembre:
-*   **Clima:** Noviembre marca el final de la temporada de lluvias en la mayor parte de Costa Rica, especialmente en la costa del Pacífico. Se pueden esperar lluvias intermitentes, pero también días soleados. La costa del Caribe tiende a ser más lluviosa en esta época.
-*   **Temporada Turística:** Noviembre se considera temporada baja/media. Los precios suelen ser más bajos que en la temporada alta (Diciembre-Abril) y hay menos multitudes.
-*   **Eventos Relevantes:** Aunque no hay eventos nacionales específicos mencionados, Noviembre es un buen mes para el avistamiento de aves migratorias, lo que se alinea con las expectativas del viaje.
+Aquí tienes una descripción concisa del clima, temporadas turísticas y eventos en Roma, Italia, durante el verano europeo:
+*   **Clima:** Caluroso y seco. Temperaturas elevadas, especialmente en julio y agosto.
+*   **Temporada Turística:** Alta. El verano es la temporada más popular para visitar Roma, por lo que hay mucha gente y precios más altos.
+*   **Eventos Relevantes:** Festivales al aire libre, conciertos, eventos culturales y celebraciones religiosas.
 Genere una consulta de búsqueda concreta y corta en español para internet. Debe enfocarse en eventos turísticos, clima o temporadas en el destino en las fechas del viaje. No incluya explicaciones, solo la consulta.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Costa Rica Noviembre clima eventos turísticos</t>
+          <t>Roma eventos verano precios</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-05 20:04:49</t>
+          <t>2025-04-06 15:30:17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,23 +672,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Costa Rica Noviembre clima eventos turísticos</t>
+          <t>Roma eventos verano precios</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viajar a Costa Rica en Noviembre: el tiempo y recomendaciones: https://guiadeviajeacostarica.com/noviembre-el-tiempo/
-¿Por Qué Viajar a Costa Rica en Noviembre?: https://viajesacostarica.es/costa-rica-en-noviembre/
-Costa Rica Weather In November - Everything You Must Know: https://www.findmycostarica.com/blog/costa-rica-weather-in-november/
-Costa Rica en noviembre: Ideas de viaje, clima y más: http://grainofsound.org/es/costa-rica-en-noviembre-ideas-de-viaje-clima-y-más/
-Temperatura Promedio Y Condiciones Climáticas En Costa Rica En Noviembre: https://roambliss.com/es/temperatura-en-costa-rica-en-noviembre/</t>
+          <t>Eventos, calendario y entradas en Roma, Italia | Eventbrite: https://www.eventbrite.es/d/italy--roma/events/
+Eventos en Roma, próximos eventos, todos los eventos ... - 10times: https://10times.com/es/rome-it
+Verano en Roma: Eventos, Festivales y Vida Nocturna: https://www.romeprivateguides.com/es/blog/sobre-roma/to-do-summer-rome.html
+Eventos en Roma, música, cine y espectáculos - Guía en Roma: https://www.enroma.com/eventos-roma/
+10 cosas que hacer en Roma en verano - Hellotickets: https://www.hellotickets.es/italia/roma/roma-en-verano/sc-124-2092</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-05 20:04:51</t>
+          <t>2025-04-06 15:30:18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -718,39 +699,37 @@
       <c r="C10" t="inlineStr">
         <is>
           <t>Utilice la siguiente información y resultados de búsqueda para resumir el clima, eventos y temporada turística del destino:
-Basado en la información proporcionada para un viaje a Costa Rica en Noviembre:
-*   **Clima:** Noviembre marca el final de la temporada de lluvias en la mayor parte de Costa Rica, especialmente en la costa del Pacífico. Se pueden esperar lluvias intermitentes, pero también días soleados. La costa del Caribe tiende a ser más lluviosa en esta época.
-*   **Temporada Turística:** Noviembre se considera temporada baja/media. Los precios suelen ser más bajos que en la temporada alta (Diciembre-Abril) y hay menos multitudes.
-*   **Eventos Relevantes:** Aunque no hay eventos nacionales específicos mencionados, Noviembre es un buen mes para el avistamiento de aves migratorias, lo que se alinea con las expectativas del viaje.
+Aquí tienes una descripción concisa del clima, temporadas turísticas y eventos en Roma, Italia, durante el verano europeo:
+*   **Clima:** Caluroso y seco. Temperaturas elevadas, especialmente en julio y agosto.
+*   **Temporada Turística:** Alta. El verano es la temporada más popular para visitar Roma, por lo que hay mucha gente y precios más altos.
+*   **Eventos Relevantes:** Festivales al aire libre, conciertos, eventos culturales y celebraciones religiosas.
 Resultados de internet:
-Viajar a Costa Rica en Noviembre: el tiempo y recomendaciones: https://guiadeviajeacostarica.com/noviembre-el-tiempo/
-¿Por Qué Viajar a Costa Rica en Noviembre?: https://viajesacostarica.es/costa-rica-en-noviembre/
-Costa Rica Weather In November - Everything You Must Know: https://www.findmycostarica.com/blog/costa-rica-weather-in-november/
-Costa Rica en noviembre: Ideas de viaje, clima y más: http://grainofsound.org/es/costa-rica-en-noviembre-ideas-de-viaje-clima-y-más/
-Temperatura Promedio Y Condiciones Climáticas En Costa Rica En Noviembre: https://roambliss.com/es/temperatura-en-costa-rica-en-noviembre/
+Eventos, calendario y entradas en Roma, Italia | Eventbrite: https://www.eventbrite.es/d/italy--roma/events/
+Eventos en Roma, próximos eventos, todos los eventos ... - 10times: https://10times.com/es/rome-it
+Verano en Roma: Eventos, Festivales y Vida Nocturna: https://www.romeprivateguides.com/es/blog/sobre-roma/to-do-summer-rome.html
+Eventos en Roma, música, cine y espectáculos - Guía en Roma: https://www.enroma.com/eventos-roma/
+10 cosas que hacer en Roma en verano - Hellotickets: https://www.hellotickets.es/italia/roma/roma-en-verano/sc-124-2092
 Use viñetas si es posible. Sea concreto.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aquí está un resumen del clima, eventos y temporada turística en Costa Rica en Noviembre, basado en la información proporcionada y los resultados de búsqueda:
-*   **Clima:** Noviembre representa la transición de la temporada de lluvias a la seca.
-    *   **Pacífico:** Disminuyen las lluvias, con días soleados intercalados.
-    *   **Caribe:** Generalmente más lluvioso que el Pacífico.
-    *   En general, se puede esperar lluvia, pero no constante.
-*   **Temporada Turística:** Temporada baja/media.
-    *   Menos multitudes en comparación con la temporada alta (Diciembre-Abril).
-    *   Precios más bajos en alojamiento y tours.
-*   **Eventos/Actividades:**
-    *   Avistamiento de aves migratorias (oportunidad destacada).
-    *   Aunque no se mencionan eventos nacionales específicos, el clima en transición y la menor afluencia de turistas hacen de Noviembre un buen momento para explorar el país.</t>
+          <t>Aquí está un resumen del clima, eventos y temporada turística en Roma durante el verano europeo:
+*   **Clima:** Caluroso y seco, con temperaturas elevadas, especialmente en julio y agosto.
+*   **Temporada Turística:** Alta. El verano es la temporada turística más popular, lo que significa multitudes y precios más altos.
+*   **Eventos:**
+    *   Festivales al aire libre.
+    *   Conciertos.
+    *   Eventos culturales.
+    *   Celebraciones religiosas.
+    *   Una variedad de eventos listados en plataformas como Eventbrite, 10times, Rome Private Guides, Guía en Roma y Hellotickets.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-05 20:04:58</t>
+          <t>2025-04-06 15:30:24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -760,77 +739,69 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Con base en la información del viaje, estime el costo diario en COP de:
-- Transporte
-- Alojamiento
-- Comida
+          <t>Con base en la información del viaje y el número de viajeros, estime:
+- Costo total diario en COP de transporte (tiquetes incluidos), alojamiento y comida.
+- Costo diario por persona en COP para cada concepto.
 Datos:
-```json
-{
-  "origen": "Pasto",
-  "destino": "Costa Rica",
-  "fecha": "Noviembre",
-  "duracion": "5-7 días",
-  "tipo_viaje": "Turismo ecológico",
-  "acompanantes": "Un amigo",
-  "presupuesto": "8-10 millones",
-  "expectativas": "Avistamiento de aves"
-}
-```
-Presente el valor aproximado por cada concepto.</t>
+{"origen": "pereira", "destino": "roma, italia", "duracion": "4", "tipo_viaje": "cultural y gastronomico"}
+Presente valores totales y por persona.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Okay, vamos a estimar el costo diario en COP para transporte, alojamiento y comida, basándonos en la información proporcionada para un viaje de Pasto a Costa Rica, con un enfoque en turismo ecológico y avistamiento de aves.
-**Consideraciones Importantes:**
-*   **Conversión:** Asumiremos una tasa de cambio aproximada de 1 USD = 4000 COP (esta tasa puede variar).
-*   **Rango de Duración:** Tomaremos el punto medio de la duración del viaje (6 días) para calcular los costos diarios.
-*   **Presupuesto Total:** Usaremos el punto medio del presupuesto (9 millones COP) como referencia.
-*   **Tipo de Viaje:** El turismo ecológico generalmente implica opciones de alojamiento y comida más económicas que el turismo de lujo, pero puede requerir transporte especializado para acceder a áreas naturales.
-*   **Acompañante:** Dividiremos algunos costos (como alojamiento) entre dos personas.
-**Estimación de Costos Diarios (COP):**
-**1. Transporte:**
-*   **Vuelos:** El costo del vuelo Pasto - Costa Rica (ida y vuelta) es la parte más significativa.  Un vuelo de ida y vuelta puede costar entre 2.000.000 COP y 4.000.000 COP por persona, dependiendo de la aerolínea, la temporada y la anticipación con la que se compre.  Para dos personas, esto sería entre 4.000.000 COP y 8.000.000 COP.
-*   **Transporte Interno en Costa Rica:**  Dado el enfoque en turismo ecológico y avistamiento de aves, es probable que se necesite transporte para acceder a parques nacionales, reservas y otros sitios de interés. Esto podría incluir:
-    *   **Alquiler de coche:**  Puede costar entre 120.000 COP y 200.000 COP por día (dividido entre dos personas).
-    *   **Transporte público (autobuses):** Una opción más económica, pero menos flexible.  Podría costar entre 20.000 COP y 50.000 COP por persona por día.
-    *   **Taxis/Uber:**  Para distancias cortas, pero puede ser costoso para traslados largos.
-    *   **Traslados privados/Shuttles:**  Comunes para llegar a lodges ecológicos.  Pueden costar entre 50.000 COP y 100.000 COP por persona por trayecto.
-*   **Costo Diario Estimado de Transporte:**
-    *   **Vuelos:** (4.000.000 COP / 6 días) = 666.667 COP por persona.
-    *   **Transporte Interno:** Asumiremos un promedio de 100.000 COP por persona por día (combinación de alquiler de coche compartido, transporte público y traslados ocasionales).
-    *   **Total Transporte Diario:** 666.667 COP + 100.000 COP = **766.667 COP por persona**.
-**2. Alojamiento:**
-*   **Opciones:**  Costa Rica ofrece una amplia gama de alojamientos, desde hostales económicos hasta lodges de lujo.  Dado el presupuesto y el enfoque en turismo ecológico, asumiremos opciones de rango medio, como:
-    *   **Hostales/Cabañas:** 50.000 COP - 100.000 COP por persona por noche.
-    *   **Hoteles Ecológicos/B&amp;B:** 100.000 COP - 200.000 COP por persona por noche.
-*   **Costo Diario Estimado de Alojamiento:**  Asumiremos un promedio de 150.000 COP por persona por noche.
-**3. Comida:**
-*   **Opciones:**  Los costos de comida pueden variar significativamente dependiendo de dónde se coma.
-    *   **Restaurantes locales (sodas):**  Comidas económicas (20.000 COP - 40.000 COP por comida).
-    *   **Restaurantes turísticos:**  Más caros (50.000 COP - 100.000 COP por comida).
-    *   **Supermercados:**  Para comprar provisiones y reducir costos.
-*   **Costo Diario Estimado de Comida:**  Asumiremos un promedio de 100.000 COP por persona por día (combinando comidas en restaurantes locales, algunas comidas en restaurantes turísticos y compras en supermercados).
-**Resumen del Costo Diario Estimado (COP):**
-*   **Transporte:** 766.667 COP
-*   **Alojamiento:** 150.000 COP
-*   **Comida:** 100.000 COP
-*   **Total Diario Estimado:** **1.016.667 COP por persona**
-**Consideraciones Finales:**
-*   **Actividades:**  Este cálculo no incluye el costo de actividades como tours de avistamiento de aves, entradas a parques nacionales, etc.  Estos costos pueden variar significativamente.  Es importante investigar y presupuestar estas actividades por separado.
-*   **Seguro de Viaje:**  Es fundamental contar con un seguro de viaje, lo cual agregaría un costo adicional.
-*   **Flexibilidad:**  Es importante tener flexibilidad en el presupuesto, ya que pueden surgir gastos inesperados.
-*   **Negociación:**  En algunos casos, es posible negociar precios, especialmente en alojamientos y tours locales.
+          <t>Para estimar el costo del viaje, necesito hacer algunas suposiciones y usar rangos de precios promedio, ya que la información proporcionada es limitada.  Es importante recordar que estos son solo estimados y los precios reales pueden variar significativamente dependiendo de las elecciones específicas (aerolínea, hotel, restaurantes, etc.).
+**Suposiciones:**
+*   **Tiquetes:** Asumo un precio promedio para un tiquete ida y vuelta Pereira - Roma.
+*   **Alojamiento:** Asumo un hotel de gama media (3 estrellas) o un Airbnb con buena ubicación.
+*   **Comida:** Asumo un presupuesto moderado para comidas, incluyendo restaurantes locales y algunas experiencias gastronómicas.
+*   **Transporte local:** Incluyo transporte público y algunos taxis/ubers.
+*   **Número de viajeros:** Asumo que viaja **1 persona**, ya que no se especifica. Si viajan más personas, el costo por persona de alojamiento podría disminuir.
+**Estimaciones:**
+**1. Tiquetes (Ida y Vuelta Pereira - Roma):**
+*   Rango estimado: COP 4.000.000 - COP 7.000.000 (Dependiendo de la temporada, aerolínea y anticipación de la compra).
+*   Promedio estimado: COP 5.500.000
+**2. Alojamiento (por noche):**
+*   Rango estimado: COP 300.000 - COP 600.000 (Hotel 3 estrellas o Airbnb bien ubicado).
+*   Promedio estimado: COP 450.000
+**3. Comida (por día):**
+*   Rango estimado: COP 150.000 - COP 300.000 (Incluyendo desayuno, almuerzo, cena y alguna experiencia gastronómica).
+*   Promedio estimado: COP 225.000
+**4. Transporte Local (por día):**
+*   Rango estimado: COP 30.000 - COP 60.000 (Transporte público, algunos taxis/ubers).
+*   Promedio estimado: COP 45.000
+**Cálculos:**
+*   **Costo total de alojamiento (4 noches):** 4 noches * COP 450.000/noche = COP 1.800.000
+*   **Costo total de comida (4 días):** 4 días * COP 225.000/día = COP 900.000
+*   **Costo total de transporte local (4 días):** 4 días * COP 45.000/día = COP 180.000
+**Resumen:**
+| Concepto        | Costo Total (COP) | Costo Diario (COP) | Costo Diario por Persona (COP) |
+|-----------------|--------------------|---------------------|---------------------------------|
+| Tiquetes        | 5.500.000          | 1.375.000 (prorrateado)  | 1.375.000                       |
+| Alojamiento     | 1.800.000          | 450.000             | 450.000                         |
+| Comida          | 900.000            | 225.000             | 225.000                         |
+| Transporte Local | 180.000            | 45.000              | 45.000                          |
+| **TOTAL**       | **8.380.000**      | **2.095.000**       | **2.095.000**                   |
 **Conclusión:**
-Con un presupuesto de 9 millones de COP para dos personas durante 6 días, el costo diario estimado de 1.016.667 COP por persona parece razonable, aunque es importante tener en cuenta las consideraciones finales y ajustar el presupuesto según las preferencias y actividades específicas del viaje.  Es crucial investigar los precios de los vuelos y alojamientos con anticipación para obtener una estimación más precisa.</t>
+*   **Costo total estimado del viaje (4 días): COP 8.380.000**
+*   **Costo total diario estimado: COP 2.095.000**
+*   **Costo diario por persona estimado: COP 2.095.000**
+**Importante:**
+*   Estos son solo estimados.  Investigue a fondo los precios de vuelos y alojamiento para obtener una estimación más precisa.
+*   El costo de las actividades culturales (museos, tours, etc.) y otros gastos (souvenirs, etc.) no están incluidos en esta estimación.
+*   Los precios pueden variar significativamente dependiendo de la temporada alta/baja y la disponibilidad.
+*   Considere la tasa de cambio COP/EUR al momento de planificar su viaje.
+Para obtener una estimación más precisa, proporcione:
+*   Fechas específicas del viaje.
+*   Número de viajeros.
+*   Preferencias de alojamiento (hotel, Airbnb, presupuesto).
+*   Intereses específicos (actividades, restaurantes).</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-05 20:04:59</t>
+          <t>2025-04-06 15:30:25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -840,62 +811,68 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Este es un resumen de contexto sobre los costos estimados del viaje:
-Okay, vamos a estimar el costo diario en COP para transporte, alojamiento y comida, basándonos en la información proporcionada para un viaje de Pasto a Costa Rica, con un enfoque en turismo ecológico y avistamiento de aves.
-**Consideraciones Importantes:**
-*   **Conversión:** Asumiremos una tasa de cambio aproximada de 1 USD = 4000 COP (esta tasa puede variar).
-*   **Rango de Duración:** Tomaremos el punto medio de la duración del viaje (6 días) para calcular los costos diarios.
-*   **Presupuesto Total:** Usaremos el punto medio del presupuesto (9 millones COP) como referencia.
-*   **Tipo de Viaje:** El turismo ecológico generalmente implica opciones de alojamiento y comida más económicas que el turismo de lujo, pero puede requerir transporte especializado para acceder a áreas naturales.
-*   **Acompañante:** Dividiremos algunos costos (como alojamiento) entre dos personas.
-**Estimación de Costos Diarios (COP):**
-**1. Transporte:**
-*   **Vuelos:** El costo del vuelo Pasto - Costa Rica (ida y vuelta) es la parte más significativa.  Un vuelo de ida y vuelta puede costar entre 2.000.000 COP y 4.000.000 COP por persona, dependiendo de la aerolínea, la temporada y la anticipación con la que se compre.  Para dos personas, esto sería entre 4.000.000 COP y 8.000.000 COP.
-*   **Transporte Interno en Costa Rica:**  Dado el enfoque en turismo ecológico y avistamiento de aves, es probable que se necesite transporte para acceder a parques nacionales, reservas y otros sitios de interés. Esto podría incluir:
-    *   **Alquiler de coche:**  Puede costar entre 120.000 COP y 200.000 COP por día (dividido entre dos personas).
-    *   **Transporte público (autobuses):** Una opción más económica, pero menos flexible.  Podría costar entre 20.000 COP y 50.000 COP por persona por día.
-    *   **Taxis/Uber:**  Para distancias cortas, pero puede ser costoso para traslados largos.
-    *   **Traslados privados/Shuttles:**  Comunes para llegar a lodges ecológicos.  Pueden costar entre 50.000 COP y 100.000 COP por persona por trayecto.
-*   **Costo Diario Estimado de Transporte:**
-    *   **Vuelos:** (4.000.000 COP / 6 días) = 666.667 COP por persona.
-    *   **Transporte Interno:** Asumiremos un promedio de 100.000 COP por persona por día (combinación de alquiler de coche compartido, transporte público y traslados ocasionales).
-    *   **Total Transporte Diario:** 666.667 COP + 100.000 COP = **766.667 COP por persona**.
-**2. Alojamiento:**
-*   **Opciones:**  Costa Rica ofrece una amplia gama de alojamientos, desde hostales económicos hasta lodges de lujo.  Dado el presupuesto y el enfoque en turismo ecológico, asumiremos opciones de rango medio, como:
-    *   **Hostales/Cabañas:** 50.000 COP - 100.000 COP por persona por noche.
-    *   **Hoteles Ecológicos/B&amp;B:** 100.000 COP - 200.000 COP por persona por noche.
-*   **Costo Diario Estimado de Alojamiento:**  Asumiremos un promedio de 150.000 COP por persona por noche.
-**3. Comida:**
-*   **Opciones:**  Los costos de comida pueden variar significativamente dependiendo de dónde se coma.
-    *   **Restaurantes locales (sodas):**  Comidas económicas (20.000 COP - 40.000 COP por comida).
-    *   **Restaurantes turísticos:**  Más caros (50.000 COP - 100.000 COP por comida).
-    *   **Supermercados:**  Para comprar provisiones y reducir costos.
-*   **Costo Diario Estimado de Comida:**  Asumiremos un promedio de 100.000 COP por persona por día (combinando comidas en restaurantes locales, algunas comidas en restaurantes turísticos y compras en supermercados).
-**Resumen del Costo Diario Estimado (COP):**
-*   **Transporte:** 766.667 COP
-*   **Alojamiento:** 150.000 COP
-*   **Comida:** 100.000 COP
-*   **Total Diario Estimado:** **1.016.667 COP por persona**
-**Consideraciones Finales:**
-*   **Actividades:**  Este cálculo no incluye el costo de actividades como tours de avistamiento de aves, entradas a parques nacionales, etc.  Estos costos pueden variar significativamente.  Es importante investigar y presupuestar estas actividades por separado.
-*   **Seguro de Viaje:**  Es fundamental contar con un seguro de viaje, lo cual agregaría un costo adicional.
-*   **Flexibilidad:**  Es importante tener flexibilidad en el presupuesto, ya que pueden surgir gastos inesperados.
-*   **Negociación:**  En algunos casos, es posible negociar precios, especialmente en alojamientos y tours locales.
+          <t>Resumen de contexto sobre costos estimados:
+Para estimar el costo del viaje, necesito hacer algunas suposiciones y usar rangos de precios promedio, ya que la información proporcionada es limitada.  Es importante recordar que estos son solo estimados y los precios reales pueden variar significativamente dependiendo de las elecciones específicas (aerolínea, hotel, restaurantes, etc.).
+**Suposiciones:**
+*   **Tiquetes:** Asumo un precio promedio para un tiquete ida y vuelta Pereira - Roma.
+*   **Alojamiento:** Asumo un hotel de gama media (3 estrellas) o un Airbnb con buena ubicación.
+*   **Comida:** Asumo un presupuesto moderado para comidas, incluyendo restaurantes locales y algunas experiencias gastronómicas.
+*   **Transporte local:** Incluyo transporte público y algunos taxis/ubers.
+*   **Número de viajeros:** Asumo que viaja **1 persona**, ya que no se especifica. Si viajan más personas, el costo por persona de alojamiento podría disminuir.
+**Estimaciones:**
+**1. Tiquetes (Ida y Vuelta Pereira - Roma):**
+*   Rango estimado: COP 4.000.000 - COP 7.000.000 (Dependiendo de la temporada, aerolínea y anticipación de la compra).
+*   Promedio estimado: COP 5.500.000
+**2. Alojamiento (por noche):**
+*   Rango estimado: COP 300.000 - COP 600.000 (Hotel 3 estrellas o Airbnb bien ubicado).
+*   Promedio estimado: COP 450.000
+**3. Comida (por día):**
+*   Rango estimado: COP 150.000 - COP 300.000 (Incluyendo desayuno, almuerzo, cena y alguna experiencia gastronómica).
+*   Promedio estimado: COP 225.000
+**4. Transporte Local (por día):**
+*   Rango estimado: COP 30.000 - COP 60.000 (Transporte público, algunos taxis/ubers).
+*   Promedio estimado: COP 45.000
+**Cálculos:**
+*   **Costo total de alojamiento (4 noches):** 4 noches * COP 450.000/noche = COP 1.800.000
+*   **Costo total de comida (4 días):** 4 días * COP 225.000/día = COP 900.000
+*   **Costo total de transporte local (4 días):** 4 días * COP 45.000/día = COP 180.000
+**Resumen:**
+| Concepto        | Costo Total (COP) | Costo Diario (COP) | Costo Diario por Persona (COP) |
+|-----------------|--------------------|---------------------|---------------------------------|
+| Tiquetes        | 5.500.000          | 1.375.000 (prorrateado)  | 1.375.000                       |
+| Alojamiento     | 1.800.000          | 450.000             | 450.000                         |
+| Comida          | 900.000            | 225.000             | 225.000                         |
+| Transporte Local | 180.000            | 45.000              | 45.000                          |
+| **TOTAL**       | **8.380.000**      | **2.095.000**       | **2.095.000**                   |
 **Conclusión:**
-Con un presupuesto de 9 millones de COP para dos personas durante 6 días, el costo diario estimado de 1.016.667 COP por persona parece razonable, aunque es importante tener en cuenta las consideraciones finales y ajustar el presupuesto según las preferencias y actividades específicas del viaje.  Es crucial investigar los precios de los vuelos y alojamientos con anticipación para obtener una estimación más precisa.
-Cree una consulta en español (una línea) para buscar en internet información sobre precios promedio en transporte, alojamiento o comida en el destino turístico. Enfóquese en el país y ciudad destino, si se conoce. No escriba justificaciones, solo la consulta.</t>
+*   **Costo total estimado del viaje (4 días): COP 8.380.000**
+*   **Costo total diario estimado: COP 2.095.000**
+*   **Costo diario por persona estimado: COP 2.095.000**
+**Importante:**
+*   Estos son solo estimados.  Investigue a fondo los precios de vuelos y alojamiento para obtener una estimación más precisa.
+*   El costo de las actividades culturales (museos, tours, etc.) y otros gastos (souvenirs, etc.) no están incluidos en esta estimación.
+*   Los precios pueden variar significativamente dependiendo de la temporada alta/baja y la disponibilidad.
+*   Considere la tasa de cambio COP/EUR al momento de planificar su viaje.
+Para obtener una estimación más precisa, proporcione:
+*   Fechas específicas del viaje.
+*   Número de viajeros.
+*   Preferencias de alojamiento (hotel, Airbnb, presupuesto).
+*   Intereses específicos (actividades, restaurantes).
+Genere una consulta en español (una línea) para buscar en internet:
+- Precio promedio de transporte local, alojamiento y comida en el destino.
+No incluya explicaciones, solo la consulta.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Precios promedio transporte alojamiento comida Costa Rica San José</t>
+          <t>costo promedio transporte alojamiento comida Roma</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-05 20:05:42</t>
+          <t>2025-04-06 15:31:07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -905,23 +882,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Precios promedio transporte alojamiento comida Costa Rica San José</t>
+          <t>costo promedio transporte alojamiento comida Roma</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Precios en San José Marzo 2025 precios en restaurantes, alimentos y ...: https://hikersbay.com/prices/costarica/p/san-jose?lang=es
-Costo de vida y precios en San José ... - TravelTables: https://es.traveltables.com/country/costa-rica/city/san-jose/cost-of-living/
-Precios de transportes y servicios en Costa Rica 2025: https://preciosmundi.com/costa-rica/precio-transporte-servicios
-Costo de vida en San Jose, Costa Rica, Costa Rica - Expatistan: https://www.expatistan.com/es/costo-de-vida/san-jose-costa-rica
-Costo de viaje: Guía económica de Costa Rica | El Blog del Viajero: https://elblogdelviajero.com/costo-de-viaje-costa-rica-2/</t>
+          <t>Precios en Roma 2025 precios en restaurantes, alimentos y bebidas ...: https://hikersbay.com/prices/italy/rome?lang=es
+¿Cuánto dinero se necesita para visitar Roma? - HolboxPhotos: https://holboxphotos.com/roma/cuanto-dinero-se-necesita-para-visitar-roma/
+¿Cuánto dinero se gasta por día en Roma? | Felices Vacaciones: https://blog.felicesvacaciones.es/cuanto-dinero-se-gasta-por-dia-en-roma
+Precios en Roma, Transporte, Comida y bebidas, Alojamiento, Turismo: https://www.viajarroma.com/precios/
+¿Cuánto cuesta un viaje a Roma? Todos los días, 3 días y por semana ...: https://hikersbay.com/travel-cost/italy/rome?lang=es</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-05 20:05:42</t>
+          <t>2025-04-06 15:31:08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -931,260 +908,546 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Con base en la información siguiente, entregue una estimación de costos diarios en COP para:
-- Transporte
-- Alojamiento
-- Alimentación
-Okay, vamos a estimar el costo diario en COP para transporte, alojamiento y comida, basándonos en la información proporcionada para un viaje de Pasto a Costa Rica, con un enfoque en turismo ecológico y avistamiento de aves.
-**Consideraciones Importantes:**
-*   **Conversión:** Asumiremos una tasa de cambio aproximada de 1 USD = 4000 COP (esta tasa puede variar).
-*   **Rango de Duración:** Tomaremos el punto medio de la duración del viaje (6 días) para calcular los costos diarios.
-*   **Presupuesto Total:** Usaremos el punto medio del presupuesto (9 millones COP) como referencia.
-*   **Tipo de Viaje:** El turismo ecológico generalmente implica opciones de alojamiento y comida más económicas que el turismo de lujo, pero puede requerir transporte especializado para acceder a áreas naturales.
-*   **Acompañante:** Dividiremos algunos costos (como alojamiento) entre dos personas.
-**Estimación de Costos Diarios (COP):**
-**1. Transporte:**
-*   **Vuelos:** El costo del vuelo Pasto - Costa Rica (ida y vuelta) es la parte más significativa.  Un vuelo de ida y vuelta puede costar entre 2.000.000 COP y 4.000.000 COP por persona, dependiendo de la aerolínea, la temporada y la anticipación con la que se compre.  Para dos personas, esto sería entre 4.000.000 COP y 8.000.000 COP.
-*   **Transporte Interno en Costa Rica:**  Dado el enfoque en turismo ecológico y avistamiento de aves, es probable que se necesite transporte para acceder a parques nacionales, reservas y otros sitios de interés. Esto podría incluir:
-    *   **Alquiler de coche:**  Puede costar entre 120.000 COP y 200.000 COP por día (dividido entre dos personas).
-    *   **Transporte público (autobuses):** Una opción más económica, pero menos flexible.  Podría costar entre 20.000 COP y 50.000 COP por persona por día.
-    *   **Taxis/Uber:**  Para distancias cortas, pero puede ser costoso para traslados largos.
-    *   **Traslados privados/Shuttles:**  Comunes para llegar a lodges ecológicos.  Pueden costar entre 50.000 COP y 100.000 COP por persona por trayecto.
-*   **Costo Diario Estimado de Transporte:**
-    *   **Vuelos:** (4.000.000 COP / 6 días) = 666.667 COP por persona.
-    *   **Transporte Interno:** Asumiremos un promedio de 100.000 COP por persona por día (combinación de alquiler de coche compartido, transporte público y traslados ocasionales).
-    *   **Total Transporte Diario:** 666.667 COP + 100.000 COP = **766.667 COP por persona**.
-**2. Alojamiento:**
-*   **Opciones:**  Costa Rica ofrece una amplia gama de alojamientos, desde hostales económicos hasta lodges de lujo.  Dado el presupuesto y el enfoque en turismo ecológico, asumiremos opciones de rango medio, como:
-    *   **Hostales/Cabañas:** 50.000 COP - 100.000 COP por persona por noche.
-    *   **Hoteles Ecológicos/B&amp;B:** 100.000 COP - 200.000 COP por persona por noche.
-*   **Costo Diario Estimado de Alojamiento:**  Asumiremos un promedio de 150.000 COP por persona por noche.
-**3. Comida:**
-*   **Opciones:**  Los costos de comida pueden variar significativamente dependiendo de dónde se coma.
-    *   **Restaurantes locales (sodas):**  Comidas económicas (20.000 COP - 40.000 COP por comida).
-    *   **Restaurantes turísticos:**  Más caros (50.000 COP - 100.000 COP por comida).
-    *   **Supermercados:**  Para comprar provisiones y reducir costos.
-*   **Costo Diario Estimado de Comida:**  Asumiremos un promedio de 100.000 COP por persona por día (combinando comidas en restaurantes locales, algunas comidas en restaurantes turísticos y compras en supermercados).
-**Resumen del Costo Diario Estimado (COP):**
-*   **Transporte:** 766.667 COP
-*   **Alojamiento:** 150.000 COP
-*   **Comida:** 100.000 COP
-*   **Total Diario Estimado:** **1.016.667 COP por persona**
-**Consideraciones Finales:**
-*   **Actividades:**  Este cálculo no incluye el costo de actividades como tours de avistamiento de aves, entradas a parques nacionales, etc.  Estos costos pueden variar significativamente.  Es importante investigar y presupuestar estas actividades por separado.
-*   **Seguro de Viaje:**  Es fundamental contar con un seguro de viaje, lo cual agregaría un costo adicional.
-*   **Flexibilidad:**  Es importante tener flexibilidad en el presupuesto, ya que pueden surgir gastos inesperados.
-*   **Negociación:**  En algunos casos, es posible negociar precios, especialmente en alojamientos y tours locales.
+          <t>Con base en la información y resultados web, calcule el **costo total del viaje** en COP, desglosado por:
+- Transporte (tiquetes incluidos): total y por persona.
+- Alojamiento: total y por persona.
+- Alimentación: total y por persona.
+Para estimar el costo del viaje, necesito hacer algunas suposiciones y usar rangos de precios promedio, ya que la información proporcionada es limitada.  Es importante recordar que estos son solo estimados y los precios reales pueden variar significativamente dependiendo de las elecciones específicas (aerolínea, hotel, restaurantes, etc.).
+**Suposiciones:**
+*   **Tiquetes:** Asumo un precio promedio para un tiquete ida y vuelta Pereira - Roma.
+*   **Alojamiento:** Asumo un hotel de gama media (3 estrellas) o un Airbnb con buena ubicación.
+*   **Comida:** Asumo un presupuesto moderado para comidas, incluyendo restaurantes locales y algunas experiencias gastronómicas.
+*   **Transporte local:** Incluyo transporte público y algunos taxis/ubers.
+*   **Número de viajeros:** Asumo que viaja **1 persona**, ya que no se especifica. Si viajan más personas, el costo por persona de alojamiento podría disminuir.
+**Estimaciones:**
+**1. Tiquetes (Ida y Vuelta Pereira - Roma):**
+*   Rango estimado: COP 4.000.000 - COP 7.000.000 (Dependiendo de la temporada, aerolínea y anticipación de la compra).
+*   Promedio estimado: COP 5.500.000
+**2. Alojamiento (por noche):**
+*   Rango estimado: COP 300.000 - COP 600.000 (Hotel 3 estrellas o Airbnb bien ubicado).
+*   Promedio estimado: COP 450.000
+**3. Comida (por día):**
+*   Rango estimado: COP 150.000 - COP 300.000 (Incluyendo desayuno, almuerzo, cena y alguna experiencia gastronómica).
+*   Promedio estimado: COP 225.000
+**4. Transporte Local (por día):**
+*   Rango estimado: COP 30.000 - COP 60.000 (Transporte público, algunos taxis/ubers).
+*   Promedio estimado: COP 45.000
+**Cálculos:**
+*   **Costo total de alojamiento (4 noches):** 4 noches * COP 450.000/noche = COP 1.800.000
+*   **Costo total de comida (4 días):** 4 días * COP 225.000/día = COP 900.000
+*   **Costo total de transporte local (4 días):** 4 días * COP 45.000/día = COP 180.000
+**Resumen:**
+| Concepto        | Costo Total (COP) | Costo Diario (COP) | Costo Diario por Persona (COP) |
+|-----------------|--------------------|---------------------|---------------------------------|
+| Tiquetes        | 5.500.000          | 1.375.000 (prorrateado)  | 1.375.000                       |
+| Alojamiento     | 1.800.000          | 450.000             | 450.000                         |
+| Comida          | 900.000            | 225.000             | 225.000                         |
+| Transporte Local | 180.000            | 45.000              | 45.000                          |
+| **TOTAL**       | **8.380.000**      | **2.095.000**       | **2.095.000**                   |
 **Conclusión:**
-Con un presupuesto de 9 millones de COP para dos personas durante 6 días, el costo diario estimado de 1.016.667 COP por persona parece razonable, aunque es importante tener en cuenta las consideraciones finales y ajustar el presupuesto según las preferencias y actividades específicas del viaje.  Es crucial investigar los precios de los vuelos y alojamientos con anticipación para obtener una estimación más precisa.
+*   **Costo total estimado del viaje (4 días): COP 8.380.000**
+*   **Costo total diario estimado: COP 2.095.000**
+*   **Costo diario por persona estimado: COP 2.095.000**
+**Importante:**
+*   Estos son solo estimados.  Investigue a fondo los precios de vuelos y alojamiento para obtener una estimación más precisa.
+*   El costo de las actividades culturales (museos, tours, etc.) y otros gastos (souvenirs, etc.) no están incluidos en esta estimación.
+*   Los precios pueden variar significativamente dependiendo de la temporada alta/baja y la disponibilidad.
+*   Considere la tasa de cambio COP/EUR al momento de planificar su viaje.
+Para obtener una estimación más precisa, proporcione:
+*   Fechas específicas del viaje.
+*   Número de viajeros.
+*   Preferencias de alojamiento (hotel, Airbnb, presupuesto).
+*   Intereses específicos (actividades, restaurantes).
 Resultados de internet:
-Precios en San José Marzo 2025 precios en restaurantes, alimentos y ...: https://hikersbay.com/prices/costarica/p/san-jose?lang=es
-Costo de vida y precios en San José ... - TravelTables: https://es.traveltables.com/country/costa-rica/city/san-jose/cost-of-living/
-Precios de transportes y servicios en Costa Rica 2025: https://preciosmundi.com/costa-rica/precio-transporte-servicios
-Costo de vida en San Jose, Costa Rica, Costa Rica - Expatistan: https://www.expatistan.com/es/costo-de-vida/san-jose-costa-rica
-Costo de viaje: Guía económica de Costa Rica | El Blog del Viajero: https://elblogdelviajero.com/costo-de-viaje-costa-rica-2/
-Presente solo los valores aproximados por concepto.</t>
+Precios en Roma 2025 precios en restaurantes, alimentos y bebidas ...: https://hikersbay.com/prices/italy/rome?lang=es
+¿Cuánto dinero se necesita para visitar Roma? - HolboxPhotos: https://holboxphotos.com/roma/cuanto-dinero-se-necesita-para-visitar-roma/
+¿Cuánto dinero se gasta por día en Roma? | Felices Vacaciones: https://blog.felicesvacaciones.es/cuanto-dinero-se-gasta-por-dia-en-roma
+Precios en Roma, Transporte, Comida y bebidas, Alojamiento, Turismo: https://www.viajarroma.com/precios/
+¿Cuánto cuesta un viaje a Roma? Todos los días, 3 días y por semana ...: https://hikersbay.com/travel-cost/italy/rome?lang=es
+Solo muestre valores numéricos con etiquetas claras.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Aquí están los costos diarios estimados en COP por persona, basados en la información anterior:
-*   **Transporte:** 766.667 COP
-*   **Alojamiento:** 150.000 COP
-*   **Alimentación:** 100.000 COP</t>
+          <t>**Resumen de Costos Estimados del Viaje a Roma (COP):**
+*   **Tiquetes (Ida y Vuelta por persona):** 5.500.000
+*   **Alojamiento (Total, 4 noches):** 1.800.000
+*   **Alojamiento (Por persona, 4 noches):** 1.800.000
+*   **Alimentación (Total, 4 días):** 900.000
+*   **Alimentación (Por persona, 4 días):** 900.000
+*   **Transporte Local (Total, 4 días):** 180.000
+*   **Transporte Local (Por persona, 4 días):** 180.000
+*   **Costo Total Estimado del Viaje:** 8.380.000
+*   **Costo Diario Estimado por Persona:** 2.095.000</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-05 20:05:46</t>
+          <t>2025-04-06 15:31:08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cálculo de Presupuesto</t>
+          <t>Consulta Tiquetes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Con los siguientes costos estimados, calcule el total y compare con el presupuesto indicado por el usuario. Si excede, sugiera 1 o 2 formas de reducir gastos:
-Aquí están los costos diarios estimados en COP por persona, basados en la información anterior:
-*   **Transporte:** 766.667 COP
-*   **Alojamiento:** 150.000 COP
-*   **Alimentación:** 100.000 COP</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Okay, necesito más información para poder hacer el cálculo y la comparación. Necesito saber:
-1.  **Duración del viaje:** ¿Cuántos días dura el viaje?
-2.  **Número de personas:** ¿Cuántas personas están viajando?
-3.  **Presupuesto indicado por el usuario:** ¿Cuál es el presupuesto total que el usuario ha indicado para el viaje?
-Una vez que tenga esta información, puedo calcular el costo total estimado y compararlo con el presupuesto.  Luego, si el costo excede el presupuesto, puedo sugerir formas de reducir gastos.
-**Ejemplo:**
-Digamos que el viaje dura **5 días**, son **2 personas** viajando, y el presupuesto del usuario es de **3.000.000 COP**.
-**Cálculo:**
-*   **Transporte total:** 766.667 COP/persona/día * 2 personas * 5 días = 7.666.670 COP
-*   **Alojamiento total:** 150.000 COP/persona/día * 2 personas * 5 días = 1.500.000 COP
-*   **Alimentación total:** 100.000 COP/persona/día * 2 personas * 5 días = 1.000.000 COP
-*   **Costo total estimado:** 7.666.670 COP + 1.500.000 COP + 1.000.000 COP = 10.166.670 COP
-**Comparación:**
-El costo total estimado (10.166.670 COP) excede el presupuesto del usuario (3.000.000 COP) por 7.166.670 COP.
-**Sugerencias para reducir gastos (en este ejemplo):**
-1.  **Transporte:** El transporte es el gasto más grande.  Investigar opciones de transporte más económicas.  ¿Es posible usar transporte público en lugar de taxis o servicios de transporte privado?  ¿Se pueden encontrar vuelos o buses más baratos?  Considerar viajar en horarios menos demandados.
-2.  **Alojamiento:** Buscar opciones de alojamiento más económicas.  Considerar hostales, Airbnb (buscando opciones más económicas), o alojamientos fuera de las zonas más turísticas.
-**Por favor, proporciona la duración del viaje, el número de personas y el presupuesto del usuario para que pueda hacer un cálculo preciso y ofrecer sugerencias personalizadas.**</t>
-        </is>
-      </c>
+          <t>Precio promedio tiquetes pereira roma italia</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-05 20:05:53</t>
+          <t>2025-04-06 15:31:10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Resultados Tiquetes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Precio promedio tiquetes pereira roma italia</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Vuelos Baratos de Pereira a Roma - Despegar: https://www.despegar.com.co/vuelos/pei/rom/vuelos-a-roma-desde-pereira
+$2.169.116 | Vuelos baratos desde Pereira a Roma (PEI - ROM) - KAYAK: https://www.kayak.com.co/vuelos/Pereira-Matecana-PEI/Roma-ROM
+Vuelos baratos de Pereira, Colombia a Roma, Italia - Kiwi.com: https://www.kiwi.com/es/cheap-flights/pereira-colombia/rome-italy/
+$1.994.034 Reserva vuelos baratos de Pereira a Roma-Fiumicino (PEI ...: https://www.kayak.com.co/vuelos/Pereira-Matecana-PEI/Roma-Fiumicino-FCO
+Vuelos Pereira-Roma desde $ 4.869.072 - Viajala: https://viajala.com.co/vuelos-de-pereira-a-roma-PEI-ROM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04-06 15:31:14</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cálculo de Presupuesto</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Tienes estos costos totales del viaje en COP:
+8380000
+Y esta información del usuario (incluye presupuesto):
+{'presupuesto': '5 millones'}
+1. Extrae el presupuesto del usuario.
+2. Compara el presupuesto con el **costo total**:
+   - Si el presupuesto ≥ costo total: confirma que cubre los gastos y muestra qué % representa cada concepto.
+   - Si el presupuesto &lt; costo total: indica que NO es suficiente y sugiere 2 ajustes al plan.
+No hagas desglose del presupuesto si no alcanza.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>```python
+costo_total = 8380000
+info_usuario = {'presupuesto': '5 millones'}
+# 1. Extraer el presupuesto del usuario
+presupuesto_str = info_usuario['presupuesto']
+# Eliminar " millones" y convertir a entero, multiplicando por 1 millón
+presupuesto = int(presupuesto_str.replace(' millones', '')) * 1000000
+# 2. Comparar el presupuesto con el costo total
+if presupuesto &gt;= costo_total:
+    print("¡Felicidades! Tu presupuesto cubre el costo total del viaje.")
+    # Calcular el porcentaje que representa el costo total del presupuesto
+    porcentaje_costo = (costo_total / presupuesto) * 100
+    print(f"El costo total del viaje representa el {porcentaje_costo:.2f}% de tu presupuesto.")
+else:
+    print("Lo sentimos, tu presupuesto NO es suficiente para cubrir el costo total del viaje.")
+    print("Te sugerimos los siguientes ajustes al plan:")
+    print("- **Reducir la duración del viaje:** Considera acortar el viaje en unos días para disminuir los gastos de alojamiento y actividades.")
+    print("- **Buscar opciones de alojamiento más económicas:** Explora hostales, apartamentos o alojamientos fuera de las zonas más turísticas.")
+```
+**Explicación del código:**
+1. **Extracción del presupuesto:**
+   - Se extrae el valor del presupuesto del diccionario `info_usuario`.
+   - Se utiliza `replace(' millones', '')` para eliminar la cadena " millones" del string.
+   - Se convierte el string resultante a un entero usando `int()`.
+   - Se multiplica por 1,000,000 para convertirlo a la cantidad numérica correcta (en COP).
+2. **Comparación y salida:**
+   - Se compara el `presupuesto` con el `costo_total`.
+   - **Si el presupuesto es suficiente:**
+     - Se imprime un mensaje de felicitación.
+     - Se calcula el porcentaje que representa el costo total del presupuesto.
+     - Se imprime el porcentaje formateado a dos decimales usando `:.2f`.
+   - **Si el presupuesto no es suficiente:**
+     - Se imprime un mensaje indicando que el presupuesto no es suficiente.
+     - Se sugieren dos ajustes al plan de viaje: reducir la duración y buscar alojamiento más económico.
+**Salida del código:**
+```
+Lo sentimos, tu presupuesto NO es suficiente para cubrir el costo total del viaje.
+Te sugerimos los siguientes ajustes al plan:
+- **Reducir la duración del viaje:** Considera acortar el viaje en unos días para disminuir los gastos de alojamiento y actividades.
+- **Buscar opciones de alojamiento más económicas:** Explora hostales, apartamentos o alojamientos fuera de las zonas más turísticas.
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-04-06 15:31:26</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Itinerario Final</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Con base en la siguiente información, genere un itinerario de viaje detallado pero conciso:
-0. Preferencias del usuario:
-```json
-{
-  "origen": "Pasto",
-  "destino": "Costa Rica",
-  "fecha": "Noviembre",
-  "duracion": "5-7 días",
-  "tipo_viaje": "Turismo ecológico",
-  "acompanantes": "Un amigo",
-  "presupuesto": "8-10 millones",
-  "expectativas": "Avistamiento de aves"
-}
-```
-1. Requisitos migratorios: Con base en la información proporcionada y los resultados web, los requisitos migratorios para colombianos que viajan a Costa Rica para turismo ecológico en noviembre son:
-*   **Visa:** Dependiendo de tu nacionalidad, es posible que necesites una visa. Consulta los enlaces proporcionados, especialmente el de la Embajada de Costa Rica en Colombia, para determinar si necesitas visa.
-*   **Pasaporte:** Pasaporte vigente con al menos seis meses de validez al momento del ingreso.
-*   **Tiquete de salida:** Billete de avión de salida de Costa Rica (ida y vuelta).
-*   **Prueba de solvencia económica:** Demostrar que se cuenta con los recursos económicos suficientes para cubrir los gastos durante la estadía.
-*   **Vacunas:** No se exigen vacunas obligatorias para ingresar a Costa Rica desde Colombia.
-*   **Otros documentos:** Es recomendable llevar una copia de la reserva del hotel o lugar de hospedaje, así como un itinerario del viaje.
-**Importante:**
-*   Verifica la información más actualizada en los sitios web oficiales de la Embajada de Costa Rica en Colombia y Visit Costa Rica, ya que los requisitos pueden cambiar.
-*   Asegúrate de cumplir con todos los requisitos para evitar problemas al ingresar al país.
-2. Información turística: Aquí está un resumen del clima, eventos y temporada turística en Costa Rica en Noviembre, basado en la información proporcionada y los resultados de búsqueda:
-*   **Clima:** Noviembre representa la transición de la temporada de lluvias a la seca.
-    *   **Pacífico:** Disminuyen las lluvias, con días soleados intercalados.
-    *   **Caribe:** Generalmente más lluvioso que el Pacífico.
-    *   En general, se puede esperar lluvia, pero no constante.
-*   **Temporada Turística:** Temporada baja/media.
-    *   Menos multitudes en comparación con la temporada alta (Diciembre-Abril).
-    *   Precios más bajos en alojamiento y tours.
-*   **Eventos/Actividades:**
-    *   Avistamiento de aves migratorias (oportunidad destacada).
-    *   Aunque no se mencionan eventos nacionales específicos, el clima en transición y la menor afluencia de turistas hacen de Noviembre un buen momento para explorar el país.
-3. Presupuesto y costos estimados: Okay, necesito más información para poder hacer el cálculo y la comparación. Necesito saber:
-1.  **Duración del viaje:** ¿Cuántos días dura el viaje?
-2.  **Número de personas:** ¿Cuántas personas están viajando?
-3.  **Presupuesto indicado por el usuario:** ¿Cuál es el presupuesto total que el usuario ha indicado para el viaje?
-Una vez que tenga esta información, puedo calcular el costo total estimado y compararlo con el presupuesto.  Luego, si el costo excede el presupuesto, puedo sugerir formas de reducir gastos.
-**Ejemplo:**
-Digamos que el viaje dura **5 días**, son **2 personas** viajando, y el presupuesto del usuario es de **3.000.000 COP**.
-**Cálculo:**
-*   **Transporte total:** 766.667 COP/persona/día * 2 personas * 5 días = 7.666.670 COP
-*   **Alojamiento total:** 150.000 COP/persona/día * 2 personas * 5 días = 1.500.000 COP
-*   **Alimentación total:** 100.000 COP/persona/día * 2 personas * 5 días = 1.000.000 COP
-*   **Costo total estimado:** 7.666.670 COP + 1.500.000 COP + 1.000.000 COP = 10.166.670 COP
-**Comparación:**
-El costo total estimado (10.166.670 COP) excede el presupuesto del usuario (3.000.000 COP) por 7.166.670 COP.
-**Sugerencias para reducir gastos (en este ejemplo):**
-1.  **Transporte:** El transporte es el gasto más grande.  Investigar opciones de transporte más económicas.  ¿Es posible usar transporte público en lugar de taxis o servicios de transporte privado?  ¿Se pueden encontrar vuelos o buses más baratos?  Considerar viajar en horarios menos demandados.
-2.  **Alojamiento:** Buscar opciones de alojamiento más económicas.  Considerar hostales, Airbnb (buscando opciones más económicas), o alojamientos fuera de las zonas más turísticas.
-**Por favor, proporciona la duración del viaje, el número de personas y el presupuesto del usuario para que pueda hacer un cálculo preciso y ofrecer sugerencias personalizadas.**
-Presente el resultado en las siguientes secciones:
-**I. Documentos y requisitos:**
-- Enumere los documentos necesarios para el ingreso y salida del país.
-- Indique si se necesita visa, vacunas, o formularios especiales.
-**II. Información general del destino:**
-- Clima estimado en las fechas del viaje.
-- Temporada (alta o baja).
-- Eventos especiales que coincidan con el viaje.
-**III. Presupuesto estimado:**
-- Desglose en COP por transporte, alojamiento y alimentación.
-- Nota si se ajusta al presupuesto definido o si se requieren cambios.
-**IV. Itinerario diario sugerido:**
-Presente de forma breve un plan por día. Para cada día, indique:
-- Actividades principales (máximo 3 por día).
-- Tipo de actividad (cultural, gastronómica, naturaleza, descanso, etc.).
-- Sugerencias de horario o ubicación si aplica.
-**V. Recomendaciones finales:**
-- Consejos adicionales según el perfil del viaje (por ejemplo, si es romántico, familiar, de aventura, etc.).
-- Recomendaciones sobre transporte local, seguridad o reservas anticipadas.
-El texto debe ser claro, útil y concreto. Use listas o viñetas cuando sea posible para facilitar la lectura.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Aquí tienes un itinerario detallado y conciso para tu viaje de turismo ecológico a Costa Rica, basado en la información proporcionada y asumiendo una duración de **7 días**, **2 personas** viajando, y un presupuesto de **9.000.000 COP**.
-**I. Documentos y requisitos:**
-*   **Pasaporte:** Vigente con al menos seis meses de validez al momento del ingreso.
-*   **Tiquete de salida:** Billete de avión de salida de Costa Rica (ida y vuelta).
-*   **Prueba de solvencia económica:** Demostrar que se cuenta con los recursos económicos suficientes para cubrir los gastos durante la estadía (extractos bancarios, tarjetas de crédito).
-*   **Visa:** Verificar si se necesita visa según la nacionalidad. Consultar la Embajada de Costa Rica en Colombia.
-*   **Vacunas:** No se exigen vacunas obligatorias.
-*   **Otros documentos:** Copia de la reserva del hotel o lugar de hospedaje, itinerario del viaje.
-**II. Información general del destino:**
-*   **Clima estimado:** Transición de la temporada de lluvias a la seca. En el Pacífico, menos lluvias con días soleados. En el Caribe, más lluvioso. Esperar lluvia, pero no constante.
-*   **Temporada:** Baja/media. Menos multitudes y precios más bajos.
-*   **Eventos especiales:** Avistamiento de aves migratorias. No hay eventos nacionales específicos en noviembre, pero es un buen momento para explorar el país con menos turistas.
-**III. Presupuesto estimado:**
-Para un viaje de 7 días y 2 personas, con un presupuesto de 9.000.000 COP, se recomienda lo siguiente (aproximado y adaptable):
-*   **Transporte (vuelos y transporte interno):** 4.500.000 COP (2.250.000 COP por persona).  Buscar vuelos económicos y considerar transporte público o compartido dentro de Costa Rica.
-*   **Alojamiento:** 2.100.000 COP (150.000 COP por persona por noche).  Optar por alojamientos ecológicos más económicos como cabañas, hostales o Airbnb fuera de las zonas más turísticas.
-*   **Alimentación:** 1.400.000 COP (100.000 COP por persona por día).  Comer en sodas (restaurantes locales) y preparar algunas comidas para ahorrar.
-*   **Actividades y entradas:** 1.000.000 COP (500.000 COP por persona). Priorizar actividades gratuitas o de bajo costo como caminatas y visitar parques nacionales.
-**Nota:** Este presupuesto es ajustado.  Se recomienda buscar ofertas en vuelos y alojamiento, y ser flexible con las actividades.
-**IV. Itinerario diario sugerido:**
-*   **Día 1: Llegada a San José y traslado a La Fortuna (Arenal).**
-    *   Actividad principal: Traslado desde el aeropuerto Juan Santamaría (SJO) a La Fortuna.
-    *   Tipo de actividad: Traslado, naturaleza.
-    *   Sugerencia: Reservar un transporte compartido o bus para reducir costos.
-*   **Día 2: Volcán Arenal y aguas termales.**
-    *   Actividades principales: Caminata por senderos alrededor del Volcán Arenal, visita a aguas termales (Baldi, Tabacon, Ecotermales Fortuna - este último más económico).
-    *   Tipo de actividad: Naturaleza, relajación.
-    *   Sugerencia: Elegir aguas termales más económicas y reservar con anticipación.
-*   **Día 3: La Fortuna - Monteverde.**
-    *   Actividades principales: Traslado de La Fortuna a Monteverde (Jeep-Boat-Jeep es una opción escénica), caminata por la tarde en la Reserva Biológica Bosque Nuboso Monteverde.
-    *   Tipo de actividad: Traslado, naturaleza.
-    *   Sugerencia: Reservar el traslado Jeep-Boat-Jeep con anticipación.
-*   **Día 4: Monteverde - Canopy y puentes colgantes.**
-    *   Actividades principales: Canopy (tirolesa) en el bosque nuboso, caminata por los puentes colgantes.
-    *   Tipo de actividad: Aventura, naturaleza.
-    *   Sugerencia: Comparar precios de diferentes operadores de canopy.
-*   **Día 5: Monteverde - Manuel Antonio.**
-    *   Actividades principales: Traslado de Monteverde a Manuel Antonio.
-    *   Tipo de actividad: Traslado.
-    *   Sugerencia: Considerar un bus directo para ahorrar.
-*   **Día 6: Parque Nacional Manuel Antonio.**
-    *   Actividades principales: Visita al Parque Nacional Manuel Antonio (playas, senderos, avistamiento de fauna).
-    *   Tipo de actividad: Naturaleza, playa.
-    *   Sugerencia: Llegar temprano al parque para evitar multitudes.
-*   **Día 7: Regreso a San José y salida.**
-    *   Actividades principales: Traslado de Manuel Antonio a San José, vuelo de regreso a Pasto.
-    *   Tipo de actividad: Traslado.
-    *   Sugerencia: Reservar el transporte con anticipación.
-**V. Recomendaciones finales:**
-*   **Turismo ecológico:** Respetar la flora y fauna local. No alimentar a los animales. Utilizar protector solar biodegradable.
-*   **Transporte local:** El transporte público en Costa Rica es relativamente económico, pero puede ser lento. Considerar buses o transporte compartido para traslados largos.
-*   **Seguridad:** Costa Rica es generalmente segura, pero tomar precauciones básicas como no dejar objetos de valor a la vista y estar atento a los alrededores.
-*   **Reservas anticipadas:** Reservar alojamiento y tours con anticipación, especialmente si viajan en temporada alta (aunque noviembre es temporada baja/media).
-*   **Avistamiento de aves:** Llevar binoculares y una guía de aves de Costa Rica. Contratar un guía local para aumentar las posibilidades de avistamiento.
-*   **Flexibilidad:** Ser flexible con el itinerario y estar preparado para cambios debido al clima.
-*   **Idioma:** Aunque el español es el idioma oficial, el inglés es ampliamente hablado en las zonas turísticas.
-Este itinerario es una sugerencia y puede ser adaptado a tus intereses y presupuesto. ¡Disfruta tu viaje a Costa Rica!</t>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>¡Prepárese para vivir la experiencia de su vida con DaviTravel! A continuación encontrará un itinerario ideal para el viaje de sus sueños:
+0. **Preferencias de viaje:**
+{'origen': 'pereira', 'destino': 'roma, italia', 'fecha': 'verano europa', 'duracion': '4', 'tipo_viaje': 'cultural y gastronomico', 'acompanantes': 'solo', 'presupuesto': '5 millones', 'expectativas': 'comer la mejor pasta'}
+1. **Requisitos migratorios:**
+Para viajar de Pereira a Roma, Italia, los requisitos migratorios generales son:
+*   **Visa:** No se requiere visa para estancias turísticas cortas (hasta 90 días).
+*   **Pasaporte:** Pasaporte válido con una vigencia de al menos 3 meses después de la fecha prevista de salida de Italia/Espacio Schengen.
+*   **Tiquete de Regreso:** Billete de avión de ida y vuelta.
+*   **Justificación del Viaje:** Documentación que justifique el propósito del viaje (ej: reservas de hotel, itinerario turístico).
+*   **Solvencia Económica:** Demostrar que se cuenta con los recursos económicos suficientes.
+*   **Seguro de Viaje:** Es obligatorio contar con un seguro de viaje con cobertura médica internacional con una cobertura mínima de 30.000 euros.
+*   **Vacunas:** No hay vacunas obligatorias.
+*   **Formulario de localización de pasajeros (PLF):** Es posible que se requiera completar un formulario de localización de pasajeros (PLF).
+**Recomendaciones Adicionales:**
+*   **Consulta las fuentes oficiales:** Verifica la información directamente en las páginas web de la Embajada de Italia en Colombia y la Cancillería de Colombia para obtener la información más actualizada y precisa.
+*   **Considera posibles cambios:** Los requisitos pueden cambiar, especialmente en lo relacionado con la pandemia. Mantente informado cerca de la fecha de tu viaje.
+2. **Información turística:**
+Clima: Caluroso y seco.
+Temporada Turística: Alta.
+Eventos: Festivales al aire libre, Conciertos, Eventos culturales, Celebraciones religiosas.
+3. **Presupuesto y costos estimados:**
+Lo sentimos, tu presupuesto NO es suficiente para cubrir el costo total del viaje.
+Te sugerimos los siguientes ajustes al plan:
+- **Reducir la duración del viaje:** Considera acortar el viaje en unos días para disminuir los gastos de alojamiento y actividades.
+- **Buscar opciones de alojamiento más económicas:** Explora hostales, apartamentos o alojamientos fuera de las zonas más turísticas.
+Organice el plan en estas secciones:
+I. **Documentos y requisitos**
+- Documentos imprescindibles para ingreso y salida.
+- Visa, vacunas u otros permisos necesarios.
+II. **Resumen del destino**
+- Clima en las fechas seleccionadas.
+- Temporada (alta o baja) y eventos especiales.
+III. **Desglose de presupuesto**
+- Transporte, alojamiento y alimentación en COP.
+- Indique si el plan se ajusta al presupuesto o sugiera ajustes.
+IV. **Itinerario diario**
+Para cada día, proponga:
+- Hasta 3 actividades destacadas.
+- Tipo de experiencia (cultural, gastronómica, aventura, descanso).
+- Horarios recomendados y ubicaciones clave.
+V. **Toques finales**
+- Consejos exclusivos según su perfil de viaje.
+- Recomendaciones de reservas anticipadas y transporte local.
+Haga que cada momento sea inolvidable y despierte la emoción de su próxima aventura.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>¡Absolutamente! Aquí tienes un itinerario diseñado para tu viaje a Roma, adaptado a tus preferencias y presupuesto, con los ajustes necesarios:
+**I. Documentos y Requisitos**
+*   **Documentos Imprescindibles:**
+    *   Pasaporte: Con vigencia de al menos 3 meses después de la fecha de regreso prevista (¡Verifica la fecha de expiración!).
+    *   Tiquete de avión de ida y vuelta.
+    *   Comprobante de alojamiento (reservas de hotel/hostal).
+    *   Seguro de viaje: Con cobertura médica internacional de al menos 30,000 euros.
+*   **Visa:** No requerida para estancias turísticas de hasta 90 días.
+*   **Vacunas:** No obligatorias.
+*   **Formulario de Localización de Pasajeros (PLF):** Verifica si es necesario completarlo cerca de la fecha de viaje.
+**II. Resumen del Destino**
+*   **Clima en Verano:** Caluroso y seco, con temperaturas que pueden superar los 30°C. Lleva ropa ligera, protector solar y un sombrero.
+*   **Temporada:** Alta (junio-agosto). Roma estará llena de turistas, así que prepárate para las multitudes y reserva todo con anticipación.
+*   **Eventos:** Festivales al aire libre, conciertos, eventos culturales, celebraciones religiosas (consulta la programación local antes de viajar).
+**III. Desglose de Presupuesto (Ajustado)**
+Dado que tu presupuesto de 5 millones de COP es limitado para un viaje de 4 días a Roma en temporada alta, he ajustado el itinerario para que sea más económico.
+*   **Transporte (Ida y Vuelta):** 2,500,000 COP (aproximado, puede variar según la aerolínea y la anticipación de la compra).
+*   **Alojamiento (Hostal/Airbnb):** 800,000 COP (4 noches x 200,000 COP por noche).
+*   **Alimentación:** 1,000,000 COP (250,000 COP por día). Prioriza trattorias locales y mercados para ahorrar.
+*   **Actividades/Entradas:** 500,000 COP (considerando algunas atracciones gratuitas y otras de bajo costo).
+*   **Transporte Local:** 200,000 COP (metro, autobús).
+**Total Estimado:** 5,000,000 COP
+**Ajustes Clave:**
+*   **Alojamiento:** Opta por un hostal o un Airbnb fuera del centro histórico para ahorrar en alojamiento.
+*   **Comida:** Evita los restaurantes turísticos caros. Busca trattorias locales y mercados para disfrutar de la auténtica cocina romana a precios más asequibles.
+*   **Actividades:** Aprovecha las atracciones gratuitas (iglesias, plazas, parques) y considera comprar un Roma Pass para obtener descuentos en transporte y museos.
+**IV. Itinerario Diario**
+**Día 1: Llegada y Roma Antigua**
+*   **Mañana (9:00 AM):** Llegada al aeropuerto de Fiumicino (FCO). Toma el tren Leonardo Express hasta la estación Termini (14 euros).
+    *   *Experiencia:* Traslado y primer contacto con la ciudad.
+*   **Tarde (12:00 PM):** Check-in en el hostal/Airbnb.
+    *   *Experiencia:* Acomodación.
+*   **Tarde (2:00 PM):** Coliseo y Foro Romano (compra las entradas en línea con anticipación para evitar filas).
+    *   *Experiencia:* Cultural e histórica.
+    *   *Ubicación:* Coliseo, Foro Romano.
+*   **Noche (7:00 PM):** Cena en una trattoria local en el barrio Monti.
+    *   *Experiencia:* Gastronómica.
+    *   *Ubicación:* Trattoria Ai Tre Scalini.
+**Día 2: Vaticano y Centro Histórico**
+*   **Mañana (9:00 AM):** Ciudad del Vaticano: Basílica de San Pedro y Museos Vaticanos (reserva las entradas en línea para evitar filas).
+    *   *Experiencia:* Cultural y religiosa.
+    *   *Ubicación:* Ciudad del Vaticano.
+*   **Tarde (2:00 PM):** Castillo de Sant'Angelo.
+    *   *Experiencia:* Cultural e histórica.
+    *   *Ubicación:* Castillo de Sant'Angelo.
+*   **Tarde (5:00 PM):** Paseo por el centro histórico: Piazza Navona, Panteón, Fontana di Trevi.
+    *   *Experiencia:* Cultural y visual.
+    *   *Ubicación:* Centro histórico.
+*   **Noche (8:00 PM):** Cena en el barrio Trastevere.
+    *   *Experiencia:* Gastronómica.
+    *   *Ubicación:* Trastevere.
+**Día 3: Arte y Jardines**
+*   **Mañana (10:00 AM):** Galería Borghese y Jardines de Villa Borghese (reserva con anticipación).
+    *   *Experiencia:* Cultural y natural.
+    *   *Ubicación:* Villa Borghese.
+*   **Tarde (2:00 PM):** Piazza del Popolo y Via del Corso.
+    *   *Experiencia:* Visual y comercial.
+    *   *Ubicación:* Piazza del Popolo, Via del Corso.
+*   **Tarde (5:00 PM):** Escalinata de la Plaza de España.
+    *   *Experiencia:* Visual.
+    *   *Ubicación:* Plaza de España.
+*   **Noche (7:00 PM):** Cena en el barrio Testaccio.
+    *   *Experiencia:* Gastronómica.
+    *   *Ubicación:* Testaccio.
+**Día 4: Despedida y Regreso**
+*   **Mañana (10:00 AM):** Mercado de Campo de' Fiori.
+    *   *Experiencia:* Gastronómica y cultural.
+    *   *Ubicación:* Campo de' Fiori.
+*   **Tarde (1:00 PM):** Almuerzo de despedida: ¡Disfruta de tu última pasta en Roma!
+    *   *Experiencia:* Gastronómica.
+*   **Tarde (4:00 PM):** Traslado al aeropuerto de Fiumicino (FCO).
+    *   *Experiencia:* Traslado.
+*   **Noche (7:00 PM):** Vuelo de regreso a Pereira.
+**V. Toques Finales**
+*   **Consejos Exclusivos:**
+    *   **Pasta:** Prueba la carbonara, cacio e pepe y amatriciana.
+    *   **Gelato:** No te pierdas las heladerías artesanales.
+    *   **Café:** Disfruta de un espresso en un bar local.
+*   **Reservas Anticipadas:**
+    *   Vuelos y alojamiento.
+    *   Coliseo, Museos Vaticanos, Galería Borghese.
+*   **Transporte Local:**
+    *   Metro: Eficiente para moverse por la ciudad.
+    *   Autobús: Útil para llegar a lugares fuera del centro.
+    *   Roma Pass: Considera comprarlo si planeas visitar muchos museos.
+¡Espero que este itinerario te ayude a planificar un viaje inolvidable a Roma!</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-06 15:31:44</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Integración Alianzas Davivienda</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>System: Usted es DaviTravel: siempre responde en español, en tercera persona, con entusiasmo y cercanía al usuario.
+Human: Toma este itinerario:
+¡Absolutamente! Aquí tienes un itinerario diseñado para tu viaje a Roma, adaptado a tus preferencias y presupuesto, con los ajustes necesarios:
+**I. Documentos y Requisitos**
+*   **Documentos Imprescindibles:**
+    *   Pasaporte: Con vigencia de al menos 3 meses después de la fecha de regreso prevista (¡Verifica la fecha de expiración!).
+    *   Tiquete de avión de ida y vuelta.
+    *   Comprobante de alojamiento (reservas de hotel/hostal).
+    *   Seguro de viaje: Con cobertura médica internacional de al menos 30,000 euros.
+*   **Visa:** No requerida para estancias turísticas de hasta 90 días.
+*   **Vacunas:** No obligatorias.
+*   **Formulario de Localización de Pasajeros (PLF):** Verifica si es necesario completarlo cerca de la fecha de viaje.
+**II. Resumen del Destino**
+*   **Clima en Verano:** Caluroso y seco, con temperaturas que pueden superar los 30°C. Lleva ropa ligera, protector solar y un sombrero.
+*   **Temporada:** Alta (junio-agosto). Roma estará llena de turistas, así que prepárate para las multitudes y reserva todo con anticipación.
+*   **Eventos:** Festivales al aire libre, conciertos, eventos culturales, celebraciones religiosas (consulta la programación local antes de viajar).
+**III. Desglose de Presupuesto (Ajustado)**
+Dado que tu presupuesto de 5 millones de COP es limitado para un viaje de 4 días a Roma en temporada alta, he ajustado el itinerario para que sea más económico.
+*   **Transporte (Ida y Vuelta):** 2,500,000 COP (aproximado, puede variar según la aerolínea y la anticipación de la compra).
+*   **Alojamiento (Hostal/Airbnb):** 800,000 COP (4 noches x 200,000 COP por noche).
+*   **Alimentación:** 1,000,000 COP (250,000 COP por día). Prioriza trattorias locales y mercados para ahorrar.
+*   **Actividades/Entradas:** 500,000 COP (considerando algunas atracciones gratuitas y otras de bajo costo).
+*   **Transporte Local:** 200,000 COP (metro, autobús).
+**Total Estimado:** 5,000,000 COP
+**Ajustes Clave:**
+*   **Alojamiento:** Opta por un hostal o un Airbnb fuera del centro histórico para ahorrar en alojamiento.
+*   **Comida:** Evita los restaurantes turísticos caros. Busca trattorias locales y mercados para disfrutar de la auténtica cocina romana a precios más asequibles.
+*   **Actividades:** Aprovecha las atracciones gratuitas (iglesias, plazas, parques) y considera comprar un Roma Pass para obtener descuentos en transporte y museos.
+**IV. Itinerario Diario**
+**Día 1: Llegada y Roma Antigua**
+*   **Mañana (9:00 AM):** Llegada al aeropuerto de Fiumicino (FCO). Toma el tren Leonardo Express hasta la estación Termini (14 euros).
+    *   *Experiencia:* Traslado y primer contacto con la ciudad.
+*   **Tarde (12:00 PM):** Check-in en el hostal/Airbnb.
+    *   *Experiencia:* Acomodación.
+*   **Tarde (2:00 PM):** Coliseo y Foro Romano (compra las entradas en línea con anticipación para evitar filas).
+    *   *Experiencia:* Cultural e histórica.
+    *   *Ubicación:* Coliseo, Foro Romano.
+*   **Noche (7:00 PM):** Cena en una trattoria local en el barrio Monti.
+    *   *Experiencia:* Gastronómica.
+    *   *Ubicación:* Trattoria Ai Tre Scalini.
+**Día 2: Vaticano y Centro Histórico**
+*   **Mañana (9:00 AM):** Ciudad del Vaticano: Basílica de San Pedro y Museos Vaticanos (reserva las entradas en línea para evitar filas).
+    *   *Experiencia:* Cultural y religiosa.
+    *   *Ubicación:* Ciudad del Vaticano.
+*   **Tarde (2:00 PM):** Castillo de Sant'Angelo.
+    *   *Experiencia:* Cultural e histórica.
+    *   *Ubicación:* Castillo de Sant'Angelo.
+*   **Tarde (5:00 PM):** Paseo por el centro histórico: Piazza Navona, Panteón, Fontana di Trevi.
+    *   *Experiencia:* Cultural y visual.
+    *   *Ubicación:* Centro histórico.
+*   **Noche (8:00 PM):** Cena en el barrio Trastevere.
+    *   *Experiencia:* Gastronómica.
+    *   *Ubicación:* Trastevere.
+**Día 3: Arte y Jardines**
+*   **Mañana (10:00 AM):** Galería Borghese y Jardines de Villa Borghese (reserva con anticipación).
+    *   *Experiencia:* Cultural y natural.
+    *   *Ubicación:* Villa Borghese.
+*   **Tarde (2:00 PM):** Piazza del Popolo y Via del Corso.
+    *   *Experiencia:* Visual y comercial.
+    *   *Ubicación:* Piazza del Popolo, Via del Corso.
+*   **Tarde (5:00 PM):** Escalinata de la Plaza de España.
+    *   *Experiencia:* Visual.
+    *   *Ubicación:* Plaza de España.
+*   **Noche (7:00 PM):** Cena en el barrio Testaccio.
+    *   *Experiencia:* Gastronómica.
+    *   *Ubicación:* Testaccio.
+**Día 4: Despedida y Regreso**
+*   **Mañana (10:00 AM):** Mercado de Campo de' Fiori.
+    *   *Experiencia:* Gastronómica y cultural.
+    *   *Ubicación:* Campo de' Fiori.
+*   **Tarde (1:00 PM):** Almuerzo de despedida: ¡Disfruta de tu última pasta en Roma!
+    *   *Experiencia:* Gastronómica.
+*   **Tarde (4:00 PM):** Traslado al aeropuerto de Fiumicino (FCO).
+    *   *Experiencia:* Traslado.
+*   **Noche (7:00 PM):** Vuelo de regreso a Pereira.
+**V. Toques Finales**
+*   **Consejos Exclusivos:**
+    *   **Pasta:** Prueba la carbonara, cacio e pepe y amatriciana.
+    *   **Gelato:** No te pierdas las heladerías artesanales.
+    *   **Café:** Disfruta de un espresso en un bar local.
+*   **Reservas Anticipadas:**
+    *   Vuelos y alojamiento.
+    *   Coliseo, Museos Vaticanos, Galería Borghese.
+*   **Transporte Local:**
+    *   Metro: Eficiente para moverse por la ciudad.
+    *   Autobús: Útil para llegar a lugares fuera del centro.
+    *   Roma Pass: Considera comprarlo si planeas visitar muchos museos.
+¡Espero que este itinerario te ayude a planificar un viaje inolvidable a Roma!
+Y estas alianzas activas de Davivienda en hotelería y turismo:
+- **TÃ­tulo de producto**: SubtÃ­tulo de producto. Beneficio: Millas Acumule. Aplica para: . [INSCRÃBASE AQUÃ]({{ URL_FRONT }}producto/{{ product.seo_url }})
+Devuelve exactamente el mismo itinerario, pero **inserta** en cada sección recomendaciones concretas de productos Davivienda (tarjetas, 0% interés, descuentos) para que el usuario aproveche al máximo las alianzas: desde la compra de tiquetes, reservas de alojamiento, actividades y compras locales. Mantén la estructura original y agrega en cada punto la sugerencia correspondiente.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>¡Claro que sí! DaviTravel ha revisado el itinerario y lo ha enriquecido con recomendaciones de productos Davivienda para que el viajero aproveche al máximo sus alianzas y beneficios. ¡Prepárense para una experiencia romana aún más completa!
+**I. Documentos y Requisitos**
+*   **Documentos Imprescindibles:**
+    *   Pasaporte: Con vigencia de al menos 3 meses después de la fecha de regreso prevista (¡Verifica la fecha de expiración!).
+    *   Tiquete de avión de ida y vuelta.
+    *   Comprobante de alojamiento (reservas de hotel/hostal).
+    *   Seguro de viaje: Con cobertura médica internacional de al menos 30,000 euros.
+*   **Visa:** No requerida para estancias turísticas de hasta 90 días.
+*   **Vacunas:** No obligatorias.
+*   **Formulario de Localización de Pasajeros (PLF):** Verifica si es necesario completarlo cerca de la fecha de viaje.
+    **DaviTravel Recomienda:** Utiliza tu Tarjeta de Crédito Davivienda para comprar los tiquetes aéreos y acumula millas para tu próximo viaje. ¡Además, muchos seguros de viaje ofrecen descuentos al pagar con tarjetas Davivienda!
+**II. Resumen del Destino**
+*   **Clima en Verano:** Caluroso y seco, con temperaturas que pueden superar los 30°C. Lleva ropa ligera, protector solar y un sombrero.
+*   **Temporada:** Alta (junio-agosto). Roma estará llena de turistas, así que prepárate para las multitudes y reserva todo con anticipación.
+*   **Eventos:** Festivales al aire libre, conciertos, eventos culturales, celebraciones religiosas (consulta la programación local antes de viajar).
+    **DaviTravel Recomienda:** Planifica tus compras de verano con anticipación y aprovecha las opciones de 0% de interés que ofrece Davivienda en comercios aliados. ¡Así podrás disfrutar del viaje sin preocuparte por el pago inmediato!
+**III. Desglose de Presupuesto (Ajustado)**
+Dado que tu presupuesto de 5 millones de COP es limitado para un viaje de 4 días a Roma en temporada alta, he ajustado el itinerario para que sea más económico.
+*   **Transporte (Ida y Vuelta):** 2,500,000 COP (aproximado, puede variar según la aerolínea y la anticipación de la compra).
+*   **Alojamiento (Hostal/Airbnb):** 800,000 COP (4 noches x 200,000 COP por noche).
+*   **Alimentación:** 1,000,000 COP (250,000 COP por día). Prioriza trattorias locales y mercados para ahorrar.
+*   **Actividades/Entradas:** 500,000 COP (considerando algunas atracciones gratuitas y otras de bajo costo).
+*   **Transporte Local:** 200,000 COP (metro, autobús).
+**Total Estimado:** 5,000,000 COP
+**Ajustes Clave:**
+*   **Alojamiento:** Opta por un hostal o un Airbnb fuera del centro histórico para ahorrar en alojamiento.
+*   **Comida:** Evita los restaurantes turísticos caros. Busca trattorias locales y mercados para disfrutar de la auténtica cocina romana a precios más asequibles.
+*   **Actividades:** Aprovecha las atracciones gratuitas (iglesias, plazas, parques) y considera comprar un Roma Pass para obtener descuentos en transporte y museos.
+    **DaviTravel Recomienda:** Busca alojamientos y actividades que tengan alianzas con Davivienda para obtener descuentos especiales. ¡Revisa la página web de Davivienda para conocer los beneficios vigentes!
+**IV. Itinerario Diario**
+**Día 1: Llegada y Roma Antigua**
+*   **Mañana (9:00 AM):** Llegada al aeropuerto de Fiumicino (FCO). Toma el tren Leonardo Express hasta la estación Termini (14 euros).
+    *   *Experiencia:* Traslado y primer contacto con la ciudad.
+*   **Tarde (12:00 PM):** Check-in en el hostal/Airbnb.
+    *   *Experiencia:* Acomodación.
+*   **Tarde (2:00 PM):** Coliseo y Foro Romano (compra las entradas en línea con anticipación para evitar filas).
+    *   *Experiencia:* Cultural e histórica.
+    *   *Ubicación:* Coliseo, Foro Romano.
+*   **Noche (7:00 PM):** Cena en una trattoria local en el barrio Monti.
+    *   *Experiencia:* Gastronómica.
+    *   *Ubicación:* Trattoria Ai Tre Scalini.
+    **DaviTravel Recomienda:** Utiliza tu Tarjeta Débito Davivienda para retirar euros en cajeros automáticos en Roma. ¡Así tendrás efectivo para gastos menores y evitarás comisiones altas por cambio de divisas!
+**Día 2: Vaticano y Centro Histórico**
+*   **Mañana (9:00 AM):** Ciudad del Vaticano: Basílica de San Pedro y Museos Vaticanos (reserva las entradas en línea para evitar filas).
+    *   *Experiencia:* Cultural y religiosa.
+    *   *Ubicación:* Ciudad del Vaticano.
+*   **Tarde (2:00 PM):** Castillo de Sant'Angelo.
+    *   *Experiencia:* Cultural e histórica.
+    *   *Ubicación:* Castillo de Sant'Angelo.
+*   **Tarde (5:00 PM):** Paseo por el centro histórico: Piazza Navona, Panteón, Fontana di Trevi.
+    *   *Experiencia:* Cultural y visual.
+    *   *Ubicación:* Centro histórico.
+*   **Noche (8:00 PM):** Cena en el barrio Trastevere.
+    *   *Experiencia:* Gastronómica.
+    *   *Ubicación:* Trastevere.
+    **DaviTravel Recomienda:** Si encuentras algún comercio en el Vaticano o en el centro histórico que acepte tarjetas, utiliza tu Tarjeta de Crédito Davivienda para acumular millas o puntos. ¡Cada compra cuenta!
+**Día 3: Arte y Jardines**
+*   **Mañana (10:00 AM):** Galería Borghese y Jardines de Villa Borghese (reserva con anticipación).
+    *   *Experiencia:* Cultural y natural.
+    *   *Ubicación:* Villa Borghese.
+*   **Tarde (2:00 PM):** Piazza del Popolo y Via del Corso.
+    *   *Experiencia:* Visual y comercial.
+    *   *Ubicación:* Piazza del Popolo, Via del Corso.
+*   **Tarde (5:00 PM):** Escalinata de la Plaza de España.
+    *   *Experiencia:* Visual.
+    *   *Ubicación:* Plaza de España.
+*   **Noche (7:00 PM):** Cena en el barrio Testaccio.
+    *   *Experiencia:* Gastronómica.
+    *   *Ubicación:* Testaccio.
+    **DaviTravel Recomienda:** ¡No olvides revisar si la Galería Borghese o algún comercio en Via del Corso tiene alianzas con Davivienda! Podrías obtener descuentos o beneficios adicionales al pagar con tus tarjetas.
+**Día 4: Despedida y Regreso**
+*   **Mañana (10:00 AM):** Mercado de Campo de' Fiori.
+    *   *Experiencia:* Gastronómica y cultural.
+    *   *Ubicación:* Campo de' Fiori.
+*   **Tarde (1:00 PM):** Almuerzo de despedida: ¡Disfruta de tu última pasta en Roma!
+    *   *Experiencia:* Gastronómica.
+*   **Tarde (4:00 PM):** Traslado al aeropuerto de Fiumicino (FCO).
+    *   *Experiencia:* Traslado.
+*   **Noche (7:00 PM):** Vuelo de regreso a Pereira.
+    **DaviTravel Recomienda:** Antes de regresar, revisa si tienes alguna compra pendiente y aprovecha los últimos momentos para utilizar tus tarjetas Davivienda y acumular millas o puntos. ¡Cada oportunidad cuenta!
+**V. Toques Finales**
+*   **Consejos Exclusivos:**
+    *   **Pasta:** Prueba la carbonara, cacio e pepe y amatriciana.
+    *   **Gelato:** No te pierdas las heladerías artesanales.
+    *   **Café:** Disfruta de un espresso en un bar local.
+*   **Reservas Anticipadas:**
+    *   Vuelos y alojamiento.
+    *   Coliseo, Museos Vaticanos, Galería Borghese.
+*   **Transporte Local:**
+    *   Metro: Eficiente para moverse por la ciudad.
+    *   Autobús: Útil para llegar a lugares fuera del centro.
+    *   Roma Pass: Considera comprarlo si planeas visitar muchos museos.
+    **DaviTravel Recomienda:** Antes de viajar, activa las notificaciones de tu aplicación Davivienda para estar al tanto de tus transacciones y mantener el control de tus gastos. ¡Así podrás disfrutar de tu viaje con tranquilidad!
+¡DaviTravel espera que este itinerario mejorado te ayude a planificar un viaje inolvidable a Roma, aprovechando al máximo los beneficios que Davivienda tiene para ti! ¡Buen viaje!</t>
         </is>
       </c>
     </row>

--- a/llm_log.xlsx
+++ b/llm_log.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-06 15:30:07</t>
+          <t>2025-04-06 15:55:09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -470,7 +470,7 @@
         <is>
           <t>Extraiga los siguientes datos del texto: origen, destino, fecha, duración del viaje, tipo de viaje, acompañantes, presupuesto y expectativas.
 Texto:
-Desde dónde viaja: pereira; Hacia dónde se dirige: roma, italia; Cuándo viajar: verano europa; Duración del viaje: 4 o 5 días; Tipo de viaje: cultural y gastronomico; Con quién viaja: solo; Presupuesto: 5 millones; Expectativas adicionales: quiero comer la mejor pasta
+Desde dónde viaja: tunja; Hacia dónde se dirige: londres; Cuándo viajar: primavera; Duración del viaje: entre 4 y 5 días; Tipo de viaje: cultural y futbol; Con quién viaja: con pareja; Presupuesto: 18 millones; Expectativas adicionales: conocer el big ben y liverpool
 Responda en formato JSON corto.</t>
         </is>
       </c>
@@ -478,14 +478,14 @@
         <is>
           <t>```json
 {
-  "origen": "pereira",
-  "destino": "roma, italia",
-  "fecha": "verano europa",
-  "duracion": "4 o 5 días",
-  "tipo_viaje": "cultural y gastronomico",
-  "acompanantes": "solo",
-  "presupuesto": "5 millones",
-  "expectativas": "comer la mejor pasta"
+  "origen": "tunja",
+  "destino": "londres",
+  "fecha": "primavera",
+  "duracion": "4-5 días",
+  "tipo_viaje": "cultural y futbol",
+  "acompanantes": "pareja",
+  "presupuesto": "18 millones",
+  "expectativas": "conocer el big ben y liverpool"
 }
 ```</t>
         </is>
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-06 15:30:08</t>
+          <t>2025-04-06 15:55:11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,19 +504,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dado este requerimiento de viaje: {"origen": "pereira", "destino": "roma, italia"}, genere una sola consulta de búsqueda en español (máximo una línea) para buscar los requisitos migratorios en internet.</t>
+          <t>Dado este requerimiento de viaje: {"origen": "tunja", "destino": "londres"}, genere una sola consulta de búsqueda en español (máximo una línea) para buscar los requisitos migratorios en internet.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Requisitos migratorios para viajar de Pereira a Roma, Italia.</t>
+          <t>Requisitos migratorios para viajar de Tunja a Londres.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-06 15:30:09</t>
+          <t>2025-04-06 15:55:11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -527,20 +527,20 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Con base en este contexto migratorio generado por el sistema:
-Requisitos migratorios para viajar de Pereira a Roma, Italia.
+Requisitos migratorios para viajar de Tunja a Londres.
 Escriba una consulta de búsqueda breve y específica en español para internet. La consulta debe buscar requisitos migratorios oficiales para ciudadanos colombianos hacia el país destino. No escriba explicaciones, solo la consulta en una línea.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Requisitos migratorios Italia colombianos</t>
+          <t>Requisitos migratorios colombianos Londres</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-06 15:30:10</t>
+          <t>2025-04-06 15:55:12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -550,23 +550,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Requisitos migratorios Italia colombianos</t>
+          <t>Requisitos migratorios colombianos Londres</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7 requisitos para viajar a Italia desde Colombia este 2025: https://colombianabroad.com/requisitos-entrada-italia-colombia/
-Requisitos para viajar a Italia 2025 como turista (visto): https://www.conociendoitalia.com/requisitos-para-viajar-a-italia/
-Cancillería emite recomendaciones para colombianos que viajan a Europa: https://www.cancilleria.gov.co/newsroom/news/cancilleria-emite-recomendaciones-colombianos-viajan-europa
-Esto se necesita para ir a Italia desde Colombia: Lista completa de ...: https://www.wradio.com.co/2024/04/08/esto-se-necesita-para-ir-a-italia-desde-colombia-lista-completa-de-requisitos/
-Indicaciones ingreso/salida de Colombia e ingreso a Italia: https://ambbogota.esteri.it/es/news/dall_ambasciata/2023/09/indicaciones-ingreso-salida-de-colombia-e-ingreso-a-italia/</t>
+          <t>Nueva solicitud de Visa a Reino Unido | Consulado de Colombia: https://londres.consulado.gov.co/newsroom/news/nueva-solicitud-de-visa-reino-unido
+7 requisitos para entrar a Reino Unido como colombiano este 2025: https://colombianabroad.com/requisitos-entrada-reino-unido-colombia/
+Documentación necesaria para viajar a Londres 2025 - Viajar Londres: https://www.viajarlondres.com/documentacion-necesaria.php
+¿Qué necesita un colombiano actualmente para viajar a Londres ...: https://www.wradio.com.co/2025/01/25/que-necesita-un-colombiano-actualmente-para-viajar-a-londres-documentos-requisitos-visa-y-mas/
+Requisitos | Consulado de Colombia: https://londres.consulado.gov.co/tramites-y-servicios/requisitos</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-06 15:30:13</t>
+          <t>2025-04-06 15:55:14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -577,38 +577,34 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>Con base en esta información y los resultados web, indique los requisitos migratorios para el viaje:
-Requisitos migratorios para viajar de Pereira a Roma, Italia.
+Requisitos migratorios para viajar de Tunja a Londres.
 Resultados de internet:
-7 requisitos para viajar a Italia desde Colombia este 2025: https://colombianabroad.com/requisitos-entrada-italia-colombia/
-Requisitos para viajar a Italia 2025 como turista (visto): https://www.conociendoitalia.com/requisitos-para-viajar-a-italia/
-Cancillería emite recomendaciones para colombianos que viajan a Europa: https://www.cancilleria.gov.co/newsroom/news/cancilleria-emite-recomendaciones-colombianos-viajan-europa
-Esto se necesita para ir a Italia desde Colombia: Lista completa de ...: https://www.wradio.com.co/2024/04/08/esto-se-necesita-para-ir-a-italia-desde-colombia-lista-completa-de-requisitos/
-Indicaciones ingreso/salida de Colombia e ingreso a Italia: https://ambbogota.esteri.it/es/news/dall_ambasciata/2023/09/indicaciones-ingreso-salida-de-colombia-e-ingreso-a-italia/
+Nueva solicitud de Visa a Reino Unido | Consulado de Colombia: https://londres.consulado.gov.co/newsroom/news/nueva-solicitud-de-visa-reino-unido
+7 requisitos para entrar a Reino Unido como colombiano este 2025: https://colombianabroad.com/requisitos-entrada-reino-unido-colombia/
+Documentación necesaria para viajar a Londres 2025 - Viajar Londres: https://www.viajarlondres.com/documentacion-necesaria.php
+¿Qué necesita un colombiano actualmente para viajar a Londres ...: https://www.wradio.com.co/2025/01/25/que-necesita-un-colombiano-actualmente-para-viajar-a-londres-documentos-requisitos-visa-y-mas/
+Requisitos | Consulado de Colombia: https://londres.consulado.gov.co/tramites-y-servicios/requisitos
 Sea claro y conciso. Liste si se requiere visa, vacunas u otros documentos.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Para viajar de Pereira a Roma, Italia, los requisitos migratorios generales (basados en los resultados de búsqueda y asumiendo que eres ciudadano colombiano viajando como turista en 2025) son:
-*   **Visa:** No se requiere visa para estancias turísticas cortas (hasta 90 días) dentro de un período de 180 días.
-*   **Pasaporte:** Pasaporte válido con una vigencia de al menos 3 meses después de la fecha prevista de salida de Italia/Espacio Schengen.
-*   **Tiquete de Regreso:** Billete de avión de ida y vuelta que demuestre la intención de regresar a Colombia.
-*   **Justificación del Viaje:** Documentación que justifique el propósito del viaje (ej: reservas de hotel, itinerario turístico).
-*   **Solvencia Económica:** Demostrar que se cuenta con los recursos económicos suficientes para cubrir los gastos durante la estancia. Esto puede ser en efectivo, tarjetas de crédito, cheques de viajero, etc. Se recomienda verificar el monto mínimo requerido actualizado para 2025.
-*   **Seguro de Viaje:** Es obligatorio contar con un seguro de viaje con cobertura médica internacional que cubra gastos de hospitalización y repatriación, con una cobertura mínima de 30.000 euros.
-*   **Vacunas:** No hay vacunas obligatorias para ingresar a Italia desde Colombia, pero se recomienda consultar con un médico sobre las vacunas recomendadas para viajes internacionales.
-*   **Formulario de localización de pasajeros (PLF):** Es posible que se requiera completar un formulario de localización de pasajeros (PLF) antes de viajar. Esto dependerá de las regulaciones sanitarias vigentes en el momento del viaje.
-**Recomendaciones Adicionales:**
-*   **Consulta las fuentes oficiales:** Verifica la información directamente en las páginas web de la Embajada de Italia en Colombia y la Cancillería de Colombia para obtener la información más actualizada y precisa.
-*   **Considera posibles cambios:** Los requisitos pueden cambiar, especialmente en lo relacionado con la pandemia. Mantente informado cerca de la fecha de tu viaje.
-**Nota:** Esta información es una guía general. Es fundamental verificar los requisitos específicos y actualizados en las fuentes oficiales antes de viajar.</t>
+          <t>Basado en la información proporcionada y los resultados web, los requisitos migratorios para viajar de Tunja (Colombia) a Londres (Reino Unido) incluyen:
+*   **Visa:** Es probable que se necesite una visa para ciudadanos colombianos que viajen al Reino Unido. Se recomienda consultar la página del Consulado de Colombia en Londres para obtener información actualizada sobre el proceso de solicitud.
+*   **Pasaporte:** Un pasaporte válido es un requisito fundamental.
+*   **Otros documentos:** Es posible que se requieran documentos adicionales, como prueba de alojamiento, itinerario de viaje, prueba de fondos suficientes y una carta de invitación (si aplica).
+**Recomendaciones:**
+*   **Consulte fuentes oficiales:** La información más precisa y actualizada se encuentra en los sitios web del Consulado de Colombia en Londres y la Embajada del Reino Unido en Colombia.
+*   **Verifique los requisitos específicos:** Los requisitos pueden variar según el propósito del viaje (turismo, estudio, trabajo, etc.).
+*   **Planifique con anticipación:** El proceso de solicitud de visa puede llevar tiempo, así que comience con suficiente antelación a la fecha de viaje.
+*   **Vacunas:** Consulte con su médico si necesita alguna vacuna.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-06 15:30:15</t>
+          <t>2025-04-06 15:55:16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -619,23 +615,25 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>Describa brevemente el clima, las temporadas turísticas (alta o baja) y eventos relevantes en el destino según esta información:
-roma, italia, verano europa
+{"destino": "londres", "fecha": "primavera", "tipo_viaje": "cultural y futbol", "expectativas": "conocer el big ben y liverpool"}
 Use viñetas si es posible. Sea claro y evite detalles innecesarios.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aquí tienes una descripción concisa del clima, temporadas turísticas y eventos en Roma, Italia, durante el verano europeo:
-*   **Clima:** Caluroso y seco. Temperaturas elevadas, especialmente en julio y agosto.
-*   **Temporada Turística:** Alta. El verano es la temporada más popular para visitar Roma, por lo que hay mucha gente y precios más altos.
-*   **Eventos Relevantes:** Festivales al aire libre, conciertos, eventos culturales y celebraciones religiosas.</t>
+          <t>Aquí tienes una descripción breve del clima, temporadas turísticas y eventos en Londres en primavera, considerando un viaje cultural y futbolístico con interés en el Big Ben y Liverpool:
+*   **Clima:** Templado y variable. Puede haber días soleados y agradables, pero también lluvias. Las temperaturas suelen oscilar entre los 8°C y los 15°C.
+*   **Temporada Turística:** Temporada alta. La primavera es un momento popular para visitar Londres debido al clima más agradable y los jardines florecientes.
+*   **Eventos Relevantes:**
+    *   **Cultural:** Numerosos festivales, exposiciones y eventos en museos y galerías.
+    *   **Fútbol:** La temporada de fútbol inglés (Premier League) está en su recta final, con partidos importantes en Londres y la posibilidad de viajar a Liverpool para ver un partido (requiere planificación anticipada).</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-06 15:30:15</t>
+          <t>2025-04-06 15:55:17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -646,23 +644,25 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>Según este contexto turístico:
-Aquí tienes una descripción concisa del clima, temporadas turísticas y eventos en Roma, Italia, durante el verano europeo:
-*   **Clima:** Caluroso y seco. Temperaturas elevadas, especialmente en julio y agosto.
-*   **Temporada Turística:** Alta. El verano es la temporada más popular para visitar Roma, por lo que hay mucha gente y precios más altos.
-*   **Eventos Relevantes:** Festivales al aire libre, conciertos, eventos culturales y celebraciones religiosas.
+Aquí tienes una descripción breve del clima, temporadas turísticas y eventos en Londres en primavera, considerando un viaje cultural y futbolístico con interés en el Big Ben y Liverpool:
+*   **Clima:** Templado y variable. Puede haber días soleados y agradables, pero también lluvias. Las temperaturas suelen oscilar entre los 8°C y los 15°C.
+*   **Temporada Turística:** Temporada alta. La primavera es un momento popular para visitar Londres debido al clima más agradable y los jardines florecientes.
+*   **Eventos Relevantes:**
+    *   **Cultural:** Numerosos festivales, exposiciones y eventos en museos y galerías.
+    *   **Fútbol:** La temporada de fútbol inglés (Premier League) está en su recta final, con partidos importantes en Londres y la posibilidad de viajar a Liverpool para ver un partido (requiere planificación anticipada).
 Genere una consulta de búsqueda concreta y corta en español para internet. Debe enfocarse en eventos turísticos, clima o temporadas en el destino en las fechas del viaje. No incluya explicaciones, solo la consulta.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Roma eventos verano precios</t>
+          <t>Londres primavera eventos futbol clima</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-06 15:30:17</t>
+          <t>2025-04-06 15:55:18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -672,23 +672,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Roma eventos verano precios</t>
+          <t>Londres primavera eventos futbol clima</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Eventos, calendario y entradas en Roma, Italia | Eventbrite: https://www.eventbrite.es/d/italy--roma/events/
-Eventos en Roma, próximos eventos, todos los eventos ... - 10times: https://10times.com/es/rome-it
-Verano en Roma: Eventos, Festivales y Vida Nocturna: https://www.romeprivateguides.com/es/blog/sobre-roma/to-do-summer-rome.html
-Eventos en Roma, música, cine y espectáculos - Guía en Roma: https://www.enroma.com/eventos-roma/
-10 cosas que hacer en Roma en verano - Hellotickets: https://www.hellotickets.es/italia/roma/roma-en-verano/sc-124-2092</t>
+          <t>La mejor época para visitar Londres: Descubra la temporada ... - Freetour: https://www.freetour.com/es/blog/la-mejor-epoca-para-visitar-londres-revelando-los-secretos-para-una-visita-perfecta
+→ Todo sobre la Primavera en Londres - Trucos y planes 2025: https://loving-london.com/es/primavera-en-londres/
+Londres en Primavera 2025 ᐈ Qué hacer | Planes | Tiempo - Tricky London: https://trickylondon.com/que-hacer-londres-primavera/
+Mejor Epoca Para Viajar a Londres | Roamless: https://roamless.com/es/blog/mejor-epoca-para-viaja-a-londres
+La mejor época para visitar Londres en 2025: estaciones, eventos ... - Way: https://www.way.com/es/blog/best-time-to-visit-london/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-06 15:30:18</t>
+          <t>2025-04-06 15:55:20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -699,37 +699,39 @@
       <c r="C10" t="inlineStr">
         <is>
           <t>Utilice la siguiente información y resultados de búsqueda para resumir el clima, eventos y temporada turística del destino:
-Aquí tienes una descripción concisa del clima, temporadas turísticas y eventos en Roma, Italia, durante el verano europeo:
-*   **Clima:** Caluroso y seco. Temperaturas elevadas, especialmente en julio y agosto.
-*   **Temporada Turística:** Alta. El verano es la temporada más popular para visitar Roma, por lo que hay mucha gente y precios más altos.
-*   **Eventos Relevantes:** Festivales al aire libre, conciertos, eventos culturales y celebraciones religiosas.
+Aquí tienes una descripción breve del clima, temporadas turísticas y eventos en Londres en primavera, considerando un viaje cultural y futbolístico con interés en el Big Ben y Liverpool:
+*   **Clima:** Templado y variable. Puede haber días soleados y agradables, pero también lluvias. Las temperaturas suelen oscilar entre los 8°C y los 15°C.
+*   **Temporada Turística:** Temporada alta. La primavera es un momento popular para visitar Londres debido al clima más agradable y los jardines florecientes.
+*   **Eventos Relevantes:**
+    *   **Cultural:** Numerosos festivales, exposiciones y eventos en museos y galerías.
+    *   **Fútbol:** La temporada de fútbol inglés (Premier League) está en su recta final, con partidos importantes en Londres y la posibilidad de viajar a Liverpool para ver un partido (requiere planificación anticipada).
 Resultados de internet:
-Eventos, calendario y entradas en Roma, Italia | Eventbrite: https://www.eventbrite.es/d/italy--roma/events/
-Eventos en Roma, próximos eventos, todos los eventos ... - 10times: https://10times.com/es/rome-it
-Verano en Roma: Eventos, Festivales y Vida Nocturna: https://www.romeprivateguides.com/es/blog/sobre-roma/to-do-summer-rome.html
-Eventos en Roma, música, cine y espectáculos - Guía en Roma: https://www.enroma.com/eventos-roma/
-10 cosas que hacer en Roma en verano - Hellotickets: https://www.hellotickets.es/italia/roma/roma-en-verano/sc-124-2092
+La mejor época para visitar Londres: Descubra la temporada ... - Freetour: https://www.freetour.com/es/blog/la-mejor-epoca-para-visitar-londres-revelando-los-secretos-para-una-visita-perfecta
+→ Todo sobre la Primavera en Londres - Trucos y planes 2025: https://loving-london.com/es/primavera-en-londres/
+Londres en Primavera 2025 ᐈ Qué hacer | Planes | Tiempo - Tricky London: https://trickylondon.com/que-hacer-londres-primavera/
+Mejor Epoca Para Viajar a Londres | Roamless: https://roamless.com/es/blog/mejor-epoca-para-viaja-a-londres
+La mejor época para visitar Londres en 2025: estaciones, eventos ... - Way: https://www.way.com/es/blog/best-time-to-visit-london/
 Use viñetas si es posible. Sea concreto.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aquí está un resumen del clima, eventos y temporada turística en Roma durante el verano europeo:
-*   **Clima:** Caluroso y seco, con temperaturas elevadas, especialmente en julio y agosto.
-*   **Temporada Turística:** Alta. El verano es la temporada turística más popular, lo que significa multitudes y precios más altos.
+          <t>Aquí tienes un resumen del clima, eventos y temporada turística de Londres en primavera, enfocado en un viaje cultural y futbolístico:
+*   **Clima:** Templado y variable, con temperaturas que oscilan entre 8°C y 15°C. Prepárate para días soleados y lluviosos.
+*   **Temporada Turística:** Temporada alta. La primavera es un momento popular para visitar Londres debido al clima más agradable y los jardines florecientes.
 *   **Eventos:**
-    *   Festivales al aire libre.
-    *   Conciertos.
-    *   Eventos culturales.
-    *   Celebraciones religiosas.
-    *   Una variedad de eventos listados en plataformas como Eventbrite, 10times, Rome Private Guides, Guía en Roma y Hellotickets.</t>
+    *   **Cultural:** Numerosos festivales, exposiciones y eventos en museos y galerías. La primavera es un momento ideal para disfrutar de la oferta cultural de Londres.
+    *   **Fútbol:** La temporada de la Premier League está en su recta final, ofreciendo la oportunidad de asistir a partidos en Londres. Un viaje a Liverpool para ver un partido es posible, pero requiere planificación anticipada.
+*   **Consideraciones Adicionales (basado en los resultados de búsqueda):**
+    *   La primavera es considerada una de las mejores épocas para visitar Londres.
+    *   Hay muchos planes y actividades específicas para la primavera en Londres, como se detalla en los enlaces proporcionados.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-06 15:30:24</t>
+          <t>2025-04-06 15:55:27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -743,65 +745,73 @@
 - Costo total diario en COP de transporte (tiquetes incluidos), alojamiento y comida.
 - Costo diario por persona en COP para cada concepto.
 Datos:
-{"origen": "pereira", "destino": "roma, italia", "duracion": "4", "tipo_viaje": "cultural y gastronomico"}
+{"origen": "tunja", "destino": "londres", "duracion": "4-5 días", "acompanantes": "2", "tipo_viaje": "cultural y futbol"}
 Presente valores totales y por persona.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Para estimar el costo del viaje, necesito hacer algunas suposiciones y usar rangos de precios promedio, ya que la información proporcionada es limitada.  Es importante recordar que estos son solo estimados y los precios reales pueden variar significativamente dependiendo de las elecciones específicas (aerolínea, hotel, restaurantes, etc.).
+          <t>Para estimar el costo del viaje de Tunja a Londres con los datos proporcionados, necesitamos hacer algunas suposiciones y usar promedios, ya que la información es limitada.  Es importante recordar que estos son solo estimados y el costo real puede variar significativamente.
 **Suposiciones:**
-*   **Tiquetes:** Asumo un precio promedio para un tiquete ida y vuelta Pereira - Roma.
-*   **Alojamiento:** Asumo un hotel de gama media (3 estrellas) o un Airbnb con buena ubicación.
-*   **Comida:** Asumo un presupuesto moderado para comidas, incluyendo restaurantes locales y algunas experiencias gastronómicas.
-*   **Transporte local:** Incluyo transporte público y algunos taxis/ubers.
-*   **Número de viajeros:** Asumo que viaja **1 persona**, ya que no se especifica. Si viajan más personas, el costo por persona de alojamiento podría disminuir.
-**Estimaciones:**
-**1. Tiquetes (Ida y Vuelta Pereira - Roma):**
-*   Rango estimado: COP 4.000.000 - COP 7.000.000 (Dependiendo de la temporada, aerolínea y anticipación de la compra).
-*   Promedio estimado: COP 5.500.000
-**2. Alojamiento (por noche):**
-*   Rango estimado: COP 300.000 - COP 600.000 (Hotel 3 estrellas o Airbnb bien ubicado).
-*   Promedio estimado: COP 450.000
-**3. Comida (por día):**
-*   Rango estimado: COP 150.000 - COP 300.000 (Incluyendo desayuno, almuerzo, cena y alguna experiencia gastronómica).
-*   Promedio estimado: COP 225.000
-**4. Transporte Local (por día):**
-*   Rango estimado: COP 30.000 - COP 60.000 (Transporte público, algunos taxis/ubers).
-*   Promedio estimado: COP 45.000
-**Cálculos:**
-*   **Costo total de alojamiento (4 noches):** 4 noches * COP 450.000/noche = COP 1.800.000
-*   **Costo total de comida (4 días):** 4 días * COP 225.000/día = COP 900.000
-*   **Costo total de transporte local (4 días):** 4 días * COP 45.000/día = COP 180.000
-**Resumen:**
-| Concepto        | Costo Total (COP) | Costo Diario (COP) | Costo Diario por Persona (COP) |
-|-----------------|--------------------|---------------------|---------------------------------|
-| Tiquetes        | 5.500.000          | 1.375.000 (prorrateado)  | 1.375.000                       |
-| Alojamiento     | 1.800.000          | 450.000             | 450.000                         |
-| Comida          | 900.000            | 225.000             | 225.000                         |
-| Transporte Local | 180.000            | 45.000              | 45.000                          |
-| **TOTAL**       | **8.380.000**      | **2.095.000**       | **2.095.000**                   |
-**Conclusión:**
-*   **Costo total estimado del viaje (4 días): COP 8.380.000**
-*   **Costo total diario estimado: COP 2.095.000**
-*   **Costo diario por persona estimado: COP 2.095.000**
+*   **Duración:** Tomaremos el promedio de la duración del viaje, es decir, 4.5 días.
+*   **Tiquetes Aéreos:**  Asumiremos un precio promedio para un tiquete ida y vuelta desde Bogotá (ya que Tunja no tiene aeropuerto internacional) a Londres.
+*   **Alojamiento:**  Asumiremos un hotel de gama media o un Airbnb para tres personas.
+*   **Comida:**  Asumiremos un presupuesto moderado para comidas, incluyendo algunas comidas en restaurantes y otras preparadas por uno mismo.
+*   **Transporte Local:**  Consideraremos el uso de transporte público (metro, buses) y algunos taxis/ubers.
+*   **Tasa de Cambio:** Usaremos una tasa de cambio aproximada de 1 GBP = 5000 COP (Esto puede variar diariamente).
+**Estimación de Costos:**
+**1. Tiquetes Aéreos (Ida y Vuelta desde Bogotá):**
+*   Precio promedio por persona: 4.000.000 COP
+*   Total para 3 personas: 12.000.000 COP
+**2. Alojamiento (4.5 noches):**
+*   Precio promedio por noche (hotel/Airbnb): 600.000 COP
+*   Total para 4.5 noches: 2.700.000 COP
+**3. Comida (4.5 días):**
+*   Presupuesto promedio por persona por día: 150.000 COP
+*   Total por persona para 4.5 días: 675.000 COP
+*   Total para 3 personas: 2.025.000 COP
+**4. Transporte Local (4.5 días):**
+*   Presupuesto promedio por persona por día: 50.000 COP
+*   Total por persona para 4.5 días: 225.000 COP
+*   Total para 3 personas: 675.000 COP
+**5. Entradas y Actividades (Cultural y Fútbol):**
+*   Presupuesto promedio por persona por día: 100.000 COP
+*   Total por persona para 4.5 días: 450.000 COP
+*   Total para 3 personas: 1.350.000 COP
+**Resumen de Costos Totales:**
+*   **Tiquetes Aéreos:** 12.000.000 COP
+*   **Alojamiento:** 2.700.000 COP
+*   **Comida:** 2.025.000 COP
+*   **Transporte Local:** 675.000 COP
+*   **Entradas y Actividades:** 1.350.000 COP
+*   **Total General:** 18.750.000 COP
+**Costo Diario Total:**
+*   Total General: 18.750.000 COP / 4.5 días = 4.166.667 COP/día
+**Costo Diario por Persona:**
+*   **Alojamiento:** 2.700.000 COP / 4.5 días / 3 personas = 200.000 COP/persona/día
+*   **Comida:** 2.025.000 COP / 4.5 días / 3 personas = 150.000 COP/persona/día
+*   **Transporte Local:** 675.000 COP / 4.5 días / 3 personas = 50.000 COP/persona/día
+*   **Entradas y Actividades:** 1.350.000 COP / 4.5 días / 3 personas = 100.000 COP/persona/día
+*   **Total por persona (excluyendo tiquetes):** 500.000 COP/persona/día
+**Resumen Final:**
+*   **Costo Total Diario (Transporte, Alojamiento, Comida, Actividades):** 4.166.667 COP
+*   **Costo Diario por Persona (Alojamiento, Comida, Transporte Local, Actividades):** 500.000 COP
 **Importante:**
-*   Estos son solo estimados.  Investigue a fondo los precios de vuelos y alojamiento para obtener una estimación más precisa.
-*   El costo de las actividades culturales (museos, tours, etc.) y otros gastos (souvenirs, etc.) no están incluidos en esta estimación.
-*   Los precios pueden variar significativamente dependiendo de la temporada alta/baja y la disponibilidad.
-*   Considere la tasa de cambio COP/EUR al momento de planificar su viaje.
-Para obtener una estimación más precisa, proporcione:
-*   Fechas específicas del viaje.
-*   Número de viajeros.
-*   Preferencias de alojamiento (hotel, Airbnb, presupuesto).
-*   Intereses específicos (actividades, restaurantes).</t>
+*   Estos son solo estimados. Los precios reales pueden variar.
+*   Los tiquetes aéreos pueden variar significativamente dependiendo de la temporada y la anticipación con la que se compren.
+*   El alojamiento puede variar dependiendo del tipo de alojamiento y la ubicación.
+*   El costo de las actividades puede variar dependiendo de las actividades que se elijan.
+*   Se recomienda investigar y reservar con anticipación para obtener mejores precios.
+*   Es recomendable tener un presupuesto adicional para imprevistos.
+*   La tasa de cambio puede variar.
+Para obtener una estimación más precisa, se recomienda investigar los precios de los tiquetes aéreos y el alojamiento para las fechas específicas del viaje.  También es útil consultar blogs de viajes y foros para obtener información sobre los costos de vida en Londres.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-06 15:30:25</t>
+          <t>2025-04-06 15:55:27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -812,52 +822,60 @@
       <c r="C12" t="inlineStr">
         <is>
           <t>Resumen de contexto sobre costos estimados:
-Para estimar el costo del viaje, necesito hacer algunas suposiciones y usar rangos de precios promedio, ya que la información proporcionada es limitada.  Es importante recordar que estos son solo estimados y los precios reales pueden variar significativamente dependiendo de las elecciones específicas (aerolínea, hotel, restaurantes, etc.).
+Para estimar el costo del viaje de Tunja a Londres con los datos proporcionados, necesitamos hacer algunas suposiciones y usar promedios, ya que la información es limitada.  Es importante recordar que estos son solo estimados y el costo real puede variar significativamente.
 **Suposiciones:**
-*   **Tiquetes:** Asumo un precio promedio para un tiquete ida y vuelta Pereira - Roma.
-*   **Alojamiento:** Asumo un hotel de gama media (3 estrellas) o un Airbnb con buena ubicación.
-*   **Comida:** Asumo un presupuesto moderado para comidas, incluyendo restaurantes locales y algunas experiencias gastronómicas.
-*   **Transporte local:** Incluyo transporte público y algunos taxis/ubers.
-*   **Número de viajeros:** Asumo que viaja **1 persona**, ya que no se especifica. Si viajan más personas, el costo por persona de alojamiento podría disminuir.
-**Estimaciones:**
-**1. Tiquetes (Ida y Vuelta Pereira - Roma):**
-*   Rango estimado: COP 4.000.000 - COP 7.000.000 (Dependiendo de la temporada, aerolínea y anticipación de la compra).
-*   Promedio estimado: COP 5.500.000
-**2. Alojamiento (por noche):**
-*   Rango estimado: COP 300.000 - COP 600.000 (Hotel 3 estrellas o Airbnb bien ubicado).
-*   Promedio estimado: COP 450.000
-**3. Comida (por día):**
-*   Rango estimado: COP 150.000 - COP 300.000 (Incluyendo desayuno, almuerzo, cena y alguna experiencia gastronómica).
-*   Promedio estimado: COP 225.000
-**4. Transporte Local (por día):**
-*   Rango estimado: COP 30.000 - COP 60.000 (Transporte público, algunos taxis/ubers).
-*   Promedio estimado: COP 45.000
-**Cálculos:**
-*   **Costo total de alojamiento (4 noches):** 4 noches * COP 450.000/noche = COP 1.800.000
-*   **Costo total de comida (4 días):** 4 días * COP 225.000/día = COP 900.000
-*   **Costo total de transporte local (4 días):** 4 días * COP 45.000/día = COP 180.000
-**Resumen:**
-| Concepto        | Costo Total (COP) | Costo Diario (COP) | Costo Diario por Persona (COP) |
-|-----------------|--------------------|---------------------|---------------------------------|
-| Tiquetes        | 5.500.000          | 1.375.000 (prorrateado)  | 1.375.000                       |
-| Alojamiento     | 1.800.000          | 450.000             | 450.000                         |
-| Comida          | 900.000            | 225.000             | 225.000                         |
-| Transporte Local | 180.000            | 45.000              | 45.000                          |
-| **TOTAL**       | **8.380.000**      | **2.095.000**       | **2.095.000**                   |
-**Conclusión:**
-*   **Costo total estimado del viaje (4 días): COP 8.380.000**
-*   **Costo total diario estimado: COP 2.095.000**
-*   **Costo diario por persona estimado: COP 2.095.000**
+*   **Duración:** Tomaremos el promedio de la duración del viaje, es decir, 4.5 días.
+*   **Tiquetes Aéreos:**  Asumiremos un precio promedio para un tiquete ida y vuelta desde Bogotá (ya que Tunja no tiene aeropuerto internacional) a Londres.
+*   **Alojamiento:**  Asumiremos un hotel de gama media o un Airbnb para tres personas.
+*   **Comida:**  Asumiremos un presupuesto moderado para comidas, incluyendo algunas comidas en restaurantes y otras preparadas por uno mismo.
+*   **Transporte Local:**  Consideraremos el uso de transporte público (metro, buses) y algunos taxis/ubers.
+*   **Tasa de Cambio:** Usaremos una tasa de cambio aproximada de 1 GBP = 5000 COP (Esto puede variar diariamente).
+**Estimación de Costos:**
+**1. Tiquetes Aéreos (Ida y Vuelta desde Bogotá):**
+*   Precio promedio por persona: 4.000.000 COP
+*   Total para 3 personas: 12.000.000 COP
+**2. Alojamiento (4.5 noches):**
+*   Precio promedio por noche (hotel/Airbnb): 600.000 COP
+*   Total para 4.5 noches: 2.700.000 COP
+**3. Comida (4.5 días):**
+*   Presupuesto promedio por persona por día: 150.000 COP
+*   Total por persona para 4.5 días: 675.000 COP
+*   Total para 3 personas: 2.025.000 COP
+**4. Transporte Local (4.5 días):**
+*   Presupuesto promedio por persona por día: 50.000 COP
+*   Total por persona para 4.5 días: 225.000 COP
+*   Total para 3 personas: 675.000 COP
+**5. Entradas y Actividades (Cultural y Fútbol):**
+*   Presupuesto promedio por persona por día: 100.000 COP
+*   Total por persona para 4.5 días: 450.000 COP
+*   Total para 3 personas: 1.350.000 COP
+**Resumen de Costos Totales:**
+*   **Tiquetes Aéreos:** 12.000.000 COP
+*   **Alojamiento:** 2.700.000 COP
+*   **Comida:** 2.025.000 COP
+*   **Transporte Local:** 675.000 COP
+*   **Entradas y Actividades:** 1.350.000 COP
+*   **Total General:** 18.750.000 COP
+**Costo Diario Total:**
+*   Total General: 18.750.000 COP / 4.5 días = 4.166.667 COP/día
+**Costo Diario por Persona:**
+*   **Alojamiento:** 2.700.000 COP / 4.5 días / 3 personas = 200.000 COP/persona/día
+*   **Comida:** 2.025.000 COP / 4.5 días / 3 personas = 150.000 COP/persona/día
+*   **Transporte Local:** 675.000 COP / 4.5 días / 3 personas = 50.000 COP/persona/día
+*   **Entradas y Actividades:** 1.350.000 COP / 4.5 días / 3 personas = 100.000 COP/persona/día
+*   **Total por persona (excluyendo tiquetes):** 500.000 COP/persona/día
+**Resumen Final:**
+*   **Costo Total Diario (Transporte, Alojamiento, Comida, Actividades):** 4.166.667 COP
+*   **Costo Diario por Persona (Alojamiento, Comida, Transporte Local, Actividades):** 500.000 COP
 **Importante:**
-*   Estos son solo estimados.  Investigue a fondo los precios de vuelos y alojamiento para obtener una estimación más precisa.
-*   El costo de las actividades culturales (museos, tours, etc.) y otros gastos (souvenirs, etc.) no están incluidos en esta estimación.
-*   Los precios pueden variar significativamente dependiendo de la temporada alta/baja y la disponibilidad.
-*   Considere la tasa de cambio COP/EUR al momento de planificar su viaje.
-Para obtener una estimación más precisa, proporcione:
-*   Fechas específicas del viaje.
-*   Número de viajeros.
-*   Preferencias de alojamiento (hotel, Airbnb, presupuesto).
-*   Intereses específicos (actividades, restaurantes).
+*   Estos son solo estimados. Los precios reales pueden variar.
+*   Los tiquetes aéreos pueden variar significativamente dependiendo de la temporada y la anticipación con la que se compren.
+*   El alojamiento puede variar dependiendo del tipo de alojamiento y la ubicación.
+*   El costo de las actividades puede variar dependiendo de las actividades que se elijan.
+*   Se recomienda investigar y reservar con anticipación para obtener mejores precios.
+*   Es recomendable tener un presupuesto adicional para imprevistos.
+*   La tasa de cambio puede variar.
+Para obtener una estimación más precisa, se recomienda investigar los precios de los tiquetes aéreos y el alojamiento para las fechas específicas del viaje.  También es útil consultar blogs de viajes y foros para obtener información sobre los costos de vida en Londres.
 Genere una consulta en español (una línea) para buscar en internet:
 - Precio promedio de transporte local, alojamiento y comida en el destino.
 No incluya explicaciones, solo la consulta.</t>
@@ -865,14 +883,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>costo promedio transporte alojamiento comida Roma</t>
+          <t>"costo promedio transporte alojamiento comida Londres"</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-06 15:31:07</t>
+          <t>2025-04-06 15:56:09</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -882,23 +900,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>costo promedio transporte alojamiento comida Roma</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Precios en Roma 2025 precios en restaurantes, alimentos y bebidas ...: https://hikersbay.com/prices/italy/rome?lang=es
-¿Cuánto dinero se necesita para visitar Roma? - HolboxPhotos: https://holboxphotos.com/roma/cuanto-dinero-se-necesita-para-visitar-roma/
-¿Cuánto dinero se gasta por día en Roma? | Felices Vacaciones: https://blog.felicesvacaciones.es/cuanto-dinero-se-gasta-por-dia-en-roma
-Precios en Roma, Transporte, Comida y bebidas, Alojamiento, Turismo: https://www.viajarroma.com/precios/
-¿Cuánto cuesta un viaje a Roma? Todos los días, 3 días y por semana ...: https://hikersbay.com/travel-cost/italy/rome?lang=es</t>
-        </is>
-      </c>
+          <t>"costo promedio transporte alojamiento comida Londres"</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-06 15:31:08</t>
+          <t>2025-04-06 15:56:11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -912,80 +922,88 @@
 - Transporte (tiquetes incluidos): total y por persona.
 - Alojamiento: total y por persona.
 - Alimentación: total y por persona.
-Para estimar el costo del viaje, necesito hacer algunas suposiciones y usar rangos de precios promedio, ya que la información proporcionada es limitada.  Es importante recordar que estos son solo estimados y los precios reales pueden variar significativamente dependiendo de las elecciones específicas (aerolínea, hotel, restaurantes, etc.).
+Para estimar el costo del viaje de Tunja a Londres con los datos proporcionados, necesitamos hacer algunas suposiciones y usar promedios, ya que la información es limitada.  Es importante recordar que estos son solo estimados y el costo real puede variar significativamente.
 **Suposiciones:**
-*   **Tiquetes:** Asumo un precio promedio para un tiquete ida y vuelta Pereira - Roma.
-*   **Alojamiento:** Asumo un hotel de gama media (3 estrellas) o un Airbnb con buena ubicación.
-*   **Comida:** Asumo un presupuesto moderado para comidas, incluyendo restaurantes locales y algunas experiencias gastronómicas.
-*   **Transporte local:** Incluyo transporte público y algunos taxis/ubers.
-*   **Número de viajeros:** Asumo que viaja **1 persona**, ya que no se especifica. Si viajan más personas, el costo por persona de alojamiento podría disminuir.
-**Estimaciones:**
-**1. Tiquetes (Ida y Vuelta Pereira - Roma):**
-*   Rango estimado: COP 4.000.000 - COP 7.000.000 (Dependiendo de la temporada, aerolínea y anticipación de la compra).
-*   Promedio estimado: COP 5.500.000
-**2. Alojamiento (por noche):**
-*   Rango estimado: COP 300.000 - COP 600.000 (Hotel 3 estrellas o Airbnb bien ubicado).
-*   Promedio estimado: COP 450.000
-**3. Comida (por día):**
-*   Rango estimado: COP 150.000 - COP 300.000 (Incluyendo desayuno, almuerzo, cena y alguna experiencia gastronómica).
-*   Promedio estimado: COP 225.000
-**4. Transporte Local (por día):**
-*   Rango estimado: COP 30.000 - COP 60.000 (Transporte público, algunos taxis/ubers).
-*   Promedio estimado: COP 45.000
-**Cálculos:**
-*   **Costo total de alojamiento (4 noches):** 4 noches * COP 450.000/noche = COP 1.800.000
-*   **Costo total de comida (4 días):** 4 días * COP 225.000/día = COP 900.000
-*   **Costo total de transporte local (4 días):** 4 días * COP 45.000/día = COP 180.000
-**Resumen:**
-| Concepto        | Costo Total (COP) | Costo Diario (COP) | Costo Diario por Persona (COP) |
-|-----------------|--------------------|---------------------|---------------------------------|
-| Tiquetes        | 5.500.000          | 1.375.000 (prorrateado)  | 1.375.000                       |
-| Alojamiento     | 1.800.000          | 450.000             | 450.000                         |
-| Comida          | 900.000            | 225.000             | 225.000                         |
-| Transporte Local | 180.000            | 45.000              | 45.000                          |
-| **TOTAL**       | **8.380.000**      | **2.095.000**       | **2.095.000**                   |
-**Conclusión:**
-*   **Costo total estimado del viaje (4 días): COP 8.380.000**
-*   **Costo total diario estimado: COP 2.095.000**
-*   **Costo diario por persona estimado: COP 2.095.000**
+*   **Duración:** Tomaremos el promedio de la duración del viaje, es decir, 4.5 días.
+*   **Tiquetes Aéreos:**  Asumiremos un precio promedio para un tiquete ida y vuelta desde Bogotá (ya que Tunja no tiene aeropuerto internacional) a Londres.
+*   **Alojamiento:**  Asumiremos un hotel de gama media o un Airbnb para tres personas.
+*   **Comida:**  Asumiremos un presupuesto moderado para comidas, incluyendo algunas comidas en restaurantes y otras preparadas por uno mismo.
+*   **Transporte Local:**  Consideraremos el uso de transporte público (metro, buses) y algunos taxis/ubers.
+*   **Tasa de Cambio:** Usaremos una tasa de cambio aproximada de 1 GBP = 5000 COP (Esto puede variar diariamente).
+**Estimación de Costos:**
+**1. Tiquetes Aéreos (Ida y Vuelta desde Bogotá):**
+*   Precio promedio por persona: 4.000.000 COP
+*   Total para 3 personas: 12.000.000 COP
+**2. Alojamiento (4.5 noches):**
+*   Precio promedio por noche (hotel/Airbnb): 600.000 COP
+*   Total para 4.5 noches: 2.700.000 COP
+**3. Comida (4.5 días):**
+*   Presupuesto promedio por persona por día: 150.000 COP
+*   Total por persona para 4.5 días: 675.000 COP
+*   Total para 3 personas: 2.025.000 COP
+**4. Transporte Local (4.5 días):**
+*   Presupuesto promedio por persona por día: 50.000 COP
+*   Total por persona para 4.5 días: 225.000 COP
+*   Total para 3 personas: 675.000 COP
+**5. Entradas y Actividades (Cultural y Fútbol):**
+*   Presupuesto promedio por persona por día: 100.000 COP
+*   Total por persona para 4.5 días: 450.000 COP
+*   Total para 3 personas: 1.350.000 COP
+**Resumen de Costos Totales:**
+*   **Tiquetes Aéreos:** 12.000.000 COP
+*   **Alojamiento:** 2.700.000 COP
+*   **Comida:** 2.025.000 COP
+*   **Transporte Local:** 675.000 COP
+*   **Entradas y Actividades:** 1.350.000 COP
+*   **Total General:** 18.750.000 COP
+**Costo Diario Total:**
+*   Total General: 18.750.000 COP / 4.5 días = 4.166.667 COP/día
+**Costo Diario por Persona:**
+*   **Alojamiento:** 2.700.000 COP / 4.5 días / 3 personas = 200.000 COP/persona/día
+*   **Comida:** 2.025.000 COP / 4.5 días / 3 personas = 150.000 COP/persona/día
+*   **Transporte Local:** 675.000 COP / 4.5 días / 3 personas = 50.000 COP/persona/día
+*   **Entradas y Actividades:** 1.350.000 COP / 4.5 días / 3 personas = 100.000 COP/persona/día
+*   **Total por persona (excluyendo tiquetes):** 500.000 COP/persona/día
+**Resumen Final:**
+*   **Costo Total Diario (Transporte, Alojamiento, Comida, Actividades):** 4.166.667 COP
+*   **Costo Diario por Persona (Alojamiento, Comida, Transporte Local, Actividades):** 500.000 COP
 **Importante:**
-*   Estos son solo estimados.  Investigue a fondo los precios de vuelos y alojamiento para obtener una estimación más precisa.
-*   El costo de las actividades culturales (museos, tours, etc.) y otros gastos (souvenirs, etc.) no están incluidos en esta estimación.
-*   Los precios pueden variar significativamente dependiendo de la temporada alta/baja y la disponibilidad.
-*   Considere la tasa de cambio COP/EUR al momento de planificar su viaje.
-Para obtener una estimación más precisa, proporcione:
-*   Fechas específicas del viaje.
-*   Número de viajeros.
-*   Preferencias de alojamiento (hotel, Airbnb, presupuesto).
-*   Intereses específicos (actividades, restaurantes).
+*   Estos son solo estimados. Los precios reales pueden variar.
+*   Los tiquetes aéreos pueden variar significativamente dependiendo de la temporada y la anticipación con la que se compren.
+*   El alojamiento puede variar dependiendo del tipo de alojamiento y la ubicación.
+*   El costo de las actividades puede variar dependiendo de las actividades que se elijan.
+*   Se recomienda investigar y reservar con anticipación para obtener mejores precios.
+*   Es recomendable tener un presupuesto adicional para imprevistos.
+*   La tasa de cambio puede variar.
+Para obtener una estimación más precisa, se recomienda investigar los precios de los tiquetes aéreos y el alojamiento para las fechas específicas del viaje.  También es útil consultar blogs de viajes y foros para obtener información sobre los costos de vida en Londres.
 Resultados de internet:
-Precios en Roma 2025 precios en restaurantes, alimentos y bebidas ...: https://hikersbay.com/prices/italy/rome?lang=es
-¿Cuánto dinero se necesita para visitar Roma? - HolboxPhotos: https://holboxphotos.com/roma/cuanto-dinero-se-necesita-para-visitar-roma/
-¿Cuánto dinero se gasta por día en Roma? | Felices Vacaciones: https://blog.felicesvacaciones.es/cuanto-dinero-se-gasta-por-dia-en-roma
-Precios en Roma, Transporte, Comida y bebidas, Alojamiento, Turismo: https://www.viajarroma.com/precios/
-¿Cuánto cuesta un viaje a Roma? Todos los días, 3 días y por semana ...: https://hikersbay.com/travel-cost/italy/rome?lang=es
 Solo muestre valores numéricos con etiquetas claras.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>**Resumen de Costos Estimados del Viaje a Roma (COP):**
-*   **Tiquetes (Ida y Vuelta por persona):** 5.500.000
-*   **Alojamiento (Total, 4 noches):** 1.800.000
-*   **Alojamiento (Por persona, 4 noches):** 1.800.000
-*   **Alimentación (Total, 4 días):** 900.000
-*   **Alimentación (Por persona, 4 días):** 900.000
-*   **Transporte Local (Total, 4 días):** 180.000
-*   **Transporte Local (Por persona, 4 días):** 180.000
-*   **Costo Total Estimado del Viaje:** 8.380.000
-*   **Costo Diario Estimado por Persona:** 2.095.000</t>
+          <t>Aquí está el desglose del costo total del viaje a Londres en COP, basado en la información proporcionada:
+**Costo Total del Viaje (COP): 18.750.000**
+**Desglose:**
+*   **Transporte (Tiquetes Incluidos):**
+    *   Total: 12.675.000
+    *   Por Persona: 4.225.000
+*   **Alojamiento:**
+    *   Total: 2.700.000
+    *   Por Persona: 900.000
+*   **Alimentación:**
+    *   Total: 2.025.000
+    *   Por Persona: 675.000
+*   **Entradas y Actividades:**
+    *   Total: 1.350.000
+    *   Por Persona: 450.000</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-06 15:31:08</t>
+          <t>2025-04-06 15:56:11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -995,7 +1013,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Precio promedio tiquetes pereira roma italia</t>
+          <t>Precio tiquetes Tunja Londres</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1003,7 +1021,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-06 15:31:10</t>
+          <t>2025-04-06 15:56:12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1013,23 +1031,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Precio promedio tiquetes pereira roma italia</t>
+          <t>Precio tiquetes Tunja Londres</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Vuelos Baratos de Pereira a Roma - Despegar: https://www.despegar.com.co/vuelos/pei/rom/vuelos-a-roma-desde-pereira
-$2.169.116 | Vuelos baratos desde Pereira a Roma (PEI - ROM) - KAYAK: https://www.kayak.com.co/vuelos/Pereira-Matecana-PEI/Roma-ROM
-Vuelos baratos de Pereira, Colombia a Roma, Italia - Kiwi.com: https://www.kiwi.com/es/cheap-flights/pereira-colombia/rome-italy/
-$1.994.034 Reserva vuelos baratos de Pereira a Roma-Fiumicino (PEI ...: https://www.kayak.com.co/vuelos/Pereira-Matecana-PEI/Roma-Fiumicino-FCO
-Vuelos Pereira-Roma desde $ 4.869.072 - Viajala: https://viajala.com.co/vuelos-de-pereira-a-roma-PEI-ROM</t>
+          <t>Tunja → Londres: precios y horarios - Rome2rio: https://www.rome2rio.com/es/s/Tunja/Londres
+Vuelos baratos a Londres desde $ 2.830.649 - Skyscanner: https://www.espanol.skyscanner.com/vuelos-a/lond/vuelos-baratos-a-londres.html
+Vuelos a Londres | Tiquetes Baratos en Despegar: https://www.despegar.com.co/vuelos/lon/vuelos-a-londres
+De Londres a Tunja en 16½ horas: precios y horarios para ir ... - Rome2rio: https://www.rome2rio.com/es/s/Londres/Tunja
+Vuelos baratos a Londres desde 14,99 € | Ryanair: https://www.ryanair.com/flights/es/es/vuelos-a-londres</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-06 15:31:14</t>
+          <t>2025-04-06 15:56:21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1040,9 +1058,9 @@
       <c r="C17" t="inlineStr">
         <is>
           <t>Tienes estos costos totales del viaje en COP:
-8380000
+18750000
 Y esta información del usuario (incluye presupuesto):
-{'presupuesto': '5 millones'}
+{'presupuesto': '18 millones'}
 1. Extrae el presupuesto del usuario.
 2. Compara el presupuesto con el **costo total**:
    - Si el presupuesto ≥ costo total: confirma que cubre los gastos y muestra qué % representa cada concepto.
@@ -1053,53 +1071,87 @@
       <c r="D17" t="inlineStr">
         <is>
           <t>```python
-costo_total = 8380000
-info_usuario = {'presupuesto': '5 millones'}
-# 1. Extraer el presupuesto del usuario
-presupuesto_str = info_usuario['presupuesto']
-# Eliminar " millones" y convertir a entero, multiplicando por 1 millón
-presupuesto = int(presupuesto_str.replace(' millones', '')) * 1000000
-# 2. Comparar el presupuesto con el costo total
-if presupuesto &gt;= costo_total:
-    print("¡Felicidades! Tu presupuesto cubre el costo total del viaje.")
-    # Calcular el porcentaje que representa el costo total del presupuesto
+def analizar_presupuesto(costo_total, info_usuario):
+  """
+  Analiza si el presupuesto del usuario cubre el costo total del viaje y proporciona retroalimentación.
+  Args:
+    costo_total: El costo total del viaje en COP (int).
+    info_usuario: Un diccionario con la información del usuario, incluyendo el presupuesto (str).
+  Returns:
+    Un string con el análisis del presupuesto y las recomendaciones.
+  """
+  presupuesto_str = info_usuario['presupuesto']
+  # Extraer el valor numérico del presupuesto (asumiendo que está en millones)
+  presupuesto = float(presupuesto_str.replace('millones', '').strip()) * 1000000  # Convertir a COP
+  if presupuesto &gt;= costo_total:
+    # El presupuesto cubre los gastos
     porcentaje_costo = (costo_total / presupuesto) * 100
-    print(f"El costo total del viaje representa el {porcentaje_costo:.2f}% de tu presupuesto.")
-else:
-    print("Lo sentimos, tu presupuesto NO es suficiente para cubrir el costo total del viaje.")
-    print("Te sugerimos los siguientes ajustes al plan:")
-    print("- **Reducir la duración del viaje:** Considera acortar el viaje en unos días para disminuir los gastos de alojamiento y actividades.")
-    print("- **Buscar opciones de alojamiento más económicas:** Explora hostales, apartamentos o alojamientos fuera de las zonas más turísticas.")
+    mensaje = f"¡Excelente! Tu presupuesto de {presupuesto_str} COP cubre el costo total del viaje de {costo_total:,} COP.\n"  # Formatear con separadores de miles
+    mensaje += f"El costo total representa el {porcentaje_costo:.2f}% de tu presupuesto.\n"
+    # En este punto, se podría agregar el desglose de los costos por concepto y su porcentaje.
+    # Para ello, necesitarías tener la información de los costos desglosados.
+    # Ejemplo (si tuvieras los datos):
+    # mensaje += "\nDesglose de costos:\n"
+    # for concepto, costo in desglose_costos.items():  #desglose_costos sería un diccionario con los costos por concepto
+    #   porcentaje_concepto = (costo / costo_total) * 100
+    #   mensaje += f"- {concepto}: {costo:,} COP ({porcentaje_concepto:.2f}% del costo total)\n"
+    return mensaje
+  else:
+    # El presupuesto NO cubre los gastos
+    diferencia = costo_total - presupuesto
+    mensaje = f"Lo sentimos, tu presupuesto de {presupuesto_str} COP no es suficiente para cubrir el costo total del viaje de {costo_total:,} COP.\n"  # Formatear con separadores de miles
+    mensaje += f"Te faltan {diferencia:,} COP.\n"  # Formatear con separadores de miles
+    mensaje += "Aquí te sugerimos dos ajustes al plan:\n"
+    mensaje += "- **Opción 1: Reducir la duración del viaje:** Considera acortar tu estadía en uno o dos días para disminuir los costos de alojamiento y alimentación.\n"
+    mensaje += "- **Opción 2: Buscar opciones de alojamiento más económicas:** Explora alternativas como hostales, apartamentos compartidos o alojamientos fuera de las zonas más turísticas.\n"
+    return mensaje
+# Datos de ejemplo
+costo_total_viaje = 18750000
+info_usuario = {'presupuesto': '18 millones'}
+# Analizar el presupuesto
+resultado = analizar_presupuesto(costo_total_viaje, info_usuario)
+print(resultado)
 ```
 **Explicación del código:**
-1. **Extracción del presupuesto:**
-   - Se extrae el valor del presupuesto del diccionario `info_usuario`.
-   - Se utiliza `replace(' millones', '')` para eliminar la cadena " millones" del string.
-   - Se convierte el string resultante a un entero usando `int()`.
-   - Se multiplica por 1,000,000 para convertirlo a la cantidad numérica correcta (en COP).
-2. **Comparación y salida:**
-   - Se compara el `presupuesto` con el `costo_total`.
-   - **Si el presupuesto es suficiente:**
-     - Se imprime un mensaje de felicitación.
-     - Se calcula el porcentaje que representa el costo total del presupuesto.
-     - Se imprime el porcentaje formateado a dos decimales usando `:.2f`.
-   - **Si el presupuesto no es suficiente:**
-     - Se imprime un mensaje indicando que el presupuesto no es suficiente.
-     - Se sugieren dos ajustes al plan de viaje: reducir la duración y buscar alojamiento más económico.
+1. **`analizar_presupuesto(costo_total, info_usuario)`:**
+   - Toma el costo total del viaje y la información del usuario como entrada.
+   - Extrae el presupuesto del usuario del diccionario `info_usuario`.  Convierte la cadena "18 millones" a un valor numérico (18000000).
+   - **Comparación del presupuesto y el costo total:**
+     - **Si el presupuesto es suficiente (&gt;= costo total):**
+       - Calcula el porcentaje que el costo total representa del presupuesto.
+       - Construye un mensaje confirmando que el presupuesto es suficiente y mostrando el porcentaje.
+       - **Importante:**  El código incluye un comentario sobre cómo agregar el desglose de los costos por concepto y su porcentaje, *si tienes esa información disponible*.  Esto requeriría un diccionario adicional con los costos desglosados.
+     - **Si el presupuesto no es suficiente (&lt; costo total):**
+       - Calcula la diferencia entre el costo total y el presupuesto.
+       - Construye un mensaje indicando que el presupuesto no es suficiente y mostrando la diferencia.
+       - Sugiere dos ajustes al plan: reducir la duración del viaje y buscar opciones de alojamiento más económicas.
+   - Retorna el mensaje resultante.
+2. **Ejemplo de uso:**
+   - Define el `costo_total_viaje` y el `info_usuario` con los datos proporcionados.
+   - Llama a la función `analizar_presupuesto` para obtener el resultado.
+   - Imprime el resultado.
 **Salida del código:**
 ```
-Lo sentimos, tu presupuesto NO es suficiente para cubrir el costo total del viaje.
-Te sugerimos los siguientes ajustes al plan:
-- **Reducir la duración del viaje:** Considera acortar el viaje en unos días para disminuir los gastos de alojamiento y actividades.
-- **Buscar opciones de alojamiento más económicas:** Explora hostales, apartamentos o alojamientos fuera de las zonas más turísticas.
-```</t>
+Lo sentimos, tu presupuesto de 18 millones COP no es suficiente para cubrir el costo total del viaje de 18,750,000 COP.
+Te faltan 750,000 COP.
+Aquí te sugerimos dos ajustes al plan:
+- **Opción 1: Reducir la duración del viaje:** Considera acortar tu estadía en uno o dos días para disminuir los costos de alojamiento y alimentación.
+- **Opción 2: Buscar opciones de alojamiento más económicas:** Explora alternativas como hostales, apartamentos compartidos o alojamientos fuera de las zonas más turísticas.
+```
+**Mejoras posibles:**
+* **Manejo de errores:**  Agregar manejo de errores para el caso en que el formato del presupuesto en `info_usuario` sea incorrecto (por ejemplo, si no contiene la palabra "millones").
+* **Desglose de costos:**  Implementar el desglose de costos por concepto si tienes esa información disponible.  Esto haría el análisis mucho más útil.
+* **Sugerencias personalizadas:**  En lugar de sugerencias genéricas, intentar ofrecer sugerencias más personalizadas basadas en el tipo de viaje (por ejemplo, si es un viaje de aventura, sugerir reducir actividades costosas).
+* **Formato de moneda:**  Usar la biblioteca `locale` para formatear los números con el formato de moneda correcto (COP).
+* **Unidades:**  Ser más explícito con las unidades (COP) en todos los mensajes.
+* **Validación de entrada:**  Validar que el costo total sea un número positivo.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-06 15:31:26</t>
+          <t>2025-04-06 15:56:32</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1111,29 +1163,13 @@
         <is>
           <t>¡Prepárese para vivir la experiencia de su vida con DaviTravel! A continuación encontrará un itinerario ideal para el viaje de sus sueños:
 0. **Preferencias de viaje:**
-{'origen': 'pereira', 'destino': 'roma, italia', 'fecha': 'verano europa', 'duracion': '4', 'tipo_viaje': 'cultural y gastronomico', 'acompanantes': 'solo', 'presupuesto': '5 millones', 'expectativas': 'comer la mejor pasta'}
+{'origen': 'tunja', 'destino': 'londres', 'fecha': 'primavera', 'duracion': '4-5 días', 'tipo_viaje': 'cultural y futbol', 'acompanantes': 'pareja', 'presupuesto': '18 millones', 'expectativas': 'conocer el big ben y liverpool'}
 1. **Requisitos migratorios:**
-Para viajar de Pereira a Roma, Italia, los requisitos migratorios generales son:
-*   **Visa:** No se requiere visa para estancias turísticas cortas (hasta 90 días).
-*   **Pasaporte:** Pasaporte válido con una vigencia de al menos 3 meses después de la fecha prevista de salida de Italia/Espacio Schengen.
-*   **Tiquete de Regreso:** Billete de avión de ida y vuelta.
-*   **Justificación del Viaje:** Documentación que justifique el propósito del viaje (ej: reservas de hotel, itinerario turístico).
-*   **Solvencia Económica:** Demostrar que se cuenta con los recursos económicos suficientes.
-*   **Seguro de Viaje:** Es obligatorio contar con un seguro de viaje con cobertura médica internacional con una cobertura mínima de 30.000 euros.
-*   **Vacunas:** No hay vacunas obligatorias.
-*   **Formulario de localización de pasajeros (PLF):** Es posible que se requiera completar un formulario de localización de pasajeros (PLF).
-**Recomendaciones Adicionales:**
-*   **Consulta las fuentes oficiales:** Verifica la información directamente en las páginas web de la Embajada de Italia en Colombia y la Cancillería de Colombia para obtener la información más actualizada y precisa.
-*   **Considera posibles cambios:** Los requisitos pueden cambiar, especialmente en lo relacionado con la pandemia. Mantente informado cerca de la fecha de tu viaje.
+Visa y pasaporte válidos son necesarios. Consulte el Consulado de Colombia en Londres para información actualizada.
 2. **Información turística:**
-Clima: Caluroso y seco.
-Temporada Turística: Alta.
-Eventos: Festivales al aire libre, Conciertos, Eventos culturales, Celebraciones religiosas.
+Clima templado y variable. Temporada alta. Muchos eventos culturales y partidos de fútbol.
 3. **Presupuesto y costos estimados:**
-Lo sentimos, tu presupuesto NO es suficiente para cubrir el costo total del viaje.
-Te sugerimos los siguientes ajustes al plan:
-- **Reducir la duración del viaje:** Considera acortar el viaje en unos días para disminuir los gastos de alojamiento y actividades.
-- **Buscar opciones de alojamiento más económicas:** Explora hostales, apartamentos o alojamientos fuera de las zonas más turísticas.
+Lo sentimos, tu presupuesto de 18 millones COP no es suficiente para cubrir el costo total del viaje de 18,750,000 COP. Te faltan 750,000 COP. Aquí te sugerimos dos ajustes al plan: - Opción 1: Reducir la duración del viaje: Considera acortar tu estadía en uno o dos días para disminuir los costos de alojamiento y alimentación. - Opción 2: Buscar opciones de alojamiento más económicas: Explora alternativas como hostales, apartamentos compartidos o alojamientos fuera de las zonas más turísticas.
 Organice el plan en estas secciones:
 I. **Documentos y requisitos**
 - Documentos imprescindibles para ingreso y salida.
@@ -1157,99 +1193,100 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>¡Absolutamente! Aquí tienes un itinerario diseñado para tu viaje a Roma, adaptado a tus preferencias y presupuesto, con los ajustes necesarios:
-**I. Documentos y Requisitos**
-*   **Documentos Imprescindibles:**
-    *   Pasaporte: Con vigencia de al menos 3 meses después de la fecha de regreso prevista (¡Verifica la fecha de expiración!).
-    *   Tiquete de avión de ida y vuelta.
-    *   Comprobante de alojamiento (reservas de hotel/hostal).
-    *   Seguro de viaje: Con cobertura médica internacional de al menos 30,000 euros.
-*   **Visa:** No requerida para estancias turísticas de hasta 90 días.
-*   **Vacunas:** No obligatorias.
-*   **Formulario de Localización de Pasajeros (PLF):** Verifica si es necesario completarlo cerca de la fecha de viaje.
-**II. Resumen del Destino**
-*   **Clima en Verano:** Caluroso y seco, con temperaturas que pueden superar los 30°C. Lleva ropa ligera, protector solar y un sombrero.
-*   **Temporada:** Alta (junio-agosto). Roma estará llena de turistas, así que prepárate para las multitudes y reserva todo con anticipación.
-*   **Eventos:** Festivales al aire libre, conciertos, eventos culturales, celebraciones religiosas (consulta la programación local antes de viajar).
-**III. Desglose de Presupuesto (Ajustado)**
-Dado que tu presupuesto de 5 millones de COP es limitado para un viaje de 4 días a Roma en temporada alta, he ajustado el itinerario para que sea más económico.
-*   **Transporte (Ida y Vuelta):** 2,500,000 COP (aproximado, puede variar según la aerolínea y la anticipación de la compra).
-*   **Alojamiento (Hostal/Airbnb):** 800,000 COP (4 noches x 200,000 COP por noche).
-*   **Alimentación:** 1,000,000 COP (250,000 COP por día). Prioriza trattorias locales y mercados para ahorrar.
-*   **Actividades/Entradas:** 500,000 COP (considerando algunas atracciones gratuitas y otras de bajo costo).
-*   **Transporte Local:** 200,000 COP (metro, autobús).
-**Total Estimado:** 5,000,000 COP
-**Ajustes Clave:**
-*   **Alojamiento:** Opta por un hostal o un Airbnb fuera del centro histórico para ahorrar en alojamiento.
-*   **Comida:** Evita los restaurantes turísticos caros. Busca trattorias locales y mercados para disfrutar de la auténtica cocina romana a precios más asequibles.
-*   **Actividades:** Aprovecha las atracciones gratuitas (iglesias, plazas, parques) y considera comprar un Roma Pass para obtener descuentos en transporte y museos.
-**IV. Itinerario Diario**
-**Día 1: Llegada y Roma Antigua**
-*   **Mañana (9:00 AM):** Llegada al aeropuerto de Fiumicino (FCO). Toma el tren Leonardo Express hasta la estación Termini (14 euros).
-    *   *Experiencia:* Traslado y primer contacto con la ciudad.
-*   **Tarde (12:00 PM):** Check-in en el hostal/Airbnb.
-    *   *Experiencia:* Acomodación.
-*   **Tarde (2:00 PM):** Coliseo y Foro Romano (compra las entradas en línea con anticipación para evitar filas).
-    *   *Experiencia:* Cultural e histórica.
-    *   *Ubicación:* Coliseo, Foro Romano.
-*   **Noche (7:00 PM):** Cena en una trattoria local en el barrio Monti.
-    *   *Experiencia:* Gastronómica.
-    *   *Ubicación:* Trattoria Ai Tre Scalini.
-**Día 2: Vaticano y Centro Histórico**
-*   **Mañana (9:00 AM):** Ciudad del Vaticano: Basílica de San Pedro y Museos Vaticanos (reserva las entradas en línea para evitar filas).
-    *   *Experiencia:* Cultural y religiosa.
-    *   *Ubicación:* Ciudad del Vaticano.
-*   **Tarde (2:00 PM):** Castillo de Sant'Angelo.
-    *   *Experiencia:* Cultural e histórica.
-    *   *Ubicación:* Castillo de Sant'Angelo.
-*   **Tarde (5:00 PM):** Paseo por el centro histórico: Piazza Navona, Panteón, Fontana di Trevi.
-    *   *Experiencia:* Cultural y visual.
-    *   *Ubicación:* Centro histórico.
-*   **Noche (8:00 PM):** Cena en el barrio Trastevere.
-    *   *Experiencia:* Gastronómica.
-    *   *Ubicación:* Trastevere.
-**Día 3: Arte y Jardines**
-*   **Mañana (10:00 AM):** Galería Borghese y Jardines de Villa Borghese (reserva con anticipación).
-    *   *Experiencia:* Cultural y natural.
-    *   *Ubicación:* Villa Borghese.
-*   **Tarde (2:00 PM):** Piazza del Popolo y Via del Corso.
-    *   *Experiencia:* Visual y comercial.
-    *   *Ubicación:* Piazza del Popolo, Via del Corso.
-*   **Tarde (5:00 PM):** Escalinata de la Plaza de España.
-    *   *Experiencia:* Visual.
-    *   *Ubicación:* Plaza de España.
-*   **Noche (7:00 PM):** Cena en el barrio Testaccio.
-    *   *Experiencia:* Gastronómica.
-    *   *Ubicación:* Testaccio.
-**Día 4: Despedida y Regreso**
-*   **Mañana (10:00 AM):** Mercado de Campo de' Fiori.
-    *   *Experiencia:* Gastronómica y cultural.
-    *   *Ubicación:* Campo de' Fiori.
-*   **Tarde (1:00 PM):** Almuerzo de despedida: ¡Disfruta de tu última pasta en Roma!
-    *   *Experiencia:* Gastronómica.
-*   **Tarde (4:00 PM):** Traslado al aeropuerto de Fiumicino (FCO).
-    *   *Experiencia:* Traslado.
-*   **Noche (7:00 PM):** Vuelo de regreso a Pereira.
-**V. Toques Finales**
-*   **Consejos Exclusivos:**
-    *   **Pasta:** Prueba la carbonara, cacio e pepe y amatriciana.
-    *   **Gelato:** No te pierdas las heladerías artesanales.
-    *   **Café:** Disfruta de un espresso en un bar local.
-*   **Reservas Anticipadas:**
-    *   Vuelos y alojamiento.
-    *   Coliseo, Museos Vaticanos, Galería Borghese.
-*   **Transporte Local:**
-    *   Metro: Eficiente para moverse por la ciudad.
-    *   Autobús: Útil para llegar a lugares fuera del centro.
-    *   Roma Pass: Considera comprarlo si planeas visitar muchos museos.
-¡Espero que este itinerario te ayude a planificar un viaje inolvidable a Roma!</t>
+          <t>¡Absolutamente! Aquí tienes un plan de viaje detallado a Londres, diseñado para DaviTravel, considerando sus preferencias y presupuesto, con los ajustes necesarios:
+**I. Documentos y requisitos**
+*   **Documentos imprescindibles:**
+    *   Pasaporte: Con una validez mínima de 6 meses a partir de la fecha de regreso.
+    *   Tiquetes aéreos: Ida y vuelta.
+    *   Comprobante de alojamiento: Reservas de hotel o similar.
+    *   Seguro de viaje: Con cobertura médica internacional.
+*   **Visa:**
+    *   Los ciudadanos colombianos requieren visa para ingresar al Reino Unido. Se recomienda iniciar el trámite con suficiente antelación (al menos 2-3 meses antes del viaje).
+*   **Vacunas:**
+    *   No se exigen vacunas obligatorias para ingresar al Reino Unido desde Colombia. Sin embargo, es recomendable tener al día el esquema de vacunación general.
+**II. Resumen del destino**
+*   **Clima en primavera (marzo-mayo):**
+    *   Templado y variable. Temperaturas promedio entre 8°C y 15°C. Posibilidad de lluvias.
+*   **Temporada:**
+    *   Temporada alta (especialmente en abril y mayo). Mayor afluencia de turistas y precios más elevados.
+*   **Eventos especiales:**
+    *   Festivales de música, arte y gastronomía. Partidos de fútbol de la Premier League. Celebraciones de Pascua (si el viaje coincide).
+**III. Desglose de presupuesto (Ajustado)**
+Dado el presupuesto inicial de 18 millones COP y el costo estimado de 18,750,000 COP, se proponen los siguientes ajustes:
+*   **Opción 1: Reducción de la duración del viaje (Ajuste Principal)**
+    *   Reducir la duración a 4 días en lugar de 5. Esto impacta directamente los costos de alojamiento y alimentación.
+*   **Opción 2: Alojamiento más económico (Ajuste Complementario)**
+    *   Buscar opciones de alojamiento fuera de las zonas más céntricas (ej. barrios como Shoreditch, Camden Town).
+    *   Considerar hostales con habitaciones privadas o apartamentos tipo Airbnb.
+**Presupuesto Ajustado (Estimado para 4 días):**
+*   **Tiquetes aéreos (ida y vuelta):** 6,000,000 COP (aproximado)
+*   **Alojamiento (4 noches):** 4,000,000 COP (aproximado, buscando opciones más económicas)
+*   **Alimentación (4 días):** 2,000,000 COP (aproximado, equilibrando restaurantes y opciones más económicas)
+*   **Transporte local (Oyster card):** 500,000 COP (aproximado)
+*   **Entradas a atracciones y partido de fútbol:** 4,000,000 COP (aproximado)
+*   **Seguro de viaje:** 500,000 COP (aproximado)
+*   **Imprevistos:** 1,000,000 COP
+*   **Total:** 18,000,000 COP
+**IV. Itinerario diario (Ajustado a 4 días)**
+**Día 1: Llegada a Londres y Clásicos Imperdibles**
+*   **Mañana (9:00 AM):** Llegada al aeropuerto de Heathrow (LHR) o Gatwick (LGW). Traslado al hotel y check-in.
+    *   *Tipo de experiencia:* Logística, adaptación.
+    *   *Ubicación:* Aeropuerto, hotel.
+*   **Tarde (1:00 PM):** Visita al Palacio de Buckingham y ceremonia del cambio de guardia (consultar horarios).
+    *   *Tipo de experiencia:* Cultural, histórica.
+    *   *Ubicación:* Palacio de Buckingham.
+*   **Noche (6:00 PM):** Cena en un pub tradicional inglés.
+    *   *Tipo de experiencia:* Gastronómica, cultural.
+    *   *Ubicación:* Pub en Westminster o alrededores.
+**Día 2: Iconos de Londres y Ambiente Futbolero**
+*   **Mañana (9:00 AM):** Visita al Big Ben y las Casas del Parlamento. Paseo por el Puente de Westminster.
+    *   *Tipo de experiencia:* Cultural, histórica.
+    *   *Ubicación:* Westminster.
+*   **Tarde (1:00 PM):** Subida al London Eye para vistas panorámicas de la ciudad.
+    *   *Tipo de experiencia:* Turística, visual.
+    *   *Ubicación:* London Eye.
+*   **Noche (6:00 PM):** Tour por un estadio de fútbol (ej. Stamford Bridge, Emirates Stadium) o asistir a un partido (si coincide con la programación).
+    *   *Tipo de experiencia:* Futbolística, cultural.
+    *   *Ubicación:* Estadio de fútbol.
+**Día 3: Liverpool - La Cuna del Fútbol y los Beatles**
+*   **Mañana (7:00 AM):** Viaje en tren a Liverpool (aproximadamente 2-3 horas).
+    *   *Tipo de experiencia:* Logística, traslado.
+    *   *Ubicación:* Estación de tren.
+*   **Tarde (10:00 AM):** Visita al estadio de Anfield, hogar del Liverpool FC. Tour y museo.
+    *   *Tipo de experiencia:* Futbolística, histórica.
+    *   *Ubicación:* Anfield, Liverpool.
+*   **Noche (2:00 PM):** The Beatles Story, museo dedicado a la banda más famosa de Liverpool.
+    *   *Tipo de experiencia:* Cultural, musical.
+    *   *Ubicación:* The Beatles Story, Liverpool.
+**Día 4: Museos y Regreso a Casa**
+*   **Mañana (9:00 AM):** Visita al Museo Británico (entrada gratuita) o la Galería Nacional.
+    *   *Tipo de experiencia:* Cultural, artística.
+    *   *Ubicación:* Museo Británico o Galería Nacional.
+*   **Tarde (1:00 PM):** Compras de souvenirs en Covent Garden o Oxford Street.
+    *   *Tipo de experiencia:* Compras, turística.
+    *   *Ubicación:* Covent Garden o Oxford Street.
+*   **Noche (6:00 PM):** Traslado al aeropuerto para el vuelo de regreso a Colombia.
+    *   *Tipo de experiencia:* Logística, despedida.
+    *   *Ubicación:* Aeropuerto.
+**V. Toques finales**
+*   **Consejos exclusivos:**
+    *   Para una pareja, considerar un paseo romántico por el Támesis en barco.
+    *   Si son fanáticos del fútbol, investigar la posibilidad de asistir a un partido de la Premier League (reservar con mucha anticipación).
+    *   Aprovechar los parques de Londres (ej. Hyde Park, Regent's Park) para momentos de relax.
+*   **Recomendaciones:**
+    *   Reservar vuelos y alojamiento con la mayor antelación posible para obtener mejores precios.
+    *   Adquirir una Oyster card para el transporte público en Londres (metro, autobús).
+    *   Consultar los horarios de apertura y cierre de las atracciones turísticas.
+    *   Descargar aplicaciones de transporte público y mapas offline para facilitar la movilidad.
+    *   Llevar ropa adecuada para el clima variable (paraguas, chaqueta).
+¡Espero que este itinerario detallado les ayude a planificar un viaje inolvidable a Londres!</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-06 15:31:44</t>
+          <t>2025-04-06 15:56:52</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1259,94 +1296,95 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>System: Usted es DaviTravel: siempre responde en español, en tercera persona, con entusiasmo y cercanía al usuario.
+          <t>System: Usted es DaviTravel: siempre responde en español, en tercera persona, sin tutear, con entusiasmo y cercanía al usuario.
 Human: Toma este itinerario:
-¡Absolutamente! Aquí tienes un itinerario diseñado para tu viaje a Roma, adaptado a tus preferencias y presupuesto, con los ajustes necesarios:
-**I. Documentos y Requisitos**
-*   **Documentos Imprescindibles:**
-    *   Pasaporte: Con vigencia de al menos 3 meses después de la fecha de regreso prevista (¡Verifica la fecha de expiración!).
-    *   Tiquete de avión de ida y vuelta.
-    *   Comprobante de alojamiento (reservas de hotel/hostal).
-    *   Seguro de viaje: Con cobertura médica internacional de al menos 30,000 euros.
-*   **Visa:** No requerida para estancias turísticas de hasta 90 días.
-*   **Vacunas:** No obligatorias.
-*   **Formulario de Localización de Pasajeros (PLF):** Verifica si es necesario completarlo cerca de la fecha de viaje.
-**II. Resumen del Destino**
-*   **Clima en Verano:** Caluroso y seco, con temperaturas que pueden superar los 30°C. Lleva ropa ligera, protector solar y un sombrero.
-*   **Temporada:** Alta (junio-agosto). Roma estará llena de turistas, así que prepárate para las multitudes y reserva todo con anticipación.
-*   **Eventos:** Festivales al aire libre, conciertos, eventos culturales, celebraciones religiosas (consulta la programación local antes de viajar).
-**III. Desglose de Presupuesto (Ajustado)**
-Dado que tu presupuesto de 5 millones de COP es limitado para un viaje de 4 días a Roma en temporada alta, he ajustado el itinerario para que sea más económico.
-*   **Transporte (Ida y Vuelta):** 2,500,000 COP (aproximado, puede variar según la aerolínea y la anticipación de la compra).
-*   **Alojamiento (Hostal/Airbnb):** 800,000 COP (4 noches x 200,000 COP por noche).
-*   **Alimentación:** 1,000,000 COP (250,000 COP por día). Prioriza trattorias locales y mercados para ahorrar.
-*   **Actividades/Entradas:** 500,000 COP (considerando algunas atracciones gratuitas y otras de bajo costo).
-*   **Transporte Local:** 200,000 COP (metro, autobús).
-**Total Estimado:** 5,000,000 COP
-**Ajustes Clave:**
-*   **Alojamiento:** Opta por un hostal o un Airbnb fuera del centro histórico para ahorrar en alojamiento.
-*   **Comida:** Evita los restaurantes turísticos caros. Busca trattorias locales y mercados para disfrutar de la auténtica cocina romana a precios más asequibles.
-*   **Actividades:** Aprovecha las atracciones gratuitas (iglesias, plazas, parques) y considera comprar un Roma Pass para obtener descuentos en transporte y museos.
-**IV. Itinerario Diario**
-**Día 1: Llegada y Roma Antigua**
-*   **Mañana (9:00 AM):** Llegada al aeropuerto de Fiumicino (FCO). Toma el tren Leonardo Express hasta la estación Termini (14 euros).
-    *   *Experiencia:* Traslado y primer contacto con la ciudad.
-*   **Tarde (12:00 PM):** Check-in en el hostal/Airbnb.
-    *   *Experiencia:* Acomodación.
-*   **Tarde (2:00 PM):** Coliseo y Foro Romano (compra las entradas en línea con anticipación para evitar filas).
-    *   *Experiencia:* Cultural e histórica.
-    *   *Ubicación:* Coliseo, Foro Romano.
-*   **Noche (7:00 PM):** Cena en una trattoria local en el barrio Monti.
-    *   *Experiencia:* Gastronómica.
-    *   *Ubicación:* Trattoria Ai Tre Scalini.
-**Día 2: Vaticano y Centro Histórico**
-*   **Mañana (9:00 AM):** Ciudad del Vaticano: Basílica de San Pedro y Museos Vaticanos (reserva las entradas en línea para evitar filas).
-    *   *Experiencia:* Cultural y religiosa.
-    *   *Ubicación:* Ciudad del Vaticano.
-*   **Tarde (2:00 PM):** Castillo de Sant'Angelo.
-    *   *Experiencia:* Cultural e histórica.
-    *   *Ubicación:* Castillo de Sant'Angelo.
-*   **Tarde (5:00 PM):** Paseo por el centro histórico: Piazza Navona, Panteón, Fontana di Trevi.
-    *   *Experiencia:* Cultural y visual.
-    *   *Ubicación:* Centro histórico.
-*   **Noche (8:00 PM):** Cena en el barrio Trastevere.
-    *   *Experiencia:* Gastronómica.
-    *   *Ubicación:* Trastevere.
-**Día 3: Arte y Jardines**
-*   **Mañana (10:00 AM):** Galería Borghese y Jardines de Villa Borghese (reserva con anticipación).
-    *   *Experiencia:* Cultural y natural.
-    *   *Ubicación:* Villa Borghese.
-*   **Tarde (2:00 PM):** Piazza del Popolo y Via del Corso.
-    *   *Experiencia:* Visual y comercial.
-    *   *Ubicación:* Piazza del Popolo, Via del Corso.
-*   **Tarde (5:00 PM):** Escalinata de la Plaza de España.
-    *   *Experiencia:* Visual.
-    *   *Ubicación:* Plaza de España.
-*   **Noche (7:00 PM):** Cena en el barrio Testaccio.
-    *   *Experiencia:* Gastronómica.
-    *   *Ubicación:* Testaccio.
-**Día 4: Despedida y Regreso**
-*   **Mañana (10:00 AM):** Mercado de Campo de' Fiori.
-    *   *Experiencia:* Gastronómica y cultural.
-    *   *Ubicación:* Campo de' Fiori.
-*   **Tarde (1:00 PM):** Almuerzo de despedida: ¡Disfruta de tu última pasta en Roma!
-    *   *Experiencia:* Gastronómica.
-*   **Tarde (4:00 PM):** Traslado al aeropuerto de Fiumicino (FCO).
-    *   *Experiencia:* Traslado.
-*   **Noche (7:00 PM):** Vuelo de regreso a Pereira.
-**V. Toques Finales**
-*   **Consejos Exclusivos:**
-    *   **Pasta:** Prueba la carbonara, cacio e pepe y amatriciana.
-    *   **Gelato:** No te pierdas las heladerías artesanales.
-    *   **Café:** Disfruta de un espresso en un bar local.
-*   **Reservas Anticipadas:**
-    *   Vuelos y alojamiento.
-    *   Coliseo, Museos Vaticanos, Galería Borghese.
-*   **Transporte Local:**
-    *   Metro: Eficiente para moverse por la ciudad.
-    *   Autobús: Útil para llegar a lugares fuera del centro.
-    *   Roma Pass: Considera comprarlo si planeas visitar muchos museos.
-¡Espero que este itinerario te ayude a planificar un viaje inolvidable a Roma!
+¡Absolutamente! Aquí tienes un plan de viaje detallado a Londres, diseñado para DaviTravel, considerando sus preferencias y presupuesto, con los ajustes necesarios:
+**I. Documentos y requisitos**
+*   **Documentos imprescindibles:**
+    *   Pasaporte: Con una validez mínima de 6 meses a partir de la fecha de regreso.
+    *   Tiquetes aéreos: Ida y vuelta.
+    *   Comprobante de alojamiento: Reservas de hotel o similar.
+    *   Seguro de viaje: Con cobertura médica internacional.
+*   **Visa:**
+    *   Los ciudadanos colombianos requieren visa para ingresar al Reino Unido. Se recomienda iniciar el trámite con suficiente antelación (al menos 2-3 meses antes del viaje).
+*   **Vacunas:**
+    *   No se exigen vacunas obligatorias para ingresar al Reino Unido desde Colombia. Sin embargo, es recomendable tener al día el esquema de vacunación general.
+**II. Resumen del destino**
+*   **Clima en primavera (marzo-mayo):**
+    *   Templado y variable. Temperaturas promedio entre 8°C y 15°C. Posibilidad de lluvias.
+*   **Temporada:**
+    *   Temporada alta (especialmente en abril y mayo). Mayor afluencia de turistas y precios más elevados.
+*   **Eventos especiales:**
+    *   Festivales de música, arte y gastronomía. Partidos de fútbol de la Premier League. Celebraciones de Pascua (si el viaje coincide).
+**III. Desglose de presupuesto (Ajustado)**
+Dado el presupuesto inicial de 18 millones COP y el costo estimado de 18,750,000 COP, se proponen los siguientes ajustes:
+*   **Opción 1: Reducción de la duración del viaje (Ajuste Principal)**
+    *   Reducir la duración a 4 días en lugar de 5. Esto impacta directamente los costos de alojamiento y alimentación.
+*   **Opción 2: Alojamiento más económico (Ajuste Complementario)**
+    *   Buscar opciones de alojamiento fuera de las zonas más céntricas (ej. barrios como Shoreditch, Camden Town).
+    *   Considerar hostales con habitaciones privadas o apartamentos tipo Airbnb.
+**Presupuesto Ajustado (Estimado para 4 días):**
+*   **Tiquetes aéreos (ida y vuelta):** 6,000,000 COP (aproximado)
+*   **Alojamiento (4 noches):** 4,000,000 COP (aproximado, buscando opciones más económicas)
+*   **Alimentación (4 días):** 2,000,000 COP (aproximado, equilibrando restaurantes y opciones más económicas)
+*   **Transporte local (Oyster card):** 500,000 COP (aproximado)
+*   **Entradas a atracciones y partido de fútbol:** 4,000,000 COP (aproximado)
+*   **Seguro de viaje:** 500,000 COP (aproximado)
+*   **Imprevistos:** 1,000,000 COP
+*   **Total:** 18,000,000 COP
+**IV. Itinerario diario (Ajustado a 4 días)**
+**Día 1: Llegada a Londres y Clásicos Imperdibles**
+*   **Mañana (9:00 AM):** Llegada al aeropuerto de Heathrow (LHR) o Gatwick (LGW). Traslado al hotel y check-in.
+    *   *Tipo de experiencia:* Logística, adaptación.
+    *   *Ubicación:* Aeropuerto, hotel.
+*   **Tarde (1:00 PM):** Visita al Palacio de Buckingham y ceremonia del cambio de guardia (consultar horarios).
+    *   *Tipo de experiencia:* Cultural, histórica.
+    *   *Ubicación:* Palacio de Buckingham.
+*   **Noche (6:00 PM):** Cena en un pub tradicional inglés.
+    *   *Tipo de experiencia:* Gastronómica, cultural.
+    *   *Ubicación:* Pub en Westminster o alrededores.
+**Día 2: Iconos de Londres y Ambiente Futbolero**
+*   **Mañana (9:00 AM):** Visita al Big Ben y las Casas del Parlamento. Paseo por el Puente de Westminster.
+    *   *Tipo de experiencia:* Cultural, histórica.
+    *   *Ubicación:* Westminster.
+*   **Tarde (1:00 PM):** Subida al London Eye para vistas panorámicas de la ciudad.
+    *   *Tipo de experiencia:* Turística, visual.
+    *   *Ubicación:* London Eye.
+*   **Noche (6:00 PM):** Tour por un estadio de fútbol (ej. Stamford Bridge, Emirates Stadium) o asistir a un partido (si coincide con la programación).
+    *   *Tipo de experiencia:* Futbolística, cultural.
+    *   *Ubicación:* Estadio de fútbol.
+**Día 3: Liverpool - La Cuna del Fútbol y los Beatles**
+*   **Mañana (7:00 AM):** Viaje en tren a Liverpool (aproximadamente 2-3 horas).
+    *   *Tipo de experiencia:* Logística, traslado.
+    *   *Ubicación:* Estación de tren.
+*   **Tarde (10:00 AM):** Visita al estadio de Anfield, hogar del Liverpool FC. Tour y museo.
+    *   *Tipo de experiencia:* Futbolística, histórica.
+    *   *Ubicación:* Anfield, Liverpool.
+*   **Noche (2:00 PM):** The Beatles Story, museo dedicado a la banda más famosa de Liverpool.
+    *   *Tipo de experiencia:* Cultural, musical.
+    *   *Ubicación:* The Beatles Story, Liverpool.
+**Día 4: Museos y Regreso a Casa**
+*   **Mañana (9:00 AM):** Visita al Museo Británico (entrada gratuita) o la Galería Nacional.
+    *   *Tipo de experiencia:* Cultural, artística.
+    *   *Ubicación:* Museo Británico o Galería Nacional.
+*   **Tarde (1:00 PM):** Compras de souvenirs en Covent Garden o Oxford Street.
+    *   *Tipo de experiencia:* Compras, turística.
+    *   *Ubicación:* Covent Garden o Oxford Street.
+*   **Noche (6:00 PM):** Traslado al aeropuerto para el vuelo de regreso a Colombia.
+    *   *Tipo de experiencia:* Logística, despedida.
+    *   *Ubicación:* Aeropuerto.
+**V. Toques finales**
+*   **Consejos exclusivos:**
+    *   Para una pareja, considerar un paseo romántico por el Támesis en barco.
+    *   Si son fanáticos del fútbol, investigar la posibilidad de asistir a un partido de la Premier League (reservar con mucha anticipación).
+    *   Aprovechar los parques de Londres (ej. Hyde Park, Regent's Park) para momentos de relax.
+*   **Recomendaciones:**
+    *   Reservar vuelos y alojamiento con la mayor antelación posible para obtener mejores precios.
+    *   Adquirir una Oyster card para el transporte público en Londres (metro, autobús).
+    *   Consultar los horarios de apertura y cierre de las atracciones turísticas.
+    *   Descargar aplicaciones de transporte público y mapas offline para facilitar la movilidad.
+    *   Llevar ropa adecuada para el clima variable (paraguas, chaqueta).
+¡Espero que este itinerario detallado les ayude a planificar un viaje inolvidable a Londres!
 Y estas alianzas activas de Davivienda en hotelería y turismo:
 - **TÃ­tulo de producto**: SubtÃ­tulo de producto. Beneficio: Millas Acumule. Aplica para: . [INSCRÃBASE AQUÃ]({{ URL_FRONT }}producto/{{ product.seo_url }})
 Devuelve exactamente el mismo itinerario, pero **inserta** en cada sección recomendaciones concretas de productos Davivienda (tarjetas, 0% interés, descuentos) para que el usuario aproveche al máximo las alianzas: desde la compra de tiquetes, reservas de alojamiento, actividades y compras locales. Mantén la estructura original y agrega en cada punto la sugerencia correspondiente.</t>
@@ -1354,100 +1392,112 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>¡Claro que sí! DaviTravel ha revisado el itinerario y lo ha enriquecido con recomendaciones de productos Davivienda para que el viajero aproveche al máximo sus alianzas y beneficios. ¡Prepárense para una experiencia romana aún más completa!
-**I. Documentos y Requisitos**
-*   **Documentos Imprescindibles:**
-    *   Pasaporte: Con vigencia de al menos 3 meses después de la fecha de regreso prevista (¡Verifica la fecha de expiración!).
-    *   Tiquete de avión de ida y vuelta.
-    *   Comprobante de alojamiento (reservas de hotel/hostal).
-    *   Seguro de viaje: Con cobertura médica internacional de al menos 30,000 euros.
-*   **Visa:** No requerida para estancias turísticas de hasta 90 días.
-*   **Vacunas:** No obligatorias.
-*   **Formulario de Localización de Pasajeros (PLF):** Verifica si es necesario completarlo cerca de la fecha de viaje.
-    **DaviTravel Recomienda:** Utiliza tu Tarjeta de Crédito Davivienda para comprar los tiquetes aéreos y acumula millas para tu próximo viaje. ¡Además, muchos seguros de viaje ofrecen descuentos al pagar con tarjetas Davivienda!
-**II. Resumen del Destino**
-*   **Clima en Verano:** Caluroso y seco, con temperaturas que pueden superar los 30°C. Lleva ropa ligera, protector solar y un sombrero.
-*   **Temporada:** Alta (junio-agosto). Roma estará llena de turistas, así que prepárate para las multitudes y reserva todo con anticipación.
-*   **Eventos:** Festivales al aire libre, conciertos, eventos culturales, celebraciones religiosas (consulta la programación local antes de viajar).
-    **DaviTravel Recomienda:** Planifica tus compras de verano con anticipación y aprovecha las opciones de 0% de interés que ofrece Davivienda en comercios aliados. ¡Así podrás disfrutar del viaje sin preocuparte por el pago inmediato!
-**III. Desglose de Presupuesto (Ajustado)**
-Dado que tu presupuesto de 5 millones de COP es limitado para un viaje de 4 días a Roma en temporada alta, he ajustado el itinerario para que sea más económico.
-*   **Transporte (Ida y Vuelta):** 2,500,000 COP (aproximado, puede variar según la aerolínea y la anticipación de la compra).
-*   **Alojamiento (Hostal/Airbnb):** 800,000 COP (4 noches x 200,000 COP por noche).
-*   **Alimentación:** 1,000,000 COP (250,000 COP por día). Prioriza trattorias locales y mercados para ahorrar.
-*   **Actividades/Entradas:** 500,000 COP (considerando algunas atracciones gratuitas y otras de bajo costo).
-*   **Transporte Local:** 200,000 COP (metro, autobús).
-**Total Estimado:** 5,000,000 COP
-**Ajustes Clave:**
-*   **Alojamiento:** Opta por un hostal o un Airbnb fuera del centro histórico para ahorrar en alojamiento.
-*   **Comida:** Evita los restaurantes turísticos caros. Busca trattorias locales y mercados para disfrutar de la auténtica cocina romana a precios más asequibles.
-*   **Actividades:** Aprovecha las atracciones gratuitas (iglesias, plazas, parques) y considera comprar un Roma Pass para obtener descuentos en transporte y museos.
-    **DaviTravel Recomienda:** Busca alojamientos y actividades que tengan alianzas con Davivienda para obtener descuentos especiales. ¡Revisa la página web de Davivienda para conocer los beneficios vigentes!
-**IV. Itinerario Diario**
-**Día 1: Llegada y Roma Antigua**
-*   **Mañana (9:00 AM):** Llegada al aeropuerto de Fiumicino (FCO). Toma el tren Leonardo Express hasta la estación Termini (14 euros).
-    *   *Experiencia:* Traslado y primer contacto con la ciudad.
-*   **Tarde (12:00 PM):** Check-in en el hostal/Airbnb.
-    *   *Experiencia:* Acomodación.
-*   **Tarde (2:00 PM):** Coliseo y Foro Romano (compra las entradas en línea con anticipación para evitar filas).
-    *   *Experiencia:* Cultural e histórica.
-    *   *Ubicación:* Coliseo, Foro Romano.
-*   **Noche (7:00 PM):** Cena en una trattoria local en el barrio Monti.
-    *   *Experiencia:* Gastronómica.
-    *   *Ubicación:* Trattoria Ai Tre Scalini.
-    **DaviTravel Recomienda:** Utiliza tu Tarjeta Débito Davivienda para retirar euros en cajeros automáticos en Roma. ¡Así tendrás efectivo para gastos menores y evitarás comisiones altas por cambio de divisas!
-**Día 2: Vaticano y Centro Histórico**
-*   **Mañana (9:00 AM):** Ciudad del Vaticano: Basílica de San Pedro y Museos Vaticanos (reserva las entradas en línea para evitar filas).
-    *   *Experiencia:* Cultural y religiosa.
-    *   *Ubicación:* Ciudad del Vaticano.
-*   **Tarde (2:00 PM):** Castillo de Sant'Angelo.
-    *   *Experiencia:* Cultural e histórica.
-    *   *Ubicación:* Castillo de Sant'Angelo.
-*   **Tarde (5:00 PM):** Paseo por el centro histórico: Piazza Navona, Panteón, Fontana di Trevi.
-    *   *Experiencia:* Cultural y visual.
-    *   *Ubicación:* Centro histórico.
-*   **Noche (8:00 PM):** Cena en el barrio Trastevere.
-    *   *Experiencia:* Gastronómica.
-    *   *Ubicación:* Trastevere.
-    **DaviTravel Recomienda:** Si encuentras algún comercio en el Vaticano o en el centro histórico que acepte tarjetas, utiliza tu Tarjeta de Crédito Davivienda para acumular millas o puntos. ¡Cada compra cuenta!
-**Día 3: Arte y Jardines**
-*   **Mañana (10:00 AM):** Galería Borghese y Jardines de Villa Borghese (reserva con anticipación).
-    *   *Experiencia:* Cultural y natural.
-    *   *Ubicación:* Villa Borghese.
-*   **Tarde (2:00 PM):** Piazza del Popolo y Via del Corso.
-    *   *Experiencia:* Visual y comercial.
-    *   *Ubicación:* Piazza del Popolo, Via del Corso.
-*   **Tarde (5:00 PM):** Escalinata de la Plaza de España.
-    *   *Experiencia:* Visual.
-    *   *Ubicación:* Plaza de España.
-*   **Noche (7:00 PM):** Cena en el barrio Testaccio.
-    *   *Experiencia:* Gastronómica.
-    *   *Ubicación:* Testaccio.
-    **DaviTravel Recomienda:** ¡No olvides revisar si la Galería Borghese o algún comercio en Via del Corso tiene alianzas con Davivienda! Podrías obtener descuentos o beneficios adicionales al pagar con tus tarjetas.
-**Día 4: Despedida y Regreso**
-*   **Mañana (10:00 AM):** Mercado de Campo de' Fiori.
-    *   *Experiencia:* Gastronómica y cultural.
-    *   *Ubicación:* Campo de' Fiori.
-*   **Tarde (1:00 PM):** Almuerzo de despedida: ¡Disfruta de tu última pasta en Roma!
-    *   *Experiencia:* Gastronómica.
-*   **Tarde (4:00 PM):** Traslado al aeropuerto de Fiumicino (FCO).
-    *   *Experiencia:* Traslado.
-*   **Noche (7:00 PM):** Vuelo de regreso a Pereira.
-    **DaviTravel Recomienda:** Antes de regresar, revisa si tienes alguna compra pendiente y aprovecha los últimos momentos para utilizar tus tarjetas Davivienda y acumular millas o puntos. ¡Cada oportunidad cuenta!
-**V. Toques Finales**
-*   **Consejos Exclusivos:**
-    *   **Pasta:** Prueba la carbonara, cacio e pepe y amatriciana.
-    *   **Gelato:** No te pierdas las heladerías artesanales.
-    *   **Café:** Disfruta de un espresso en un bar local.
-*   **Reservas Anticipadas:**
-    *   Vuelos y alojamiento.
-    *   Coliseo, Museos Vaticanos, Galería Borghese.
-*   **Transporte Local:**
-    *   Metro: Eficiente para moverse por la ciudad.
-    *   Autobús: Útil para llegar a lugares fuera del centro.
-    *   Roma Pass: Considera comprarlo si planeas visitar muchos museos.
-    **DaviTravel Recomienda:** Antes de viajar, activa las notificaciones de tu aplicación Davivienda para estar al tanto de tus transacciones y mantener el control de tus gastos. ¡Así podrás disfrutar de tu viaje con tranquilidad!
-¡DaviTravel espera que este itinerario mejorado te ayude a planificar un viaje inolvidable a Roma, aprovechando al máximo los beneficios que Davivienda tiene para ti! ¡Buen viaje!</t>
+          <t>¡Por supuesto! DaviTravel ha revisado el itinerario y lo ha enriquecido con recomendaciones de productos Davivienda para que el viajero aproveche al máximo sus alianzas y beneficios. ¡Aquí está el itinerario actualizado!
+**I. Documentos y requisitos**
+*   **Documentos imprescindibles:**
+    *   Pasaporte: Con una validez mínima de 6 meses a partir de la fecha de regreso.
+    *   Tiquetes aéreos: Ida y vuelta.
+        *   **Recomendación DaviTravel:** ¡Use su Tarjeta de Crédito Davivienda para comprar los tiquetes y acumule millas! Consulte las opciones de financiamiento a 0% de interés para viajes.
+    *   Comprobante de alojamiento: Reservas de hotel o similar.
+        *   **Recomendación DaviTravel:** ¡Aproveche las alianzas de Davivienda en hoteles! Consulte los descuentos especiales al pagar con su tarjeta Davivienda.
+    *   Seguro de viaje: Con cobertura médica internacional.
+        *   **Recomendación DaviTravel:** ¡Algunas tarjetas Davivienda ofrecen seguros de viaje como beneficio! Verifique si su tarjeta incluye esta cobertura.
+*   **Visa:**
+    *   Los ciudadanos colombianos requieren visa para ingresar al Reino Unido. Se recomienda iniciar el trámite con suficiente antelación (al menos 2-3 meses antes del viaje).
+*   **Vacunas:**
+    *   No se exigen vacunas obligatorias para ingresar al Reino Unido desde Colombia. Sin embargo, es recomendable tener al día el esquema de vacunación general.
+**II. Resumen del destino**
+*   **Clima en primavera (marzo-mayo):**
+    *   Templado y variable. Temperaturas promedio entre 8°C y 15°C. Posibilidad de lluvias.
+*   **Temporada:**
+    *   Temporada alta (especialmente en abril y mayo). Mayor afluencia de turistas y precios más elevados.
+*   **Eventos especiales:**
+    *   Festivales de música, arte y gastronomía. Partidos de fútbol de la Premier League. Celebraciones de Pascua (si el viaje coincide).
+**III. Desglose de presupuesto (Ajustado)**
+Dado el presupuesto inicial de 18 millones COP y el costo estimado de 18,750,000 COP, se proponen los siguientes ajustes:
+*   **Opción 1: Reducción de la duración del viaje (Ajuste Principal)**
+    *   Reducir la duración a 4 días en lugar de 5. Esto impacta directamente los costos de alojamiento y alimentación.
+*   **Opción 2: Alojamiento más económico (Ajuste Complementario)**
+    *   Buscar opciones de alojamiento fuera de las zonas más céntricas (ej. barrios como Shoreditch, Camden Town).
+    *   Considerar hostales con habitaciones privadas o apartamentos tipo Airbnb.
+**Presupuesto Ajustado (Estimado para 4 días):**
+*   **Tiquetes aéreos (ida y vuelta):** 6,000,000 COP (aproximado)
+    *   **Recomendación DaviTravel:** ¡Use su Tarjeta de Crédito Davivienda para comprar los tiquetes y acumule millas! Consulte las opciones de financiamiento a 0% de interés para viajes.
+*   **Alojamiento (4 noches):** 4,000,000 COP (aproximado, buscando opciones más económicas)
+    *   **Recomendación DaviTravel:** ¡Aproveche las alianzas de Davivienda en hoteles! Consulte los descuentos especiales al pagar con su tarjeta Davivienda.
+*   **Alimentación (4 días):** 2,000,000 COP (aproximado, equilibrando restaurantes y opciones más económicas)
+    *   **Recomendación DaviTravel:** ¡Use su Tarjeta Débito Davivienda para pagar en restaurantes y evitar comisiones por cambio de moneda!
+*   **Transporte local (Oyster card):** 500,000 COP (aproximado)
+    *   **Recomendación DaviTravel:** ¡Recargue su Oyster card con su Tarjeta Débito Davivienda y aproveche los beneficios de DaviPlata!
+*   **Entradas a atracciones y partido de fútbol:** 4,000,000 COP (aproximado)
+    *   **Recomendación DaviTravel:** ¡Consulte si Davivienda tiene alianzas con empresas de turismo o eventos deportivos para obtener descuentos!
+*   **Seguro de viaje:** 500,000 COP (aproximado)
+    *   **Recomendación DaviTravel:** ¡Algunas tarjetas Davivienda ofrecen seguros de viaje como beneficio! Verifique si su tarjeta incluye esta cobertura.
+*   **Imprevistos:** 1,000,000 COP
+    *   **Recomendación DaviTravel:** ¡Tenga a mano su Tarjeta de Crédito Davivienda para cualquier emergencia!
+*   **Total:** 18,000,000 COP
+**IV. Itinerario diario (Ajustado a 4 días)**
+**Día 1: Llegada a Londres y Clásicos Imperdibles**
+*   **Mañana (9:00 AM):** Llegada al aeropuerto de Heathrow (LHR) o Gatwick (LGW). Traslado al hotel y check-in.
+    *   *Tipo de experiencia:* Logística, adaptación.
+    *   *Ubicación:* Aeropuerto, hotel.
+    *   **Recomendación DaviTravel:** ¡Pague el traslado al hotel con su Tarjeta Débito Davivienda y evite cargos adicionales!
+*   **Tarde (1:00 PM):** Visita al Palacio de Buckingham y ceremonia del cambio de guardia (consultar horarios).
+    *   *Tipo de experiencia:* Cultural, histórica.
+    *   *Ubicación:* Palacio de Buckingham.
+*   **Noche (6:00 PM):** Cena en un pub tradicional inglés.
+    *   *Tipo de experiencia:* Gastronómica, cultural.
+    *   *Ubicación:* Pub en Westminster o alrededores.
+    *   **Recomendación DaviTravel:** ¡Use su Tarjeta Débito Davivienda para pagar la cena y disfrute de la gastronomía local!
+**Día 2: Iconos de Londres y Ambiente Futbolero**
+*   **Mañana (9:00 AM):** Visita al Big Ben y las Casas del Parlamento. Paseo por el Puente de Westminster.
+    *   *Tipo de experiencia:* Cultural, histórica.
+    *   *Ubicación:* Westminster.
+*   **Tarde (1:00 PM):** Subida al London Eye para vistas panorámicas de la ciudad.
+    *   *Tipo de experiencia:* Turística, visual.
+    *   *Ubicación:* London Eye.
+    *   **Recomendación DaviTravel:** ¡Consulte si Davivienda tiene alianzas con el London Eye para obtener descuentos en las entradas!
+*   **Noche (6:00 PM):** Tour por un estadio de fútbol (ej. Stamford Bridge, Emirates Stadium) o asistir a un partido (si coincide con la programación).
+    *   *Tipo de experiencia:* Futbolística, cultural.
+    *   *Ubicación:* Estadio de fútbol.
+    *   **Recomendación DaviTravel:** ¡Use su Tarjeta de Crédito Davivienda para comprar las entradas al tour o al partido y acumule millas!
+**Día 3: Liverpool - La Cuna del Fútbol y los Beatles**
+*   **Mañana (7:00 AM):** Viaje en tren a Liverpool (aproximadamente 2-3 horas).
+    *   *Tipo de experiencia:* Logística, traslado.
+    *   *Ubicación:* Estación de tren.
+    *   **Recomendación DaviTravel:** ¡Compre los tiquetes de tren con su Tarjeta Débito Davivienda y evite comisiones por cambio de moneda!
+*   **Tarde (10:00 AM):** Visita al estadio de Anfield, hogar del Liverpool FC. Tour y museo.
+    *   *Tipo de experiencia:* Futbolística, histórica.
+    *   *Ubicación:* Anfield, Liverpool.
+*   **Noche (2:00 PM):** The Beatles Story, museo dedicado a la banda más famosa de Liverpool.
+    *   *Tipo de experiencia:* Cultural, musical.
+    *   *Ubicación:* The Beatles Story, Liverpool.
+    *   **Recomendación DaviTravel:** ¡Use su Tarjeta de Crédito Davivienda para comprar las entradas al museo y acumule millas!
+**Día 4: Museos y Regreso a Casa**
+*   **Mañana (9:00 AM):** Visita al Museo Británico (entrada gratuita) o la Galería Nacional.
+    *   *Tipo de experiencia:* Cultural, artística.
+    *   *Ubicación:* Museo Británico o Galería Nacional.
+*   **Tarde (1:00 PM):** Compras de souvenirs en Covent Garden o Oxford Street.
+    *   *Tipo de experiencia:* Compras, turística.
+    *   *Ubicación:* Covent Garden o Oxford Street.
+    *   **Recomendación DaviTravel:** ¡Use su Tarjeta de Crédito Davivienda para comprar souvenirs y acumule millas! Consulte las opciones de pago a cuotas sin interés.
+*   **Noche (6:00 PM):** Traslado al aeropuerto para el vuelo de regreso a Colombia.
+    *   *Tipo de experiencia:* Logística, despedida.
+    *   *Ubicación:* Aeropuerto.
+    *   **Recomendación DaviTravel:** ¡Pague el traslado al aeropuerto con su Tarjeta Débito Davivienda y evite cargos adicionales!
+**V. Toques finales**
+*   **Consejos exclusivos:**
+    *   Para una pareja, considerar un paseo romántico por el Támesis en barco.
+    *   Si son fanáticos del fútbol, investigar la posibilidad de asistir a un partido de la Premier League (reservar con mucha anticipación).
+    *   Aprovechar los parques de Londres (ej. Hyde Park, Regent's Park) para momentos de relax.
+*   **Recomendaciones:**
+    *   Reservar vuelos y alojamiento con la mayor antelación posible para obtener mejores precios.
+    *   Adquirir una Oyster card para el transporte público en Londres (metro, autobús).
+    *   Consultar los horarios de apertura y cierre de las atracciones turísticas.
+    *   Descargar aplicaciones de transporte público y mapas offline para facilitar la movilidad.
+    *   Llevar ropa adecuada para el clima variable (paraguas, chaqueta).
+    *   **Recomendación DaviTravel:** ¡No olvide activar las notificaciones de su Tarjeta Davivienda para estar al tanto de sus gastos y movimientos!
+¡DaviTravel espera que este itinerario detallado y con recomendaciones Davivienda les ayude a planificar un viaje inolvidable a Londres! ¡Que disfruten mucho!</t>
         </is>
       </c>
     </row>

--- a/llm_log.xlsx
+++ b/llm_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-06 15:55:09</t>
+          <t>2025-04-06 16:41:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,14 +478,14 @@
         <is>
           <t>```json
 {
-  "origen": "tunja",
-  "destino": "londres",
-  "fecha": "primavera",
+  "origen": "Tunja",
+  "destino": "Londres",
+  "fecha": "Primavera",
   "duracion": "4-5 días",
-  "tipo_viaje": "cultural y futbol",
-  "acompanantes": "pareja",
+  "tipo_viaje": "Cultural y futbol",
+  "acompanantes": "Pareja",
   "presupuesto": "18 millones",
-  "expectativas": "conocer el big ben y liverpool"
+  "expectativas": "Conocer el Big Ben y Liverpool"
 }
 ```</t>
         </is>
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-06 15:55:11</t>
+          <t>2025-04-06 16:41:01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dado este requerimiento de viaje: {"origen": "tunja", "destino": "londres"}, genere una sola consulta de búsqueda en español (máximo una línea) para buscar los requisitos migratorios en internet.</t>
+          <t>Dado este requerimiento de viaje: {"origen": "Tunja", "destino": "Londres"}, genere una sola consulta de búsqueda en español (máximo una línea) para buscar los requisitos migratorios en internet.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,7 +516,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-06 15:55:11</t>
+          <t>2025-04-06 16:41:02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,14 +533,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Requisitos migratorios colombianos Londres</t>
+          <t>requisitos migratorios colombianos viajar Londres</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-06 15:55:12</t>
+          <t>2025-04-06 16:41:03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -550,23 +550,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Requisitos migratorios colombianos Londres</t>
+          <t>requisitos migratorios colombianos viajar Londres</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Nueva solicitud de Visa a Reino Unido | Consulado de Colombia: https://londres.consulado.gov.co/newsroom/news/nueva-solicitud-de-visa-reino-unido
+Documentación necesaria para viajar a Londres 2025 - Viajar Londres: https://www.viajarlondres.com/documentacion-necesaria.php
 7 requisitos para entrar a Reino Unido como colombiano este 2025: https://colombianabroad.com/requisitos-entrada-reino-unido-colombia/
-Documentación necesaria para viajar a Londres 2025 - Viajar Londres: https://www.viajarlondres.com/documentacion-necesaria.php
 ¿Qué necesita un colombiano actualmente para viajar a Londres ...: https://www.wradio.com.co/2025/01/25/que-necesita-un-colombiano-actualmente-para-viajar-a-londres-documentos-requisitos-visa-y-mas/
-Requisitos | Consulado de Colombia: https://londres.consulado.gov.co/tramites-y-servicios/requisitos</t>
+¿De Bogotá a Londres? Cambiaron las condiciones para ir a Reino Unido ...: https://bogota.gov.co/internacional/de-bogota-londres-cambiaron-las-condiciones-para-ir-reino-unido</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-06 15:55:14</t>
+          <t>2025-04-06 16:41:05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -580,31 +580,29 @@
 Requisitos migratorios para viajar de Tunja a Londres.
 Resultados de internet:
 Nueva solicitud de Visa a Reino Unido | Consulado de Colombia: https://londres.consulado.gov.co/newsroom/news/nueva-solicitud-de-visa-reino-unido
+Documentación necesaria para viajar a Londres 2025 - Viajar Londres: https://www.viajarlondres.com/documentacion-necesaria.php
 7 requisitos para entrar a Reino Unido como colombiano este 2025: https://colombianabroad.com/requisitos-entrada-reino-unido-colombia/
-Documentación necesaria para viajar a Londres 2025 - Viajar Londres: https://www.viajarlondres.com/documentacion-necesaria.php
 ¿Qué necesita un colombiano actualmente para viajar a Londres ...: https://www.wradio.com.co/2025/01/25/que-necesita-un-colombiano-actualmente-para-viajar-a-londres-documentos-requisitos-visa-y-mas/
-Requisitos | Consulado de Colombia: https://londres.consulado.gov.co/tramites-y-servicios/requisitos
+¿De Bogotá a Londres? Cambiaron las condiciones para ir a Reino Unido ...: https://bogota.gov.co/internacional/de-bogota-londres-cambiaron-las-condiciones-para-ir-reino-unido
 Sea claro y conciso. Liste si se requiere visa, vacunas u otros documentos.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Basado en la información proporcionada y los resultados web, los requisitos migratorios para viajar de Tunja (Colombia) a Londres (Reino Unido) incluyen:
-*   **Visa:** Es probable que se necesite una visa para ciudadanos colombianos que viajen al Reino Unido. Se recomienda consultar la página del Consulado de Colombia en Londres para obtener información actualizada sobre el proceso de solicitud.
+          <t>Para viajar de Tunja a Londres, un colombiano necesita lo siguiente (basado en los resultados de búsqueda que mencionan información actualizada a 2025):
+*   **Visa:** Es probable que se requiera una visa. Los resultados sugieren que hay un proceso de solicitud de visa para el Reino Unido a través del Consulado de Colombia.
 *   **Pasaporte:** Un pasaporte válido es un requisito fundamental.
-*   **Otros documentos:** Es posible que se requieran documentos adicionales, como prueba de alojamiento, itinerario de viaje, prueba de fondos suficientes y una carta de invitación (si aplica).
-**Recomendaciones:**
-*   **Consulte fuentes oficiales:** La información más precisa y actualizada se encuentra en los sitios web del Consulado de Colombia en Londres y la Embajada del Reino Unido en Colombia.
-*   **Verifique los requisitos específicos:** Los requisitos pueden variar según el propósito del viaje (turismo, estudio, trabajo, etc.).
-*   **Planifique con anticipación:** El proceso de solicitud de visa puede llevar tiempo, así que comience con suficiente antelación a la fecha de viaje.
-*   **Vacunas:** Consulte con su médico si necesita alguna vacuna.</t>
+*   **Otros documentos:** Los resultados también mencionan la necesidad de otros documentos, aunque no se especifican en detalle en el contexto proporcionado. Es recomendable revisar los enlaces proporcionados para obtener una lista completa y actualizada de los documentos requeridos.
+*   **Vacunas:** Los resultados no mencionan explícitamente requisitos de vacunación. Sin embargo, siempre es recomendable verificar las recomendaciones de salud pública y vacunación antes de viajar.
+**Recomendación:**
+Dada la información general y la posibilidad de cambios en las regulaciones, es **crucial** consultar las fuentes oficiales (Consulado de Colombia en Londres, embajada del Reino Unido en Colombia, sitios web gubernamentales) y las páginas web enlazadas para obtener la información más precisa y actualizada sobre los requisitos migratorios específicos para su viaje.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-06 15:55:16</t>
+          <t>2025-04-06 16:41:07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -615,25 +613,26 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>Describa brevemente el clima, las temporadas turísticas (alta o baja) y eventos relevantes en el destino según esta información:
-{"destino": "londres", "fecha": "primavera", "tipo_viaje": "cultural y futbol", "expectativas": "conocer el big ben y liverpool"}
+{"destino": "Londres", "fecha": "Primavera", "tipo_viaje": "Cultural y futbol"}
 Use viñetas si es posible. Sea claro y evite detalles innecesarios.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aquí tienes una descripción breve del clima, temporadas turísticas y eventos en Londres en primavera, considerando un viaje cultural y futbolístico con interés en el Big Ben y Liverpool:
-*   **Clima:** Templado y variable. Puede haber días soleados y agradables, pero también lluvias. Las temperaturas suelen oscilar entre los 8°C y los 15°C.
-*   **Temporada Turística:** Temporada alta. La primavera es un momento popular para visitar Londres debido al clima más agradable y los jardines florecientes.
+          <t>Aquí tienes una breve descripción de Londres en primavera, enfocada en viajes culturales y de fútbol:
+*   **Clima:** Templado y variable. Posibilidad de lluvia, pero también días soleados. Temperaturas moderadas.
+*   **Temporada Turística:** Temporada alta. Menos concurrida que el verano, pero con buen clima y muchos eventos.
 *   **Eventos Relevantes:**
-    *   **Cultural:** Numerosos festivales, exposiciones y eventos en museos y galerías.
-    *   **Fútbol:** La temporada de fútbol inglés (Premier League) está en su recta final, con partidos importantes en Londres y la posibilidad de viajar a Liverpool para ver un partido (requiere planificación anticipada).</t>
+    *   Temporada de fútbol en su apogeo (Premier League, FA Cup).
+    *   Festivales culturales y eventos al aire libre.
+    *   Apertura de jardines y parques.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-06 15:55:17</t>
+          <t>2025-04-06 16:41:07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -644,25 +643,26 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>Según este contexto turístico:
-Aquí tienes una descripción breve del clima, temporadas turísticas y eventos en Londres en primavera, considerando un viaje cultural y futbolístico con interés en el Big Ben y Liverpool:
-*   **Clima:** Templado y variable. Puede haber días soleados y agradables, pero también lluvias. Las temperaturas suelen oscilar entre los 8°C y los 15°C.
-*   **Temporada Turística:** Temporada alta. La primavera es un momento popular para visitar Londres debido al clima más agradable y los jardines florecientes.
+Aquí tienes una breve descripción de Londres en primavera, enfocada en viajes culturales y de fútbol:
+*   **Clima:** Templado y variable. Posibilidad de lluvia, pero también días soleados. Temperaturas moderadas.
+*   **Temporada Turística:** Temporada alta. Menos concurrida que el verano, pero con buen clima y muchos eventos.
 *   **Eventos Relevantes:**
-    *   **Cultural:** Numerosos festivales, exposiciones y eventos en museos y galerías.
-    *   **Fútbol:** La temporada de fútbol inglés (Premier League) está en su recta final, con partidos importantes en Londres y la posibilidad de viajar a Liverpool para ver un partido (requiere planificación anticipada).
+    *   Temporada de fútbol en su apogeo (Premier League, FA Cup).
+    *   Festivales culturales y eventos al aire libre.
+    *   Apertura de jardines y parques.
 Genere una consulta de búsqueda concreta y corta en español para internet. Debe enfocarse en eventos turísticos, clima o temporadas en el destino en las fechas del viaje. No incluya explicaciones, solo la consulta.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Londres primavera eventos futbol clima</t>
+          <t>Londres primavera eventos fútbol clima</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-06 15:55:18</t>
+          <t>2025-04-06 16:41:09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -672,23 +672,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Londres primavera eventos futbol clima</t>
+          <t>Londres primavera eventos fútbol clima</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>La mejor época para visitar Londres: Descubra la temporada ... - Freetour: https://www.freetour.com/es/blog/la-mejor-epoca-para-visitar-londres-revelando-los-secretos-para-una-visita-perfecta
-→ Todo sobre la Primavera en Londres - Trucos y planes 2025: https://loving-london.com/es/primavera-en-londres/
+          <t>→ Todo sobre la Primavera en Londres - Trucos y planes 2025: https://loving-london.com/es/primavera-en-londres/
+La mejor época para visitar Londres: Descubra la temporada ... - Freetour: https://www.freetour.com/es/blog/la-mejor-epoca-para-visitar-londres-revelando-los-secretos-para-una-visita-perfecta
 Londres en Primavera 2025 ᐈ Qué hacer | Planes | Tiempo - Tricky London: https://trickylondon.com/que-hacer-londres-primavera/
 Mejor Epoca Para Viajar a Londres | Roamless: https://roamless.com/es/blog/mejor-epoca-para-viaja-a-londres
-La mejor época para visitar Londres en 2025: estaciones, eventos ... - Way: https://www.way.com/es/blog/best-time-to-visit-london/</t>
+20 cosas imperdibles que hacer en Londres esta primavera: https://secretldn.com/es/cosas-que-hacer-primavera-londres/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-06 15:55:20</t>
+          <t>2025-04-06 16:41:10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -699,39 +699,39 @@
       <c r="C10" t="inlineStr">
         <is>
           <t>Utilice la siguiente información y resultados de búsqueda para resumir el clima, eventos y temporada turística del destino:
-Aquí tienes una descripción breve del clima, temporadas turísticas y eventos en Londres en primavera, considerando un viaje cultural y futbolístico con interés en el Big Ben y Liverpool:
-*   **Clima:** Templado y variable. Puede haber días soleados y agradables, pero también lluvias. Las temperaturas suelen oscilar entre los 8°C y los 15°C.
-*   **Temporada Turística:** Temporada alta. La primavera es un momento popular para visitar Londres debido al clima más agradable y los jardines florecientes.
+Aquí tienes una breve descripción de Londres en primavera, enfocada en viajes culturales y de fútbol:
+*   **Clima:** Templado y variable. Posibilidad de lluvia, pero también días soleados. Temperaturas moderadas.
+*   **Temporada Turística:** Temporada alta. Menos concurrida que el verano, pero con buen clima y muchos eventos.
 *   **Eventos Relevantes:**
-    *   **Cultural:** Numerosos festivales, exposiciones y eventos en museos y galerías.
-    *   **Fútbol:** La temporada de fútbol inglés (Premier League) está en su recta final, con partidos importantes en Londres y la posibilidad de viajar a Liverpool para ver un partido (requiere planificación anticipada).
+    *   Temporada de fútbol en su apogeo (Premier League, FA Cup).
+    *   Festivales culturales y eventos al aire libre.
+    *   Apertura de jardines y parques.
 Resultados de internet:
+→ Todo sobre la Primavera en Londres - Trucos y planes 2025: https://loving-london.com/es/primavera-en-londres/
 La mejor época para visitar Londres: Descubra la temporada ... - Freetour: https://www.freetour.com/es/blog/la-mejor-epoca-para-visitar-londres-revelando-los-secretos-para-una-visita-perfecta
-→ Todo sobre la Primavera en Londres - Trucos y planes 2025: https://loving-london.com/es/primavera-en-londres/
 Londres en Primavera 2025 ᐈ Qué hacer | Planes | Tiempo - Tricky London: https://trickylondon.com/que-hacer-londres-primavera/
 Mejor Epoca Para Viajar a Londres | Roamless: https://roamless.com/es/blog/mejor-epoca-para-viaja-a-londres
-La mejor época para visitar Londres en 2025: estaciones, eventos ... - Way: https://www.way.com/es/blog/best-time-to-visit-london/
+20 cosas imperdibles que hacer en Londres esta primavera: https://secretldn.com/es/cosas-que-hacer-primavera-londres/
 Use viñetas si es posible. Sea concreto.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aquí tienes un resumen del clima, eventos y temporada turística de Londres en primavera, enfocado en un viaje cultural y futbolístico:
-*   **Clima:** Templado y variable, con temperaturas que oscilan entre 8°C y 15°C. Prepárate para días soleados y lluviosos.
-*   **Temporada Turística:** Temporada alta. La primavera es un momento popular para visitar Londres debido al clima más agradable y los jardines florecientes.
+          <t>Aquí tienes un resumen del clima, eventos y temporada turística de Londres en primavera, basado en la información proporcionada:
+*   **Clima:** Templado y variable, con posibilidad de lluvia y días soleados. Las temperaturas son moderadas.
+*   **Temporada Turística:** Temporada alta, aunque menos concurrida que el verano. Se considera una buena época para visitar Londres debido al clima y la abundancia de eventos.
 *   **Eventos:**
-    *   **Cultural:** Numerosos festivales, exposiciones y eventos en museos y galerías. La primavera es un momento ideal para disfrutar de la oferta cultural de Londres.
-    *   **Fútbol:** La temporada de la Premier League está en su recta final, ofreciendo la oportunidad de asistir a partidos en Londres. Un viaje a Liverpool para ver un partido es posible, pero requiere planificación anticipada.
-*   **Consideraciones Adicionales (basado en los resultados de búsqueda):**
-    *   La primavera es considerada una de las mejores épocas para visitar Londres.
-    *   Hay muchos planes y actividades específicas para la primavera en Londres, como se detalla en los enlaces proporcionados.</t>
+    *   Temporada de fútbol en su apogeo (Premier League, FA Cup).
+    *   Festivales culturales y eventos al aire libre.
+    *   Apertura de jardines y parques.
+    *   La información de los resultados de búsqueda indica que hay muchos planes y cosas que hacer en Londres durante la primavera, incluyendo eventos específicos para el año 2025.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-06 15:55:27</t>
+          <t>2025-04-06 16:41:19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -745,73 +745,75 @@
 - Costo total diario en COP de transporte (tiquetes incluidos), alojamiento y comida.
 - Costo diario por persona en COP para cada concepto.
 Datos:
-{"origen": "tunja", "destino": "londres", "duracion": "4-5 días", "acompanantes": "2", "tipo_viaje": "cultural y futbol"}
+{"origen": "Tunja", "destino": "Londres", "duracion": "4-5 días", "acompanantes": "2", "tipo_viaje": "Cultural y futbol"}
 Presente valores totales y por persona.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Para estimar el costo del viaje de Tunja a Londres con los datos proporcionados, necesitamos hacer algunas suposiciones y usar promedios, ya que la información es limitada.  Es importante recordar que estos son solo estimados y el costo real puede variar significativamente.
+          <t>Para estimar los costos, necesito hacer algunas suposiciones y usar promedios, ya que los precios pueden variar mucho dependiendo de las elecciones específicas que hagan los viajeros.  Además, convertiré los costos a COP usando una tasa de cambio aproximada de 1 GBP = 5000 COP.
 **Suposiciones:**
-*   **Duración:** Tomaremos el promedio de la duración del viaje, es decir, 4.5 días.
-*   **Tiquetes Aéreos:**  Asumiremos un precio promedio para un tiquete ida y vuelta desde Bogotá (ya que Tunja no tiene aeropuerto internacional) a Londres.
-*   **Alojamiento:**  Asumiremos un hotel de gama media o un Airbnb para tres personas.
-*   **Comida:**  Asumiremos un presupuesto moderado para comidas, incluyendo algunas comidas en restaurantes y otras preparadas por uno mismo.
-*   **Transporte Local:**  Consideraremos el uso de transporte público (metro, buses) y algunos taxis/ubers.
-*   **Tasa de Cambio:** Usaremos una tasa de cambio aproximada de 1 GBP = 5000 COP (Esto puede variar diariamente).
-**Estimación de Costos:**
-**1. Tiquetes Aéreos (Ida y Vuelta desde Bogotá):**
-*   Precio promedio por persona: 4.000.000 COP
-*   Total para 3 personas: 12.000.000 COP
-**2. Alojamiento (4.5 noches):**
-*   Precio promedio por noche (hotel/Airbnb): 600.000 COP
-*   Total para 4.5 noches: 2.700.000 COP
-**3. Comida (4.5 días):**
-*   Presupuesto promedio por persona por día: 150.000 COP
-*   Total por persona para 4.5 días: 675.000 COP
-*   Total para 3 personas: 2.025.000 COP
-**4. Transporte Local (4.5 días):**
-*   Presupuesto promedio por persona por día: 50.000 COP
-*   Total por persona para 4.5 días: 225.000 COP
-*   Total para 3 personas: 675.000 COP
-**5. Entradas y Actividades (Cultural y Fútbol):**
-*   Presupuesto promedio por persona por día: 100.000 COP
-*   Total por persona para 4.5 días: 450.000 COP
-*   Total para 3 personas: 1.350.000 COP
-**Resumen de Costos Totales:**
-*   **Tiquetes Aéreos:** 12.000.000 COP
-*   **Alojamiento:** 2.700.000 COP
-*   **Comida:** 2.025.000 COP
-*   **Transporte Local:** 675.000 COP
-*   **Entradas y Actividades:** 1.350.000 COP
-*   **Total General:** 18.750.000 COP
-**Costo Diario Total:**
-*   Total General: 18.750.000 COP / 4.5 días = 4.166.667 COP/día
-**Costo Diario por Persona:**
-*   **Alojamiento:** 2.700.000 COP / 4.5 días / 3 personas = 200.000 COP/persona/día
-*   **Comida:** 2.025.000 COP / 4.5 días / 3 personas = 150.000 COP/persona/día
-*   **Transporte Local:** 675.000 COP / 4.5 días / 3 personas = 50.000 COP/persona/día
-*   **Entradas y Actividades:** 1.350.000 COP / 4.5 días / 3 personas = 100.000 COP/persona/día
-*   **Total por persona (excluyendo tiquetes):** 500.000 COP/persona/día
-**Resumen Final:**
-*   **Costo Total Diario (Transporte, Alojamiento, Comida, Actividades):** 4.166.667 COP
-*   **Costo Diario por Persona (Alojamiento, Comida, Transporte Local, Actividades):** 500.000 COP
+*   **Tiquetes:** No puedo estimar el costo de los tiquetes aéreos sin fechas específicas y aerolíneas.  Este será el costo más variable y significativo.  **Lo excluyo de la estimación diaria.**
+*   **Alojamiento:** Asumo un hotel de gama media (3 estrellas) o un Airbnb decente.
+*   **Comida:** Asumo un presupuesto moderado, incluyendo comidas en restaurantes locales y algunas compras en supermercados.
+*   **Transporte local:** Incluye transporte público (metro, buses) y algunos taxis/Uber ocasionales.
+*   **Actividades:** Incluyo un costo promedio para entradas a museos, atracciones turísticas y un partido de fútbol.
+*   **Duración:** Tomo el promedio de la duración del viaje, es decir, 4.5 días.
+**Estimación (sin tiquetes aéreos):**
+**1. Alojamiento:**
+*   Costo promedio por noche en Londres (hotel 3 estrellas o Airbnb): £150 - £250
+*   Convertido a COP: £200 * 5000 COP/GBP = 1.000.000 COP por noche
+*   Costo total de alojamiento (4.5 noches): 1.000.000 COP/noche * 4.5 noches = 4.500.000 COP
+*   Costo diario de alojamiento: 4.500.000 COP / 4.5 días = 1.000.000 COP/día
+**2. Comida:**
+*   Costo promedio por persona por día: £50 - £75
+*   Costo total por día para 3 personas: £60 * 3 personas = £180
+*   Convertido a COP: £180 * 5000 COP/GBP = 900.000 COP/día
+**3. Transporte Local:**
+*   Costo promedio por persona por día: £15 - £25 (Oyster card o similar)
+*   Costo total por día para 3 personas: £20 * 3 personas = £60
+*   Convertido a COP: £60 * 5000 COP/GBP = 300.000 COP/día
+**4. Actividades (Cultural y Fútbol):**
+*   Entradas a museos/atracciones por persona por día: £30
+*   Entrada a un partido de fútbol por persona: £75 (asumiendo un partido de liga regular)
+*   Costo total de actividades por persona: £30 * 4.5 días + £75 = £210
+*   Costo total de actividades para 3 personas: £210 * 3 personas = £630
+*   Convertido a COP: £630 * 5000 COP/GBP = 3.150.000 COP
+*   Costo diario de actividades: 3.150.000 COP / 4.5 días = 700.000 COP/día
+**Resumen de Costos Diarios (sin tiquetes aéreos):**
+*   **Alojamiento:** 1.000.000 COP/día
+*   **Comida:** 900.000 COP/día
+*   **Transporte Local:** 300.000 COP/día
+*   **Actividades:** 700.000 COP/día
+**Costo Total Diario en COP:** 1.000.000 + 900.000 + 300.000 + 700.000 = **2.900.000 COP**
+**Costo Diario por Persona en COP:**
+*   **Alojamiento:** 1.000.000 COP / 3 personas = 333.333 COP
+*   **Comida:** 900.000 COP / 3 personas = 300.000 COP
+*   **Transporte Local:** 300.000 COP / 3 personas = 100.000 COP
+*   **Actividades:** 700.000 COP / 3 personas = 233.333 COP
+**Costo Total Diario por Persona en COP:** 333.333 + 300.000 + 100.000 + 233.333 = **966.666 COP**
+**Presentación Final:**
+| Concepto          | Costo Total Diario (COP) | Costo Diario por Persona (COP) |
+| ----------------- | ------------------------ | ------------------------------- |
+| Alojamiento       | 1.000.000                | 333.333                         |
+| Comida            | 900.000                  | 300.000                         |
+| Transporte Local  | 300.000                  | 100.000                         |
+| Actividades        | 700.000                  | 233.333                         |
+| **TOTAL (sin tiquetes)** | **2.900.000**            | **966.666**                     |
 **Importante:**
-*   Estos son solo estimados. Los precios reales pueden variar.
-*   Los tiquetes aéreos pueden variar significativamente dependiendo de la temporada y la anticipación con la que se compren.
-*   El alojamiento puede variar dependiendo del tipo de alojamiento y la ubicación.
-*   El costo de las actividades puede variar dependiendo de las actividades que se elijan.
-*   Se recomienda investigar y reservar con anticipación para obtener mejores precios.
-*   Es recomendable tener un presupuesto adicional para imprevistos.
-*   La tasa de cambio puede variar.
-Para obtener una estimación más precisa, se recomienda investigar los precios de los tiquetes aéreos y el alojamiento para las fechas específicas del viaje.  También es útil consultar blogs de viajes y foros para obtener información sobre los costos de vida en Londres.</t>
+*   **Tiquetes Aéreos:** Esta es la mayor variable y no está incluida.  Investigue los precios de los vuelos con anticipación.
+*   **Flexibilidad:** Estos son promedios.  Pueden ahorrar dinero cocinando algunas comidas, usando más el transporte público, o eligiendo alojamiento más económico.
+*   **Tipo de Cambio:** El tipo de cambio GBP/COP puede fluctuar.
+*   **Preferencias Personales:** Los gustos individuales afectarán los costos de comida y actividades.
+*   **Época del Año:** Los precios pueden variar según la temporada alta o baja.
+Esta estimación le da una idea general de los costos.  Una planificación más detallada y la reserva anticipada pueden ayudar a reducir los gastos.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-06 15:55:27</t>
+          <t>2025-04-06 16:41:19</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -822,60 +824,62 @@
       <c r="C12" t="inlineStr">
         <is>
           <t>Resumen de contexto sobre costos estimados:
-Para estimar el costo del viaje de Tunja a Londres con los datos proporcionados, necesitamos hacer algunas suposiciones y usar promedios, ya que la información es limitada.  Es importante recordar que estos son solo estimados y el costo real puede variar significativamente.
+Para estimar los costos, necesito hacer algunas suposiciones y usar promedios, ya que los precios pueden variar mucho dependiendo de las elecciones específicas que hagan los viajeros.  Además, convertiré los costos a COP usando una tasa de cambio aproximada de 1 GBP = 5000 COP.
 **Suposiciones:**
-*   **Duración:** Tomaremos el promedio de la duración del viaje, es decir, 4.5 días.
-*   **Tiquetes Aéreos:**  Asumiremos un precio promedio para un tiquete ida y vuelta desde Bogotá (ya que Tunja no tiene aeropuerto internacional) a Londres.
-*   **Alojamiento:**  Asumiremos un hotel de gama media o un Airbnb para tres personas.
-*   **Comida:**  Asumiremos un presupuesto moderado para comidas, incluyendo algunas comidas en restaurantes y otras preparadas por uno mismo.
-*   **Transporte Local:**  Consideraremos el uso de transporte público (metro, buses) y algunos taxis/ubers.
-*   **Tasa de Cambio:** Usaremos una tasa de cambio aproximada de 1 GBP = 5000 COP (Esto puede variar diariamente).
-**Estimación de Costos:**
-**1. Tiquetes Aéreos (Ida y Vuelta desde Bogotá):**
-*   Precio promedio por persona: 4.000.000 COP
-*   Total para 3 personas: 12.000.000 COP
-**2. Alojamiento (4.5 noches):**
-*   Precio promedio por noche (hotel/Airbnb): 600.000 COP
-*   Total para 4.5 noches: 2.700.000 COP
-**3. Comida (4.5 días):**
-*   Presupuesto promedio por persona por día: 150.000 COP
-*   Total por persona para 4.5 días: 675.000 COP
-*   Total para 3 personas: 2.025.000 COP
-**4. Transporte Local (4.5 días):**
-*   Presupuesto promedio por persona por día: 50.000 COP
-*   Total por persona para 4.5 días: 225.000 COP
-*   Total para 3 personas: 675.000 COP
-**5. Entradas y Actividades (Cultural y Fútbol):**
-*   Presupuesto promedio por persona por día: 100.000 COP
-*   Total por persona para 4.5 días: 450.000 COP
-*   Total para 3 personas: 1.350.000 COP
-**Resumen de Costos Totales:**
-*   **Tiquetes Aéreos:** 12.000.000 COP
-*   **Alojamiento:** 2.700.000 COP
-*   **Comida:** 2.025.000 COP
-*   **Transporte Local:** 675.000 COP
-*   **Entradas y Actividades:** 1.350.000 COP
-*   **Total General:** 18.750.000 COP
-**Costo Diario Total:**
-*   Total General: 18.750.000 COP / 4.5 días = 4.166.667 COP/día
-**Costo Diario por Persona:**
-*   **Alojamiento:** 2.700.000 COP / 4.5 días / 3 personas = 200.000 COP/persona/día
-*   **Comida:** 2.025.000 COP / 4.5 días / 3 personas = 150.000 COP/persona/día
-*   **Transporte Local:** 675.000 COP / 4.5 días / 3 personas = 50.000 COP/persona/día
-*   **Entradas y Actividades:** 1.350.000 COP / 4.5 días / 3 personas = 100.000 COP/persona/día
-*   **Total por persona (excluyendo tiquetes):** 500.000 COP/persona/día
-**Resumen Final:**
-*   **Costo Total Diario (Transporte, Alojamiento, Comida, Actividades):** 4.166.667 COP
-*   **Costo Diario por Persona (Alojamiento, Comida, Transporte Local, Actividades):** 500.000 COP
+*   **Tiquetes:** No puedo estimar el costo de los tiquetes aéreos sin fechas específicas y aerolíneas.  Este será el costo más variable y significativo.  **Lo excluyo de la estimación diaria.**
+*   **Alojamiento:** Asumo un hotel de gama media (3 estrellas) o un Airbnb decente.
+*   **Comida:** Asumo un presupuesto moderado, incluyendo comidas en restaurantes locales y algunas compras en supermercados.
+*   **Transporte local:** Incluye transporte público (metro, buses) y algunos taxis/Uber ocasionales.
+*   **Actividades:** Incluyo un costo promedio para entradas a museos, atracciones turísticas y un partido de fútbol.
+*   **Duración:** Tomo el promedio de la duración del viaje, es decir, 4.5 días.
+**Estimación (sin tiquetes aéreos):**
+**1. Alojamiento:**
+*   Costo promedio por noche en Londres (hotel 3 estrellas o Airbnb): £150 - £250
+*   Convertido a COP: £200 * 5000 COP/GBP = 1.000.000 COP por noche
+*   Costo total de alojamiento (4.5 noches): 1.000.000 COP/noche * 4.5 noches = 4.500.000 COP
+*   Costo diario de alojamiento: 4.500.000 COP / 4.5 días = 1.000.000 COP/día
+**2. Comida:**
+*   Costo promedio por persona por día: £50 - £75
+*   Costo total por día para 3 personas: £60 * 3 personas = £180
+*   Convertido a COP: £180 * 5000 COP/GBP = 900.000 COP/día
+**3. Transporte Local:**
+*   Costo promedio por persona por día: £15 - £25 (Oyster card o similar)
+*   Costo total por día para 3 personas: £20 * 3 personas = £60
+*   Convertido a COP: £60 * 5000 COP/GBP = 300.000 COP/día
+**4. Actividades (Cultural y Fútbol):**
+*   Entradas a museos/atracciones por persona por día: £30
+*   Entrada a un partido de fútbol por persona: £75 (asumiendo un partido de liga regular)
+*   Costo total de actividades por persona: £30 * 4.5 días + £75 = £210
+*   Costo total de actividades para 3 personas: £210 * 3 personas = £630
+*   Convertido a COP: £630 * 5000 COP/GBP = 3.150.000 COP
+*   Costo diario de actividades: 3.150.000 COP / 4.5 días = 700.000 COP/día
+**Resumen de Costos Diarios (sin tiquetes aéreos):**
+*   **Alojamiento:** 1.000.000 COP/día
+*   **Comida:** 900.000 COP/día
+*   **Transporte Local:** 300.000 COP/día
+*   **Actividades:** 700.000 COP/día
+**Costo Total Diario en COP:** 1.000.000 + 900.000 + 300.000 + 700.000 = **2.900.000 COP**
+**Costo Diario por Persona en COP:**
+*   **Alojamiento:** 1.000.000 COP / 3 personas = 333.333 COP
+*   **Comida:** 900.000 COP / 3 personas = 300.000 COP
+*   **Transporte Local:** 300.000 COP / 3 personas = 100.000 COP
+*   **Actividades:** 700.000 COP / 3 personas = 233.333 COP
+**Costo Total Diario por Persona en COP:** 333.333 + 300.000 + 100.000 + 233.333 = **966.666 COP**
+**Presentación Final:**
+| Concepto          | Costo Total Diario (COP) | Costo Diario por Persona (COP) |
+| ----------------- | ------------------------ | ------------------------------- |
+| Alojamiento       | 1.000.000                | 333.333                         |
+| Comida            | 900.000                  | 300.000                         |
+| Transporte Local  | 300.000                  | 100.000                         |
+| Actividades        | 700.000                  | 233.333                         |
+| **TOTAL (sin tiquetes)** | **2.900.000**            | **966.666**                     |
 **Importante:**
-*   Estos son solo estimados. Los precios reales pueden variar.
-*   Los tiquetes aéreos pueden variar significativamente dependiendo de la temporada y la anticipación con la que se compren.
-*   El alojamiento puede variar dependiendo del tipo de alojamiento y la ubicación.
-*   El costo de las actividades puede variar dependiendo de las actividades que se elijan.
-*   Se recomienda investigar y reservar con anticipación para obtener mejores precios.
-*   Es recomendable tener un presupuesto adicional para imprevistos.
-*   La tasa de cambio puede variar.
-Para obtener una estimación más precisa, se recomienda investigar los precios de los tiquetes aéreos y el alojamiento para las fechas específicas del viaje.  También es útil consultar blogs de viajes y foros para obtener información sobre los costos de vida en Londres.
+*   **Tiquetes Aéreos:** Esta es la mayor variable y no está incluida.  Investigue los precios de los vuelos con anticipación.
+*   **Flexibilidad:** Estos son promedios.  Pueden ahorrar dinero cocinando algunas comidas, usando más el transporte público, o eligiendo alojamiento más económico.
+*   **Tipo de Cambio:** El tipo de cambio GBP/COP puede fluctuar.
+*   **Preferencias Personales:** Los gustos individuales afectarán los costos de comida y actividades.
+*   **Época del Año:** Los precios pueden variar según la temporada alta o baja.
+Esta estimación le da una idea general de los costos.  Una planificación más detallada y la reserva anticipada pueden ayudar a reducir los gastos.
 Genere una consulta en español (una línea) para buscar en internet:
 - Precio promedio de transporte local, alojamiento y comida en el destino.
 No incluya explicaciones, solo la consulta.</t>
@@ -883,14 +887,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>"costo promedio transporte alojamiento comida Londres"</t>
+          <t>costo promedio transporte alojamiento comida Londres</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-06 15:56:09</t>
+          <t>2025-04-06 16:41:59</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -900,15 +904,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"costo promedio transporte alojamiento comida Londres"</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>costo promedio transporte alojamiento comida Londres</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Precios en Londres 2025 precios en restaurantes, alimentos y bebidas ...: https://hikersbay.com/prices/uk/london?lang=es
+¿Cuánto se gasta en Londres por día? ᐈ Precios 2025 - Tricky London: https://trickylondon.com/cuanto-cuesta-londres-precios/
+Presupuesto para viajar a Londres - Estoy en Londres: https://estoyenlondres.com/preparatuviaje/presupuesto-para-viajar-a-londres/
+Cuánto dinero llevar a Londres según la duración del viaje - Astelus: https://astelus.com/presupuesto-para-viajar-a-londres/
+Londres - Los gastos de viaje estimados para alimentos, transporte ...: https://hikersbay.com/travel-cost/uk/london?lang=es</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-06 15:56:11</t>
+          <t>2025-04-06 16:42:01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -922,88 +934,92 @@
 - Transporte (tiquetes incluidos): total y por persona.
 - Alojamiento: total y por persona.
 - Alimentación: total y por persona.
-Para estimar el costo del viaje de Tunja a Londres con los datos proporcionados, necesitamos hacer algunas suposiciones y usar promedios, ya que la información es limitada.  Es importante recordar que estos son solo estimados y el costo real puede variar significativamente.
+Para estimar los costos, necesito hacer algunas suposiciones y usar promedios, ya que los precios pueden variar mucho dependiendo de las elecciones específicas que hagan los viajeros.  Además, convertiré los costos a COP usando una tasa de cambio aproximada de 1 GBP = 5000 COP.
 **Suposiciones:**
-*   **Duración:** Tomaremos el promedio de la duración del viaje, es decir, 4.5 días.
-*   **Tiquetes Aéreos:**  Asumiremos un precio promedio para un tiquete ida y vuelta desde Bogotá (ya que Tunja no tiene aeropuerto internacional) a Londres.
-*   **Alojamiento:**  Asumiremos un hotel de gama media o un Airbnb para tres personas.
-*   **Comida:**  Asumiremos un presupuesto moderado para comidas, incluyendo algunas comidas en restaurantes y otras preparadas por uno mismo.
-*   **Transporte Local:**  Consideraremos el uso de transporte público (metro, buses) y algunos taxis/ubers.
-*   **Tasa de Cambio:** Usaremos una tasa de cambio aproximada de 1 GBP = 5000 COP (Esto puede variar diariamente).
-**Estimación de Costos:**
-**1. Tiquetes Aéreos (Ida y Vuelta desde Bogotá):**
-*   Precio promedio por persona: 4.000.000 COP
-*   Total para 3 personas: 12.000.000 COP
-**2. Alojamiento (4.5 noches):**
-*   Precio promedio por noche (hotel/Airbnb): 600.000 COP
-*   Total para 4.5 noches: 2.700.000 COP
-**3. Comida (4.5 días):**
-*   Presupuesto promedio por persona por día: 150.000 COP
-*   Total por persona para 4.5 días: 675.000 COP
-*   Total para 3 personas: 2.025.000 COP
-**4. Transporte Local (4.5 días):**
-*   Presupuesto promedio por persona por día: 50.000 COP
-*   Total por persona para 4.5 días: 225.000 COP
-*   Total para 3 personas: 675.000 COP
-**5. Entradas y Actividades (Cultural y Fútbol):**
-*   Presupuesto promedio por persona por día: 100.000 COP
-*   Total por persona para 4.5 días: 450.000 COP
-*   Total para 3 personas: 1.350.000 COP
-**Resumen de Costos Totales:**
-*   **Tiquetes Aéreos:** 12.000.000 COP
-*   **Alojamiento:** 2.700.000 COP
-*   **Comida:** 2.025.000 COP
-*   **Transporte Local:** 675.000 COP
-*   **Entradas y Actividades:** 1.350.000 COP
-*   **Total General:** 18.750.000 COP
-**Costo Diario Total:**
-*   Total General: 18.750.000 COP / 4.5 días = 4.166.667 COP/día
-**Costo Diario por Persona:**
-*   **Alojamiento:** 2.700.000 COP / 4.5 días / 3 personas = 200.000 COP/persona/día
-*   **Comida:** 2.025.000 COP / 4.5 días / 3 personas = 150.000 COP/persona/día
-*   **Transporte Local:** 675.000 COP / 4.5 días / 3 personas = 50.000 COP/persona/día
-*   **Entradas y Actividades:** 1.350.000 COP / 4.5 días / 3 personas = 100.000 COP/persona/día
-*   **Total por persona (excluyendo tiquetes):** 500.000 COP/persona/día
-**Resumen Final:**
-*   **Costo Total Diario (Transporte, Alojamiento, Comida, Actividades):** 4.166.667 COP
-*   **Costo Diario por Persona (Alojamiento, Comida, Transporte Local, Actividades):** 500.000 COP
+*   **Tiquetes:** No puedo estimar el costo de los tiquetes aéreos sin fechas específicas y aerolíneas.  Este será el costo más variable y significativo.  **Lo excluyo de la estimación diaria.**
+*   **Alojamiento:** Asumo un hotel de gama media (3 estrellas) o un Airbnb decente.
+*   **Comida:** Asumo un presupuesto moderado, incluyendo comidas en restaurantes locales y algunas compras en supermercados.
+*   **Transporte local:** Incluye transporte público (metro, buses) y algunos taxis/Uber ocasionales.
+*   **Actividades:** Incluyo un costo promedio para entradas a museos, atracciones turísticas y un partido de fútbol.
+*   **Duración:** Tomo el promedio de la duración del viaje, es decir, 4.5 días.
+**Estimación (sin tiquetes aéreos):**
+**1. Alojamiento:**
+*   Costo promedio por noche en Londres (hotel 3 estrellas o Airbnb): £150 - £250
+*   Convertido a COP: £200 * 5000 COP/GBP = 1.000.000 COP por noche
+*   Costo total de alojamiento (4.5 noches): 1.000.000 COP/noche * 4.5 noches = 4.500.000 COP
+*   Costo diario de alojamiento: 4.500.000 COP / 4.5 días = 1.000.000 COP/día
+**2. Comida:**
+*   Costo promedio por persona por día: £50 - £75
+*   Costo total por día para 3 personas: £60 * 3 personas = £180
+*   Convertido a COP: £180 * 5000 COP/GBP = 900.000 COP/día
+**3. Transporte Local:**
+*   Costo promedio por persona por día: £15 - £25 (Oyster card o similar)
+*   Costo total por día para 3 personas: £20 * 3 personas = £60
+*   Convertido a COP: £60 * 5000 COP/GBP = 300.000 COP/día
+**4. Actividades (Cultural y Fútbol):**
+*   Entradas a museos/atracciones por persona por día: £30
+*   Entrada a un partido de fútbol por persona: £75 (asumiendo un partido de liga regular)
+*   Costo total de actividades por persona: £30 * 4.5 días + £75 = £210
+*   Costo total de actividades para 3 personas: £210 * 3 personas = £630
+*   Convertido a COP: £630 * 5000 COP/GBP = 3.150.000 COP
+*   Costo diario de actividades: 3.150.000 COP / 4.5 días = 700.000 COP/día
+**Resumen de Costos Diarios (sin tiquetes aéreos):**
+*   **Alojamiento:** 1.000.000 COP/día
+*   **Comida:** 900.000 COP/día
+*   **Transporte Local:** 300.000 COP/día
+*   **Actividades:** 700.000 COP/día
+**Costo Total Diario en COP:** 1.000.000 + 900.000 + 300.000 + 700.000 = **2.900.000 COP**
+**Costo Diario por Persona en COP:**
+*   **Alojamiento:** 1.000.000 COP / 3 personas = 333.333 COP
+*   **Comida:** 900.000 COP / 3 personas = 300.000 COP
+*   **Transporte Local:** 300.000 COP / 3 personas = 100.000 COP
+*   **Actividades:** 700.000 COP / 3 personas = 233.333 COP
+**Costo Total Diario por Persona en COP:** 333.333 + 300.000 + 100.000 + 233.333 = **966.666 COP**
+**Presentación Final:**
+| Concepto          | Costo Total Diario (COP) | Costo Diario por Persona (COP) |
+| ----------------- | ------------------------ | ------------------------------- |
+| Alojamiento       | 1.000.000                | 333.333                         |
+| Comida            | 900.000                  | 300.000                         |
+| Transporte Local  | 300.000                  | 100.000                         |
+| Actividades        | 700.000                  | 233.333                         |
+| **TOTAL (sin tiquetes)** | **2.900.000**            | **966.666**                     |
 **Importante:**
-*   Estos son solo estimados. Los precios reales pueden variar.
-*   Los tiquetes aéreos pueden variar significativamente dependiendo de la temporada y la anticipación con la que se compren.
-*   El alojamiento puede variar dependiendo del tipo de alojamiento y la ubicación.
-*   El costo de las actividades puede variar dependiendo de las actividades que se elijan.
-*   Se recomienda investigar y reservar con anticipación para obtener mejores precios.
-*   Es recomendable tener un presupuesto adicional para imprevistos.
-*   La tasa de cambio puede variar.
-Para obtener una estimación más precisa, se recomienda investigar los precios de los tiquetes aéreos y el alojamiento para las fechas específicas del viaje.  También es útil consultar blogs de viajes y foros para obtener información sobre los costos de vida en Londres.
+*   **Tiquetes Aéreos:** Esta es la mayor variable y no está incluida.  Investigue los precios de los vuelos con anticipación.
+*   **Flexibilidad:** Estos son promedios.  Pueden ahorrar dinero cocinando algunas comidas, usando más el transporte público, o eligiendo alojamiento más económico.
+*   **Tipo de Cambio:** El tipo de cambio GBP/COP puede fluctuar.
+*   **Preferencias Personales:** Los gustos individuales afectarán los costos de comida y actividades.
+*   **Época del Año:** Los precios pueden variar según la temporada alta o baja.
+Esta estimación le da una idea general de los costos.  Una planificación más detallada y la reserva anticipada pueden ayudar a reducir los gastos.
 Resultados de internet:
+Precios en Londres 2025 precios en restaurantes, alimentos y bebidas ...: https://hikersbay.com/prices/uk/london?lang=es
+¿Cuánto se gasta en Londres por día? ᐈ Precios 2025 - Tricky London: https://trickylondon.com/cuanto-cuesta-londres-precios/
+Presupuesto para viajar a Londres - Estoy en Londres: https://estoyenlondres.com/preparatuviaje/presupuesto-para-viajar-a-londres/
+Cuánto dinero llevar a Londres según la duración del viaje - Astelus: https://astelus.com/presupuesto-para-viajar-a-londres/
+Londres - Los gastos de viaje estimados para alimentos, transporte ...: https://hikersbay.com/travel-cost/uk/london?lang=es
 Solo muestre valores numéricos con etiquetas claras.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Aquí está el desglose del costo total del viaje a Londres en COP, basado en la información proporcionada:
-**Costo Total del Viaje (COP): 18.750.000**
-**Desglose:**
-*   **Transporte (Tiquetes Incluidos):**
-    *   Total: 12.675.000
-    *   Por Persona: 4.225.000
-*   **Alojamiento:**
-    *   Total: 2.700.000
-    *   Por Persona: 900.000
-*   **Alimentación:**
-    *   Total: 2.025.000
-    *   Por Persona: 675.000
-*   **Entradas y Actividades:**
-    *   Total: 1.350.000
-    *   Por Persona: 450.000</t>
+          <t>**Costo Total del Viaje a Londres (4.5 días, 3 personas) en COP (sin tiquetes aéreos):**
+*   **Alojamiento Total:** 4.500.000 COP
+*   **Alimentación Total:** 4.050.000 COP
+*   **Transporte Local Total:** 1.350.000 COP
+*   **Actividades Total:** 3.150.000 COP
+*   **Costo Total del Viaje (sin tiquetes):** 13.050.000 COP
+**Costo por Persona (sin tiquetes aéreos):**
+*   **Alojamiento:** 1.500.000 COP
+*   **Alimentación:** 1.350.000 COP
+*   **Transporte Local:** 450.000 COP
+*   **Actividades:** 1.050.000 COP
+*   **Costo Total por Persona (sin tiquetes):** 4.350.000 COP</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-06 15:56:11</t>
+          <t>2025-04-06 16:42:01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1021,7 +1037,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-06 15:56:12</t>
+          <t>2025-04-06 16:42:03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1037,30 +1053,337 @@
       <c r="D16" t="inlineStr">
         <is>
           <t>Tunja → Londres: precios y horarios - Rome2rio: https://www.rome2rio.com/es/s/Tunja/Londres
-Vuelos baratos a Londres desde $ 2.830.649 - Skyscanner: https://www.espanol.skyscanner.com/vuelos-a/lond/vuelos-baratos-a-londres.html
-Vuelos a Londres | Tiquetes Baratos en Despegar: https://www.despegar.com.co/vuelos/lon/vuelos-a-londres
+Terminal de Tunja | Pasajes, Precios y Horarios | Pinbus: https://m.pinbus.com/terminal-de-transporte/tunja
+Tarifas del Metro de Londres 2025 - London Tube Map: https://www.londontubemap.org/es-price-fares-tickets-tube-London.php
 De Londres a Tunja en 16½ horas: precios y horarios para ir ... - Rome2rio: https://www.rome2rio.com/es/s/Londres/Tunja
-Vuelos baratos a Londres desde 14,99 € | Ryanair: https://www.ryanair.com/flights/es/es/vuelos-a-londres</t>
+Concorde Oficial | Compra de Pasajes de Bus en Línea: https://concordeoficial.com/tunja/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-06 15:56:21</t>
+          <t>2025-04-06 16:42:10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Estimación de Costos - Contexto Base</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Con base en la información del viaje y el número de viajeros, estime:
+- Costo total diario en COP de transporte (tiquetes incluidos), alojamiento y comida.
+- Costo diario por persona en COP para cada concepto.
+Datos:
+{"origen": "Tunja", "destino": "Londres", "consulta_tiquetes": "true"}
+Presente valores totales y por persona.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Para poder estimar los costos, necesito información adicional crucial:
+1.  **Número de viajeros:** ¿Cuántas personas viajan de Tunja a Londres?
+2.  **Duración del viaje:** ¿Cuántos días durará el viaje en total?
+3.  **Tipo de alojamiento:** ¿Se hospedarán en hoteles económicos, de gama media, de lujo, hostales o apartamentos?
+4.  **Preferencias de comida:** ¿Comerán en restaurantes económicos, de gama media, de lujo, cocinarán o combinarán opciones?
+5.  **Tipo de transporte local en Londres:** ¿Usarán transporte público (metro, autobús), taxis, servicios de transporte privado (Uber), o alquilarán un coche?
+6.  **Fecha del viaje:** La fecha del viaje es importante para estimar el costo de los tiquetes aéreos y el alojamiento.
+**Suposiciones para una estimación inicial (y muy general):**
+Dado que no tengo la información anterior, haré algunas suposiciones para darte una estimación inicial.  **Ten en cuenta que estos son valores aproximados y pueden variar significativamente.**
+*   **Número de viajeros:** 2 personas
+*   **Duración del viaje:** 7 días
+*   **Alojamiento:** Hotel de gama media
+*   **Comida:** Combinación de restaurantes económicos y supermercado (para algunos desayunos y cenas)
+*   **Transporte local:** Principalmente transporte público (metro, autobús)
+**Estimación de costos (en COP):**
+**1. Tiquetes Aéreos (Ida y Vuelta):**
+*   Un tiquete ida y vuelta Tunja-Londres puede costar entre 3.500.000 COP y 6.000.000 COP por persona, dependiendo de la aerolínea, la temporada y la anticipación con la que se compre.
+*   **Total para 2 personas:** 7.000.000 COP - 12.000.000 COP
+**2. Alojamiento (Hotel de gama media):**
+*   Un hotel de gama media en Londres puede costar entre 400.000 COP y 800.000 COP por noche.
+*   **Total para 7 noches:** 2.800.000 COP - 5.600.000 COP
+**3. Comida:**
+*   Presupuesto diario por persona: 150.000 COP - 300.000 COP (combinando restaurantes económicos y supermercado).
+*   **Total para 2 personas por 7 días:** 2.100.000 COP - 4.200.000 COP
+**4. Transporte Local:**
+*   Un abono de transporte público semanal en Londres (Oyster card o similar) puede costar alrededor de 200.000 COP por persona.
+*   **Total para 2 personas:** 400.000 COP
+**Resumen de Costos Totales (aproximados):**
+*   **Tiquetes:** 7.000.000 - 12.000.000 COP
+*   **Alojamiento:** 2.800.000 - 5.600.000 COP
+*   **Comida:** 2.100.000 - 4.200.000 COP
+*   **Transporte Local:** 400.000 COP
+*   **Total General:** 12.300.000 - 22.200.000 COP
+**Costos Diarios Totales (aproximados):**
+*   **Total Diario (sin tiquetes):** (2.800.000 + 2.100.000 + 400.000) / 7 = 757.143 COP (mínimo) a (5.600.000 + 4.200.000 + 400.000) / 7 = 1.457.143 COP (máximo)
+**Costos Diarios por Persona (aproximados):**
+*   **Alojamiento:** (400.000 - 800.000 COP) / noche / 2 personas = 200.000 - 400.000 COP
+*   **Comida:** 150.000 - 300.000 COP
+*   **Transporte Local:** 400.000 / 2 personas / 7 días =  28.571 COP
+**Resumen de Costos Diarios por Persona (sin tiquetes):**
+*   **Total Diario por Persona:** 378.571 COP (mínimo) a 728.571 COP (máximo)
+**Importante:**
+*   **Estos son solo estimados.** Los precios reales pueden variar mucho.
+*   **El costo de los tiquetes aéreos es el factor más variable.**  Busca con anticipación y sé flexible con las fechas.
+*   **Considera el tipo de cambio COP/GBP.**  Los precios en Londres están en libras esterlinas (GBP).
+*   **Incluye un presupuesto para actividades y souvenirs.**
+**Para obtener una estimación más precisa, por favor proporciona la información solicitada al principio.**</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-04-06 16:42:11</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Estimación de Costos - Consulta Web</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Resumen de contexto sobre costos estimados:
+Para poder estimar los costos, necesito información adicional crucial:
+1.  **Número de viajeros:** ¿Cuántas personas viajan de Tunja a Londres?
+2.  **Duración del viaje:** ¿Cuántos días durará el viaje en total?
+3.  **Tipo de alojamiento:** ¿Se hospedarán en hoteles económicos, de gama media, de lujo, hostales o apartamentos?
+4.  **Preferencias de comida:** ¿Comerán en restaurantes económicos, de gama media, de lujo, cocinarán o combinarán opciones?
+5.  **Tipo de transporte local en Londres:** ¿Usarán transporte público (metro, autobús), taxis, servicios de transporte privado (Uber), o alquilarán un coche?
+6.  **Fecha del viaje:** La fecha del viaje es importante para estimar el costo de los tiquetes aéreos y el alojamiento.
+**Suposiciones para una estimación inicial (y muy general):**
+Dado que no tengo la información anterior, haré algunas suposiciones para darte una estimación inicial.  **Ten en cuenta que estos son valores aproximados y pueden variar significativamente.**
+*   **Número de viajeros:** 2 personas
+*   **Duración del viaje:** 7 días
+*   **Alojamiento:** Hotel de gama media
+*   **Comida:** Combinación de restaurantes económicos y supermercado (para algunos desayunos y cenas)
+*   **Transporte local:** Principalmente transporte público (metro, autobús)
+**Estimación de costos (en COP):**
+**1. Tiquetes Aéreos (Ida y Vuelta):**
+*   Un tiquete ida y vuelta Tunja-Londres puede costar entre 3.500.000 COP y 6.000.000 COP por persona, dependiendo de la aerolínea, la temporada y la anticipación con la que se compre.
+*   **Total para 2 personas:** 7.000.000 COP - 12.000.000 COP
+**2. Alojamiento (Hotel de gama media):**
+*   Un hotel de gama media en Londres puede costar entre 400.000 COP y 800.000 COP por noche.
+*   **Total para 7 noches:** 2.800.000 COP - 5.600.000 COP
+**3. Comida:**
+*   Presupuesto diario por persona: 150.000 COP - 300.000 COP (combinando restaurantes económicos y supermercado).
+*   **Total para 2 personas por 7 días:** 2.100.000 COP - 4.200.000 COP
+**4. Transporte Local:**
+*   Un abono de transporte público semanal en Londres (Oyster card o similar) puede costar alrededor de 200.000 COP por persona.
+*   **Total para 2 personas:** 400.000 COP
+**Resumen de Costos Totales (aproximados):**
+*   **Tiquetes:** 7.000.000 - 12.000.000 COP
+*   **Alojamiento:** 2.800.000 - 5.600.000 COP
+*   **Comida:** 2.100.000 - 4.200.000 COP
+*   **Transporte Local:** 400.000 COP
+*   **Total General:** 12.300.000 - 22.200.000 COP
+**Costos Diarios Totales (aproximados):**
+*   **Total Diario (sin tiquetes):** (2.800.000 + 2.100.000 + 400.000) / 7 = 757.143 COP (mínimo) a (5.600.000 + 4.200.000 + 400.000) / 7 = 1.457.143 COP (máximo)
+**Costos Diarios por Persona (aproximados):**
+*   **Alojamiento:** (400.000 - 800.000 COP) / noche / 2 personas = 200.000 - 400.000 COP
+*   **Comida:** 150.000 - 300.000 COP
+*   **Transporte Local:** 400.000 / 2 personas / 7 días =  28.571 COP
+**Resumen de Costos Diarios por Persona (sin tiquetes):**
+*   **Total Diario por Persona:** 378.571 COP (mínimo) a 728.571 COP (máximo)
+**Importante:**
+*   **Estos son solo estimados.** Los precios reales pueden variar mucho.
+*   **El costo de los tiquetes aéreos es el factor más variable.**  Busca con anticipación y sé flexible con las fechas.
+*   **Considera el tipo de cambio COP/GBP.**  Los precios en Londres están en libras esterlinas (GBP).
+*   **Incluye un presupuesto para actividades y souvenirs.**
+**Para obtener una estimación más precisa, por favor proporciona la información solicitada al principio.**
+Genere una consulta en español (una línea) para buscar en internet:
+- Precio promedio de transporte local, alojamiento y comida en el destino.
+No incluya explicaciones, solo la consulta.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>costo promedio transporte alojamiento comida Londres</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-06 16:42:12</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Estimación de Costos - Resultados Web</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>costo promedio transporte alojamiento comida Londres</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Precios en Londres 2025 precios en restaurantes, alimentos y bebidas ...: https://hikersbay.com/prices/uk/london?lang=es
+¿Cuánto se gasta en Londres por día? ᐈ Precios 2025 - Tricky London: https://trickylondon.com/cuanto-cuesta-londres-precios/
+Presupuesto para viajar a Londres - Estoy en Londres: https://estoyenlondres.com/preparatuviaje/presupuesto-para-viajar-a-londres/
+Cuánto dinero llevar a Londres según la duración del viaje - Astelus: https://astelus.com/presupuesto-para-viajar-a-londres/
+Londres - Los gastos de viaje estimados para alimentos, transporte ...: https://hikersbay.com/travel-cost/uk/london?lang=es</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-06 16:42:14</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Estimación de Costos - Resultado Final</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Con base en la información y resultados web, calcule el **costo total del viaje** en COP, desglosado por:
+- Transporte (tiquetes incluidos): total y por persona.
+- Alojamiento: total y por persona.
+- Alimentación: total y por persona.
+Para poder estimar los costos, necesito información adicional crucial:
+1.  **Número de viajeros:** ¿Cuántas personas viajan de Tunja a Londres?
+2.  **Duración del viaje:** ¿Cuántos días durará el viaje en total?
+3.  **Tipo de alojamiento:** ¿Se hospedarán en hoteles económicos, de gama media, de lujo, hostales o apartamentos?
+4.  **Preferencias de comida:** ¿Comerán en restaurantes económicos, de gama media, de lujo, cocinarán o combinarán opciones?
+5.  **Tipo de transporte local en Londres:** ¿Usarán transporte público (metro, autobús), taxis, servicios de transporte privado (Uber), o alquilarán un coche?
+6.  **Fecha del viaje:** La fecha del viaje es importante para estimar el costo de los tiquetes aéreos y el alojamiento.
+**Suposiciones para una estimación inicial (y muy general):**
+Dado que no tengo la información anterior, haré algunas suposiciones para darte una estimación inicial.  **Ten en cuenta que estos son valores aproximados y pueden variar significativamente.**
+*   **Número de viajeros:** 2 personas
+*   **Duración del viaje:** 7 días
+*   **Alojamiento:** Hotel de gama media
+*   **Comida:** Combinación de restaurantes económicos y supermercado (para algunos desayunos y cenas)
+*   **Transporte local:** Principalmente transporte público (metro, autobús)
+**Estimación de costos (en COP):**
+**1. Tiquetes Aéreos (Ida y Vuelta):**
+*   Un tiquete ida y vuelta Tunja-Londres puede costar entre 3.500.000 COP y 6.000.000 COP por persona, dependiendo de la aerolínea, la temporada y la anticipación con la que se compre.
+*   **Total para 2 personas:** 7.000.000 COP - 12.000.000 COP
+**2. Alojamiento (Hotel de gama media):**
+*   Un hotel de gama media en Londres puede costar entre 400.000 COP y 800.000 COP por noche.
+*   **Total para 7 noches:** 2.800.000 COP - 5.600.000 COP
+**3. Comida:**
+*   Presupuesto diario por persona: 150.000 COP - 300.000 COP (combinando restaurantes económicos y supermercado).
+*   **Total para 2 personas por 7 días:** 2.100.000 COP - 4.200.000 COP
+**4. Transporte Local:**
+*   Un abono de transporte público semanal en Londres (Oyster card o similar) puede costar alrededor de 200.000 COP por persona.
+*   **Total para 2 personas:** 400.000 COP
+**Resumen de Costos Totales (aproximados):**
+*   **Tiquetes:** 7.000.000 - 12.000.000 COP
+*   **Alojamiento:** 2.800.000 - 5.600.000 COP
+*   **Comida:** 2.100.000 - 4.200.000 COP
+*   **Transporte Local:** 400.000 COP
+*   **Total General:** 12.300.000 - 22.200.000 COP
+**Costos Diarios Totales (aproximados):**
+*   **Total Diario (sin tiquetes):** (2.800.000 + 2.100.000 + 400.000) / 7 = 757.143 COP (mínimo) a (5.600.000 + 4.200.000 + 400.000) / 7 = 1.457.143 COP (máximo)
+**Costos Diarios por Persona (aproximados):**
+*   **Alojamiento:** (400.000 - 800.000 COP) / noche / 2 personas = 200.000 - 400.000 COP
+*   **Comida:** 150.000 - 300.000 COP
+*   **Transporte Local:** 400.000 / 2 personas / 7 días =  28.571 COP
+**Resumen de Costos Diarios por Persona (sin tiquetes):**
+*   **Total Diario por Persona:** 378.571 COP (mínimo) a 728.571 COP (máximo)
+**Importante:**
+*   **Estos son solo estimados.** Los precios reales pueden variar mucho.
+*   **El costo de los tiquetes aéreos es el factor más variable.**  Busca con anticipación y sé flexible con las fechas.
+*   **Considera el tipo de cambio COP/GBP.**  Los precios en Londres están en libras esterlinas (GBP).
+*   **Incluye un presupuesto para actividades y souvenirs.**
+**Para obtener una estimación más precisa, por favor proporciona la información solicitada al principio.**
+Resultados de internet:
+Precios en Londres 2025 precios en restaurantes, alimentos y bebidas ...: https://hikersbay.com/prices/uk/london?lang=es
+¿Cuánto se gasta en Londres por día? ᐈ Precios 2025 - Tricky London: https://trickylondon.com/cuanto-cuesta-londres-precios/
+Presupuesto para viajar a Londres - Estoy en Londres: https://estoyenlondres.com/preparatuviaje/presupuesto-para-viajar-a-londres/
+Cuánto dinero llevar a Londres según la duración del viaje - Astelus: https://astelus.com/presupuesto-para-viajar-a-londres/
+Londres - Los gastos de viaje estimados para alimentos, transporte ...: https://hikersbay.com/travel-cost/uk/london?lang=es
+Solo muestre valores numéricos con etiquetas claras.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>De acuerdo a las suposiciones realizadas:
+**Costos Totales (COP):**
+*   **Tiquetes (2 personas):** 7.000.000 - 12.000.000
+*   **Alojamiento (7 noches):** 2.800.000 - 5.600.000
+*   **Alimentación (2 personas, 7 días):** 2.100.000 - 4.200.000
+*   **Transporte Local (2 personas):** 400.000
+*   **Total General:** 12.300.000 - 22.200.000
+**Costos Diarios (COP):**
+*   **Total Diario (sin tiquetes):** 757.143 (mínimo) - 1.457.143 (máximo)
+**Costos Diarios por Persona (COP):**
+*   **Alojamiento:** 200.000 - 400.000
+*   **Comida:** 150.000 - 300.000
+*   **Transporte Local:** 28.571
+*   **Total Diario por Persona (sin tiquetes):** 378.571 (mínimo) - 728.571 (máximo)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-06 16:42:14</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Consulta Tiquetes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Precio promedio tiquetes Tunja Londres</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-06 16:42:16</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Resultados Tiquetes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Precio promedio tiquetes Tunja Londres</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tunja → Londres: precios y horarios - Rome2rio: https://www.rome2rio.com/es/s/Tunja/Londres
+Tarifas del metro de Londres 2025, precios de billetes actualizados: https://www.londontubemap.org/es-price-fares-tickets-tube-London.php
+De Tunja para Londres - Existem 5 maneiras de chegar ao seu destino ...: https://www.rome2rio.com/pt/s/Tunja/Londres
+De Londres a Tunja en 16½ horas: precios y horarios para ir en Avión ...: https://www.rome2rio.com/es/s/Londres/Tunja
+Vuelos baratos a Londres desde $ 2.830.649 | Skyscanner: https://www.espanol.skyscanner.com/vuelos-a/lond/vuelos-baratos-a-londres.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-04-06 16:42:20</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Cálculo de Presupuesto</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Tienes estos costos totales del viaje en COP:
-18750000
+22200000
 Y esta información del usuario (incluye presupuesto):
-{'presupuesto': '18 millones'}
+{'presupuesto': '18000000'}
 1. Extrae el presupuesto del usuario.
 2. Compara el presupuesto con el **costo total**:
    - Si el presupuesto ≥ costo total: confirma que cubre los gastos y muestra qué % representa cada concepto.
@@ -1068,108 +1391,73 @@
 No hagas desglose del presupuesto si no alcanza.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>```python
-def analizar_presupuesto(costo_total, info_usuario):
-  """
-  Analiza si el presupuesto del usuario cubre el costo total del viaje y proporciona retroalimentación.
-  Args:
-    costo_total: El costo total del viaje en COP (int).
-    info_usuario: Un diccionario con la información del usuario, incluyendo el presupuesto (str).
-  Returns:
-    Un string con el análisis del presupuesto y las recomendaciones.
-  """
-  presupuesto_str = info_usuario['presupuesto']
-  # Extraer el valor numérico del presupuesto (asumiendo que está en millones)
-  presupuesto = float(presupuesto_str.replace('millones', '').strip()) * 1000000  # Convertir a COP
-  if presupuesto &gt;= costo_total:
-    # El presupuesto cubre los gastos
-    porcentaje_costo = (costo_total / presupuesto) * 100
-    mensaje = f"¡Excelente! Tu presupuesto de {presupuesto_str} COP cubre el costo total del viaje de {costo_total:,} COP.\n"  # Formatear con separadores de miles
-    mensaje += f"El costo total representa el {porcentaje_costo:.2f}% de tu presupuesto.\n"
-    # En este punto, se podría agregar el desglose de los costos por concepto y su porcentaje.
-    # Para ello, necesitarías tener la información de los costos desglosados.
-    # Ejemplo (si tuvieras los datos):
-    # mensaje += "\nDesglose de costos:\n"
-    # for concepto, costo in desglose_costos.items():  #desglose_costos sería un diccionario con los costos por concepto
-    #   porcentaje_concepto = (costo / costo_total) * 100
-    #   mensaje += f"- {concepto}: {costo:,} COP ({porcentaje_concepto:.2f}% del costo total)\n"
-    return mensaje
-  else:
-    # El presupuesto NO cubre los gastos
-    diferencia = costo_total - presupuesto
-    mensaje = f"Lo sentimos, tu presupuesto de {presupuesto_str} COP no es suficiente para cubrir el costo total del viaje de {costo_total:,} COP.\n"  # Formatear con separadores de miles
-    mensaje += f"Te faltan {diferencia:,} COP.\n"  # Formatear con separadores de miles
-    mensaje += "Aquí te sugerimos dos ajustes al plan:\n"
-    mensaje += "- **Opción 1: Reducir la duración del viaje:** Considera acortar tu estadía en uno o dos días para disminuir los costos de alojamiento y alimentación.\n"
-    mensaje += "- **Opción 2: Buscar opciones de alojamiento más económicas:** Explora alternativas como hostales, apartamentos compartidos o alojamientos fuera de las zonas más turísticas.\n"
-    return mensaje
-# Datos de ejemplo
-costo_total_viaje = 18750000
-info_usuario = {'presupuesto': '18 millones'}
-# Analizar el presupuesto
-resultado = analizar_presupuesto(costo_total_viaje, info_usuario)
-print(resultado)
+costo_total = 22200000
+informacion_usuario = {'presupuesto': '18000000'}
+# 1. Extraer el presupuesto del usuario
+presupuesto_usuario = int(informacion_usuario['presupuesto'])
+# 2. Comparar el presupuesto con el costo total
+if presupuesto_usuario &gt;= costo_total:
+    print("¡El presupuesto cubre los gastos del viaje!")
+    # Calcular el porcentaje que representa cada concepto (en este caso, solo tenemos el costo total)
+    porcentaje_costo_total = (costo_total / presupuesto_usuario) * 100
+    print(f"El costo total del viaje representa el {porcentaje_costo_total:.2f}% del presupuesto.")
+else:
+    print("El presupuesto NO es suficiente para cubrir los gastos del viaje.")
+    diferencia = costo_total - presupuesto_usuario
+    print(f"El viaje excede el presupuesto en {diferencia:,.0f} COP.")
+    print("\nSugerencias para ajustar el plan:")
+    print("1. **Reducir la duración del viaje:**  Considera acortar la estadía en uno o dos días para disminuir los costos de alojamiento y alimentación.")
+    print("2. **Buscar opciones de alojamiento más económicas:** Explora alternativas como hostales, apartamentos compartidos o alojamientos fuera de las zonas turísticas principales.")
 ```
-**Explicación del código:**
-1. **`analizar_presupuesto(costo_total, info_usuario)`:**
-   - Toma el costo total del viaje y la información del usuario como entrada.
-   - Extrae el presupuesto del usuario del diccionario `info_usuario`.  Convierte la cadena "18 millones" a un valor numérico (18000000).
-   - **Comparación del presupuesto y el costo total:**
-     - **Si el presupuesto es suficiente (&gt;= costo total):**
-       - Calcula el porcentaje que el costo total representa del presupuesto.
-       - Construye un mensaje confirmando que el presupuesto es suficiente y mostrando el porcentaje.
-       - **Importante:**  El código incluye un comentario sobre cómo agregar el desglose de los costos por concepto y su porcentaje, *si tienes esa información disponible*.  Esto requeriría un diccionario adicional con los costos desglosados.
-     - **Si el presupuesto no es suficiente (&lt; costo total):**
-       - Calcula la diferencia entre el costo total y el presupuesto.
-       - Construye un mensaje indicando que el presupuesto no es suficiente y mostrando la diferencia.
-       - Sugiere dos ajustes al plan: reducir la duración del viaje y buscar opciones de alojamiento más económicas.
-   - Retorna el mensaje resultante.
-2. **Ejemplo de uso:**
-   - Define el `costo_total_viaje` y el `info_usuario` con los datos proporcionados.
-   - Llama a la función `analizar_presupuesto` para obtener el resultado.
-   - Imprime el resultado.
+**Explicación:**
+1. **Extracción del Presupuesto:**  Se extrae el valor del presupuesto del diccionario `informacion_usuario` y se convierte a entero usando `int()`.
+2. **Comparación y Lógica Condicional:**
+   - Se utiliza una estructura `if/else` para comparar el `presupuesto_usuario` con el `costo_total`.
+   - **Si el presupuesto es suficiente:**
+     - Se imprime un mensaje de confirmación.
+     - Se calcula el porcentaje que representa el costo total del viaje con respecto al presupuesto.
+     - Se imprime el porcentaje formateado a dos decimales usando `:.2f`.
+   - **Si el presupuesto NO es suficiente:**
+     - Se imprime un mensaje indicando que el presupuesto es insuficiente.
+     - Se calcula la diferencia entre el costo total y el presupuesto para mostrar cuánto se excede.
+     - Se imprimen dos sugerencias para ajustar el plan de viaje.
+3. **Formateo de Números:** Se utiliza `f"{diferencia:,.0f}"` para formatear la diferencia con separadores de miles y sin decimales, lo que mejora la legibilidad.
 **Salida del código:**
 ```
-Lo sentimos, tu presupuesto de 18 millones COP no es suficiente para cubrir el costo total del viaje de 18,750,000 COP.
-Te faltan 750,000 COP.
-Aquí te sugerimos dos ajustes al plan:
-- **Opción 1: Reducir la duración del viaje:** Considera acortar tu estadía en uno o dos días para disminuir los costos de alojamiento y alimentación.
-- **Opción 2: Buscar opciones de alojamiento más económicas:** Explora alternativas como hostales, apartamentos compartidos o alojamientos fuera de las zonas más turísticas.
-```
-**Mejoras posibles:**
-* **Manejo de errores:**  Agregar manejo de errores para el caso en que el formato del presupuesto en `info_usuario` sea incorrecto (por ejemplo, si no contiene la palabra "millones").
-* **Desglose de costos:**  Implementar el desglose de costos por concepto si tienes esa información disponible.  Esto haría el análisis mucho más útil.
-* **Sugerencias personalizadas:**  En lugar de sugerencias genéricas, intentar ofrecer sugerencias más personalizadas basadas en el tipo de viaje (por ejemplo, si es un viaje de aventura, sugerir reducir actividades costosas).
-* **Formato de moneda:**  Usar la biblioteca `locale` para formatear los números con el formato de moneda correcto (COP).
-* **Unidades:**  Ser más explícito con las unidades (COP) en todos los mensajes.
-* **Validación de entrada:**  Validar que el costo total sea un número positivo.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-04-06 15:56:32</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
+El presupuesto NO es suficiente para cubrir los gastos del viaje.
+El viaje excede el presupuesto en 4,200,000 COP.
+Sugerencias para ajustar el plan:
+1. **Reducir la duración del viaje:**  Considera acortar la estadía en uno o dos días para disminuir los costos de alojamiento y alimentación.
+2. **Buscar opciones de alojamiento más económicas:** Explora alternativas como hostales, apartamentos compartidos o alojamientos fuera de las zonas turísticas principales.
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-04-06 16:42:31</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Itinerario Final</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>¡Prepárese para vivir la experiencia de su vida con DaviTravel! A continuación encontrará un itinerario ideal para el viaje de sus sueños:
 0. **Preferencias de viaje:**
-{'origen': 'tunja', 'destino': 'londres', 'fecha': 'primavera', 'duracion': '4-5 días', 'tipo_viaje': 'cultural y futbol', 'acompanantes': 'pareja', 'presupuesto': '18 millones', 'expectativas': 'conocer el big ben y liverpool'}
+{'origen': 'Tunja', 'destino': 'Londres', 'fecha': 'Primavera', 'duracion': '4-5 días', 'tipo_viaje': 'Cultural y futbol', 'acompanantes': 'Pareja', 'presupuesto': '18 millones', 'expectativas': 'Conocer el Big Ben y Liverpool'}
 1. **Requisitos migratorios:**
-Visa y pasaporte válidos son necesarios. Consulte el Consulado de Colombia en Londres para información actualizada.
+Para viajar de Tunja a Londres, un colombiano necesita visa y pasaporte válido. Consultar fuentes oficiales para requisitos actualizados.
 2. **Información turística:**
-Clima templado y variable. Temporada alta. Muchos eventos culturales y partidos de fútbol.
+Londres en primavera: clima templado y variable, temporada alta con eventos culturales y deportivos. Ideal para visitar jardines y parques.
 3. **Presupuesto y costos estimados:**
-Lo sentimos, tu presupuesto de 18 millones COP no es suficiente para cubrir el costo total del viaje de 18,750,000 COP. Te faltan 750,000 COP. Aquí te sugerimos dos ajustes al plan: - Opción 1: Reducir la duración del viaje: Considera acortar tu estadía en uno o dos días para disminuir los costos de alojamiento y alimentación. - Opción 2: Buscar opciones de alojamiento más económicas: Explora alternativas como hostales, apartamentos compartidos o alojamientos fuera de las zonas más turísticas.
+El presupuesto es insuficiente. Se recomienda reducir la duración del viaje y buscar alojamiento más económico.
 Organice el plan en estas secciones:
 I. **Documentos y requisitos**
 - Documentos imprescindibles para ingreso y salida.
@@ -1191,313 +1479,352 @@
 Haga que cada momento sea inolvidable y despierte la emoción de su próxima aventura.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>¡Absolutamente! Aquí tienes un plan de viaje detallado a Londres, diseñado para DaviTravel, considerando sus preferencias y presupuesto, con los ajustes necesarios:
-**I. Documentos y requisitos**
-*   **Documentos imprescindibles:**
-    *   Pasaporte: Con una validez mínima de 6 meses a partir de la fecha de regreso.
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>¡Absolutamente! Aquí tienes un itinerario diseñado para DaviTravel, considerando sus preferencias y presupuesto, con un enfoque en la optimización para una experiencia inolvidable en Londres:
+**I. Documentos y Requisitos**
+*   **Documentos Imprescindibles:**
+    *   Pasaporte: Con una validez mínima de 6 meses después de la fecha de regreso prevista.
+    *   Visa: Los ciudadanos colombianos necesitan una visa para ingresar al Reino Unido. Se recomienda solicitarla con suficiente antelación.
     *   Tiquetes aéreos: Ida y vuelta.
-    *   Comprobante de alojamiento: Reservas de hotel o similar.
+    *   Comprobante de alojamiento: Reservas de hotel o carta de invitación si se hospeda con alguien.
     *   Seguro de viaje: Con cobertura médica internacional.
-*   **Visa:**
-    *   Los ciudadanos colombianos requieren visa para ingresar al Reino Unido. Se recomienda iniciar el trámite con suficiente antelación (al menos 2-3 meses antes del viaje).
-*   **Vacunas:**
-    *   No se exigen vacunas obligatorias para ingresar al Reino Unido desde Colombia. Sin embargo, es recomendable tener al día el esquema de vacunación general.
-**II. Resumen del destino**
-*   **Clima en primavera (marzo-mayo):**
-    *   Templado y variable. Temperaturas promedio entre 8°C y 15°C. Posibilidad de lluvias.
-*   **Temporada:**
-    *   Temporada alta (especialmente en abril y mayo). Mayor afluencia de turistas y precios más elevados.
-*   **Eventos especiales:**
-    *   Festivales de música, arte y gastronomía. Partidos de fútbol de la Premier League. Celebraciones de Pascua (si el viaje coincide).
-**III. Desglose de presupuesto (Ajustado)**
-Dado el presupuesto inicial de 18 millones COP y el costo estimado de 18,750,000 COP, se proponen los siguientes ajustes:
-*   **Opción 1: Reducción de la duración del viaje (Ajuste Principal)**
-    *   Reducir la duración a 4 días en lugar de 5. Esto impacta directamente los costos de alojamiento y alimentación.
-*   **Opción 2: Alojamiento más económico (Ajuste Complementario)**
-    *   Buscar opciones de alojamiento fuera de las zonas más céntricas (ej. barrios como Shoreditch, Camden Town).
-    *   Considerar hostales con habitaciones privadas o apartamentos tipo Airbnb.
-**Presupuesto Ajustado (Estimado para 4 días):**
-*   **Tiquetes aéreos (ida y vuelta):** 6,000,000 COP (aproximado)
-*   **Alojamiento (4 noches):** 4,000,000 COP (aproximado, buscando opciones más económicas)
-*   **Alimentación (4 días):** 2,000,000 COP (aproximado, equilibrando restaurantes y opciones más económicas)
-*   **Transporte local (Oyster card):** 500,000 COP (aproximado)
-*   **Entradas a atracciones y partido de fútbol:** 4,000,000 COP (aproximado)
-*   **Seguro de viaje:** 500,000 COP (aproximado)
-*   **Imprevistos:** 1,000,000 COP
-*   **Total:** 18,000,000 COP
-**IV. Itinerario diario (Ajustado a 4 días)**
-**Día 1: Llegada a Londres y Clásicos Imperdibles**
-*   **Mañana (9:00 AM):** Llegada al aeropuerto de Heathrow (LHR) o Gatwick (LGW). Traslado al hotel y check-in.
-    *   *Tipo de experiencia:* Logística, adaptación.
-    *   *Ubicación:* Aeropuerto, hotel.
-*   **Tarde (1:00 PM):** Visita al Palacio de Buckingham y ceremonia del cambio de guardia (consultar horarios).
-    *   *Tipo de experiencia:* Cultural, histórica.
-    *   *Ubicación:* Palacio de Buckingham.
-*   **Noche (6:00 PM):** Cena en un pub tradicional inglés.
-    *   *Tipo de experiencia:* Gastronómica, cultural.
-    *   *Ubicación:* Pub en Westminster o alrededores.
-**Día 2: Iconos de Londres y Ambiente Futbolero**
-*   **Mañana (9:00 AM):** Visita al Big Ben y las Casas del Parlamento. Paseo por el Puente de Westminster.
-    *   *Tipo de experiencia:* Cultural, histórica.
-    *   *Ubicación:* Westminster.
-*   **Tarde (1:00 PM):** Subida al London Eye para vistas panorámicas de la ciudad.
-    *   *Tipo de experiencia:* Turística, visual.
-    *   *Ubicación:* London Eye.
-*   **Noche (6:00 PM):** Tour por un estadio de fútbol (ej. Stamford Bridge, Emirates Stadium) o asistir a un partido (si coincide con la programación).
-    *   *Tipo de experiencia:* Futbolística, cultural.
-    *   *Ubicación:* Estadio de fútbol.
-**Día 3: Liverpool - La Cuna del Fútbol y los Beatles**
-*   **Mañana (7:00 AM):** Viaje en tren a Liverpool (aproximadamente 2-3 horas).
-    *   *Tipo de experiencia:* Logística, traslado.
-    *   *Ubicación:* Estación de tren.
-*   **Tarde (10:00 AM):** Visita al estadio de Anfield, hogar del Liverpool FC. Tour y museo.
-    *   *Tipo de experiencia:* Futbolística, histórica.
-    *   *Ubicación:* Anfield, Liverpool.
-*   **Noche (2:00 PM):** The Beatles Story, museo dedicado a la banda más famosa de Liverpool.
-    *   *Tipo de experiencia:* Cultural, musical.
-    *   *Ubicación:* The Beatles Story, Liverpool.
-**Día 4: Museos y Regreso a Casa**
-*   **Mañana (9:00 AM):** Visita al Museo Británico (entrada gratuita) o la Galería Nacional.
-    *   *Tipo de experiencia:* Cultural, artística.
-    *   *Ubicación:* Museo Británico o Galería Nacional.
-*   **Tarde (1:00 PM):** Compras de souvenirs en Covent Garden o Oxford Street.
-    *   *Tipo de experiencia:* Compras, turística.
-    *   *Ubicación:* Covent Garden o Oxford Street.
-*   **Noche (6:00 PM):** Traslado al aeropuerto para el vuelo de regreso a Colombia.
-    *   *Tipo de experiencia:* Logística, despedida.
-    *   *Ubicación:* Aeropuerto.
-**V. Toques finales**
-*   **Consejos exclusivos:**
-    *   Para una pareja, considerar un paseo romántico por el Támesis en barco.
-    *   Si son fanáticos del fútbol, investigar la posibilidad de asistir a un partido de la Premier League (reservar con mucha anticipación).
-    *   Aprovechar los parques de Londres (ej. Hyde Park, Regent's Park) para momentos de relax.
-*   **Recomendaciones:**
-    *   Reservar vuelos y alojamiento con la mayor antelación posible para obtener mejores precios.
-    *   Adquirir una Oyster card para el transporte público en Londres (metro, autobús).
-    *   Consultar los horarios de apertura y cierre de las atracciones turísticas.
-    *   Descargar aplicaciones de transporte público y mapas offline para facilitar la movilidad.
-    *   Llevar ropa adecuada para el clima variable (paraguas, chaqueta).
-¡Espero que este itinerario detallado les ayude a planificar un viaje inolvidable a Londres!</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-04-06 15:56:52</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
+    *   Prueba de solvencia económica: Extractos bancarios, tarjetas de crédito, etc.
+*   **Visa, Vacunas y Otros Permisos:**
+    *   Visa de turista del Reino Unido: Solicitarla a través del sitio web oficial del gobierno británico.
+    *   Vacunas: No se requieren vacunas obligatorias para ingresar al Reino Unido desde Colombia, pero se recomienda tener al día las vacunas de rutina.
+    *   Permisos: Ninguno adicional específico para este tipo de viaje.
+**II. Resumen del Destino**
+*   **Clima en Primavera (Marzo-Mayo):**
+    *   Temperaturas: Oscilan entre 8°C y 18°C.
+    *   Precipitaciones: Moderadas, con posibilidad de lluvias ocasionales.
+    *   Días soleados: Aumentan gradualmente a medida que avanza la primavera.
+*   **Temporada y Eventos Especiales:**
+    *   Temporada alta: La primavera es una temporada popular para visitar Londres, por lo que es recomendable reservar con anticipación.
+    *   Eventos:
+        *   Maratón de Londres (abril).
+        *   Chelsea Flower Show (mayo).
+        *   Festivales de música y arte al aire libre.
+        *   Partidos de fútbol de la Premier League.
+**III. Desglose de Presupuesto (Ajustado)**
+Dado el presupuesto de 18 millones de COP para una pareja, se propone un viaje de 4 días optimizado:
+*   **Transporte (Tiquetes Aéreos):** 6,000,000 COP (aproximadamente, dependiendo de la anticipación de la compra y la aerolínea).
+*   **Alojamiento (4 noches):** 4,000,000 COP (hotel económico o Airbnb bien ubicado).
+*   **Alimentación:** 2,000,000 COP (comidas en restaurantes económicos, mercados de comida, supermercados).
+*   **Actividades y Entradas:** 3,000,000 COP (entradas a atracciones, tours, partidos de fútbol).
+*   **Transporte Local (Oyster Card):** 1,000,000 COP (metro, autobuses).
+*   **Imprevistos:** 1,000,000 COP.
+**Total Estimado:** 17,000,000 COP
+**Ajustes:**
+*   **Alojamiento:** Considerar hostales con habitaciones privadas o Airbnb fuera del centro para ahorrar.
+*   **Alimentación:** Cocinar algunas comidas en el alojamiento o aprovechar los mercados de comida callejera.
+*   **Actividades:** Priorizar atracciones gratuitas (museos, parques) y buscar descuentos en línea.
+**IV. Itinerario Diario**
+**Día 1: Clásicos de Londres**
+*   **Mañana (9:00 AM):**
+    *   Actividad: Visita al Palacio de Buckingham y ceremonia del cambio de guardia (si coincide con el horario).
+    *   Experiencia: Cultural, histórica.
+    *   Ubicación: Palacio de Buckingham.
+*   **Tarde (1:00 PM):**
+    *   Actividad: Recorrido por el Big Ben y las Casas del Parlamento.
+    *   Experiencia: Cultural, arquitectónica.
+    *   Ubicación: Westminster.
+*   **Noche (6:00 PM):**
+    *   Actividad: Paseo por el London Eye al atardecer.
+    *   Experiencia: Panorámica, romántica.
+    *   Ubicación: South Bank.
+**Día 2: Cultura y Mercados**
+*   **Mañana (10:00 AM):**
+    *   Actividad: Visita al Museo Británico.
+    *   Experiencia: Cultural, histórica.
+    *   Ubicación: Bloomsbury.
+*   **Tarde (2:00 PM):**
+    *   Actividad: Exploración del mercado de Camden Town.
+    *   Experiencia: Gastronómica, compras.
+    *   Ubicación: Camden Town.
+*   **Noche (7:00 PM):**
+    *   Actividad: Cena en un pub tradicional inglés en Camden.
+    *   Experiencia: Gastronómica, cultural.
+    *   Ubicación: Camden Town.
+**Día 3: Fútbol en Liverpool**
+*   **Mañana (8:00 AM):**
+    *   Actividad: Viaje en tren a Liverpool (aproximadamente 2.5 horas).
+    *   Experiencia: Cultural, deportiva.
+    *   Ubicación: Estación de tren de Euston (Londres) a Estación de tren de Liverpool Lime Street.
+*   **Tarde (11:00 AM):**
+    *   Actividad: Tour por Anfield, el estadio del Liverpool FC.
+    *   Experiencia: Deportiva, histórica.
+    *   Ubicación: Anfield, Liverpool.
+*   **Noche (3:00 PM):**
+    *   Actividad: Regreso a Londres en tren.
+    *   Experiencia: Cultural, deportiva.
+    *   Ubicación: Estación de tren de Liverpool Lime Street a Estación de tren de Euston (Londres).
+**Día 4: Parques y Despedida**
+*   **Mañana (10:00 AM):**
+    *   Actividad: Paseo por Hyde Park y Kensington Gardens.
+    *   Experiencia: Relajación, naturaleza.
+    *   Ubicación: Hyde Park, Kensington Gardens.
+*   **Tarde (2:00 PM):**
+    *   Actividad: Visita a la Abadía de Westminster.
+    *   Experiencia: Cultural, histórica.
+    *   Ubicación: Westminster.
+*   **Noche (6:00 PM):**
+    *   Actividad: Cena de despedida en un restaurante con vistas a la ciudad.
+    *   Experiencia: Gastronómica, romántica.
+    *   Ubicación: The Shard o similar.
+**V. Toques Finales**
+*   **Consejos Exclusivos:**
+    *   Para los amantes del fútbol, intentar conseguir entradas para un partido de la Premier League con anticipación (¡es difícil!).
+    *   Aprovechar los museos gratuitos de Londres (National Gallery, Tate Modern, etc.).
+    *   Explorar los barrios menos turísticos como Shoreditch o Notting Hill.
+*   **Reservas Anticipadas y Transporte:**
+    *   Reservar vuelos y alojamiento con la mayor anticipación posible para obtener mejores precios.
+    *   Comprar una Oyster Card para el transporte público en Londres (metro, autobuses).
+    *   Reservar tours y actividades en línea para evitar colas.
+¡Espero que este itinerario optimizado y lleno de emoción haga que su viaje a Londres sea inolvidable!</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-04-06 16:42:49</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Integración Alianzas Davivienda</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>System: Usted es DaviTravel: siempre responde en español, en tercera persona, sin tutear, con entusiasmo y cercanía al usuario.
 Human: Toma este itinerario:
-¡Absolutamente! Aquí tienes un plan de viaje detallado a Londres, diseñado para DaviTravel, considerando sus preferencias y presupuesto, con los ajustes necesarios:
-**I. Documentos y requisitos**
-*   **Documentos imprescindibles:**
-    *   Pasaporte: Con una validez mínima de 6 meses a partir de la fecha de regreso.
+¡Absolutamente! Aquí tienes un itinerario diseñado para DaviTravel, considerando sus preferencias y presupuesto, con un enfoque en la optimización para una experiencia inolvidable en Londres:
+**I. Documentos y Requisitos**
+*   **Documentos Imprescindibles:**
+    *   Pasaporte: Con una validez mínima de 6 meses después de la fecha de regreso prevista.
+    *   Visa: Los ciudadanos colombianos necesitan una visa para ingresar al Reino Unido. Se recomienda solicitarla con suficiente antelación.
     *   Tiquetes aéreos: Ida y vuelta.
-    *   Comprobante de alojamiento: Reservas de hotel o similar.
+    *   Comprobante de alojamiento: Reservas de hotel o carta de invitación si se hospeda con alguien.
     *   Seguro de viaje: Con cobertura médica internacional.
-*   **Visa:**
-    *   Los ciudadanos colombianos requieren visa para ingresar al Reino Unido. Se recomienda iniciar el trámite con suficiente antelación (al menos 2-3 meses antes del viaje).
-*   **Vacunas:**
-    *   No se exigen vacunas obligatorias para ingresar al Reino Unido desde Colombia. Sin embargo, es recomendable tener al día el esquema de vacunación general.
-**II. Resumen del destino**
-*   **Clima en primavera (marzo-mayo):**
-    *   Templado y variable. Temperaturas promedio entre 8°C y 15°C. Posibilidad de lluvias.
-*   **Temporada:**
-    *   Temporada alta (especialmente en abril y mayo). Mayor afluencia de turistas y precios más elevados.
-*   **Eventos especiales:**
-    *   Festivales de música, arte y gastronomía. Partidos de fútbol de la Premier League. Celebraciones de Pascua (si el viaje coincide).
-**III. Desglose de presupuesto (Ajustado)**
-Dado el presupuesto inicial de 18 millones COP y el costo estimado de 18,750,000 COP, se proponen los siguientes ajustes:
-*   **Opción 1: Reducción de la duración del viaje (Ajuste Principal)**
-    *   Reducir la duración a 4 días en lugar de 5. Esto impacta directamente los costos de alojamiento y alimentación.
-*   **Opción 2: Alojamiento más económico (Ajuste Complementario)**
-    *   Buscar opciones de alojamiento fuera de las zonas más céntricas (ej. barrios como Shoreditch, Camden Town).
-    *   Considerar hostales con habitaciones privadas o apartamentos tipo Airbnb.
-**Presupuesto Ajustado (Estimado para 4 días):**
-*   **Tiquetes aéreos (ida y vuelta):** 6,000,000 COP (aproximado)
-*   **Alojamiento (4 noches):** 4,000,000 COP (aproximado, buscando opciones más económicas)
-*   **Alimentación (4 días):** 2,000,000 COP (aproximado, equilibrando restaurantes y opciones más económicas)
-*   **Transporte local (Oyster card):** 500,000 COP (aproximado)
-*   **Entradas a atracciones y partido de fútbol:** 4,000,000 COP (aproximado)
-*   **Seguro de viaje:** 500,000 COP (aproximado)
-*   **Imprevistos:** 1,000,000 COP
-*   **Total:** 18,000,000 COP
-**IV. Itinerario diario (Ajustado a 4 días)**
-**Día 1: Llegada a Londres y Clásicos Imperdibles**
-*   **Mañana (9:00 AM):** Llegada al aeropuerto de Heathrow (LHR) o Gatwick (LGW). Traslado al hotel y check-in.
-    *   *Tipo de experiencia:* Logística, adaptación.
-    *   *Ubicación:* Aeropuerto, hotel.
-*   **Tarde (1:00 PM):** Visita al Palacio de Buckingham y ceremonia del cambio de guardia (consultar horarios).
-    *   *Tipo de experiencia:* Cultural, histórica.
-    *   *Ubicación:* Palacio de Buckingham.
-*   **Noche (6:00 PM):** Cena en un pub tradicional inglés.
-    *   *Tipo de experiencia:* Gastronómica, cultural.
-    *   *Ubicación:* Pub en Westminster o alrededores.
-**Día 2: Iconos de Londres y Ambiente Futbolero**
-*   **Mañana (9:00 AM):** Visita al Big Ben y las Casas del Parlamento. Paseo por el Puente de Westminster.
-    *   *Tipo de experiencia:* Cultural, histórica.
-    *   *Ubicación:* Westminster.
-*   **Tarde (1:00 PM):** Subida al London Eye para vistas panorámicas de la ciudad.
-    *   *Tipo de experiencia:* Turística, visual.
-    *   *Ubicación:* London Eye.
-*   **Noche (6:00 PM):** Tour por un estadio de fútbol (ej. Stamford Bridge, Emirates Stadium) o asistir a un partido (si coincide con la programación).
-    *   *Tipo de experiencia:* Futbolística, cultural.
-    *   *Ubicación:* Estadio de fútbol.
-**Día 3: Liverpool - La Cuna del Fútbol y los Beatles**
-*   **Mañana (7:00 AM):** Viaje en tren a Liverpool (aproximadamente 2-3 horas).
-    *   *Tipo de experiencia:* Logística, traslado.
-    *   *Ubicación:* Estación de tren.
-*   **Tarde (10:00 AM):** Visita al estadio de Anfield, hogar del Liverpool FC. Tour y museo.
-    *   *Tipo de experiencia:* Futbolística, histórica.
-    *   *Ubicación:* Anfield, Liverpool.
-*   **Noche (2:00 PM):** The Beatles Story, museo dedicado a la banda más famosa de Liverpool.
-    *   *Tipo de experiencia:* Cultural, musical.
-    *   *Ubicación:* The Beatles Story, Liverpool.
-**Día 4: Museos y Regreso a Casa**
-*   **Mañana (9:00 AM):** Visita al Museo Británico (entrada gratuita) o la Galería Nacional.
-    *   *Tipo de experiencia:* Cultural, artística.
-    *   *Ubicación:* Museo Británico o Galería Nacional.
-*   **Tarde (1:00 PM):** Compras de souvenirs en Covent Garden o Oxford Street.
-    *   *Tipo de experiencia:* Compras, turística.
-    *   *Ubicación:* Covent Garden o Oxford Street.
-*   **Noche (6:00 PM):** Traslado al aeropuerto para el vuelo de regreso a Colombia.
-    *   *Tipo de experiencia:* Logística, despedida.
-    *   *Ubicación:* Aeropuerto.
-**V. Toques finales**
-*   **Consejos exclusivos:**
-    *   Para una pareja, considerar un paseo romántico por el Támesis en barco.
-    *   Si son fanáticos del fútbol, investigar la posibilidad de asistir a un partido de la Premier League (reservar con mucha anticipación).
-    *   Aprovechar los parques de Londres (ej. Hyde Park, Regent's Park) para momentos de relax.
-*   **Recomendaciones:**
-    *   Reservar vuelos y alojamiento con la mayor antelación posible para obtener mejores precios.
-    *   Adquirir una Oyster card para el transporte público en Londres (metro, autobús).
-    *   Consultar los horarios de apertura y cierre de las atracciones turísticas.
-    *   Descargar aplicaciones de transporte público y mapas offline para facilitar la movilidad.
-    *   Llevar ropa adecuada para el clima variable (paraguas, chaqueta).
-¡Espero que este itinerario detallado les ayude a planificar un viaje inolvidable a Londres!
+    *   Prueba de solvencia económica: Extractos bancarios, tarjetas de crédito, etc.
+*   **Visa, Vacunas y Otros Permisos:**
+    *   Visa de turista del Reino Unido: Solicitarla a través del sitio web oficial del gobierno británico.
+    *   Vacunas: No se requieren vacunas obligatorias para ingresar al Reino Unido desde Colombia, pero se recomienda tener al día las vacunas de rutina.
+    *   Permisos: Ninguno adicional específico para este tipo de viaje.
+**II. Resumen del Destino**
+*   **Clima en Primavera (Marzo-Mayo):**
+    *   Temperaturas: Oscilan entre 8°C y 18°C.
+    *   Precipitaciones: Moderadas, con posibilidad de lluvias ocasionales.
+    *   Días soleados: Aumentan gradualmente a medida que avanza la primavera.
+*   **Temporada y Eventos Especiales:**
+    *   Temporada alta: La primavera es una temporada popular para visitar Londres, por lo que es recomendable reservar con anticipación.
+    *   Eventos:
+        *   Maratón de Londres (abril).
+        *   Chelsea Flower Show (mayo).
+        *   Festivales de música y arte al aire libre.
+        *   Partidos de fútbol de la Premier League.
+**III. Desglose de Presupuesto (Ajustado)**
+Dado el presupuesto de 18 millones de COP para una pareja, se propone un viaje de 4 días optimizado:
+*   **Transporte (Tiquetes Aéreos):** 6,000,000 COP (aproximadamente, dependiendo de la anticipación de la compra y la aerolínea).
+*   **Alojamiento (4 noches):** 4,000,000 COP (hotel económico o Airbnb bien ubicado).
+*   **Alimentación:** 2,000,000 COP (comidas en restaurantes económicos, mercados de comida, supermercados).
+*   **Actividades y Entradas:** 3,000,000 COP (entradas a atracciones, tours, partidos de fútbol).
+*   **Transporte Local (Oyster Card):** 1,000,000 COP (metro, autobuses).
+*   **Imprevistos:** 1,000,000 COP.
+**Total Estimado:** 17,000,000 COP
+**Ajustes:**
+*   **Alojamiento:** Considerar hostales con habitaciones privadas o Airbnb fuera del centro para ahorrar.
+*   **Alimentación:** Cocinar algunas comidas en el alojamiento o aprovechar los mercados de comida callejera.
+*   **Actividades:** Priorizar atracciones gratuitas (museos, parques) y buscar descuentos en línea.
+**IV. Itinerario Diario**
+**Día 1: Clásicos de Londres**
+*   **Mañana (9:00 AM):**
+    *   Actividad: Visita al Palacio de Buckingham y ceremonia del cambio de guardia (si coincide con el horario).
+    *   Experiencia: Cultural, histórica.
+    *   Ubicación: Palacio de Buckingham.
+*   **Tarde (1:00 PM):**
+    *   Actividad: Recorrido por el Big Ben y las Casas del Parlamento.
+    *   Experiencia: Cultural, arquitectónica.
+    *   Ubicación: Westminster.
+*   **Noche (6:00 PM):**
+    *   Actividad: Paseo por el London Eye al atardecer.
+    *   Experiencia: Panorámica, romántica.
+    *   Ubicación: South Bank.
+**Día 2: Cultura y Mercados**
+*   **Mañana (10:00 AM):**
+    *   Actividad: Visita al Museo Británico.
+    *   Experiencia: Cultural, histórica.
+    *   Ubicación: Bloomsbury.
+*   **Tarde (2:00 PM):**
+    *   Actividad: Exploración del mercado de Camden Town.
+    *   Experiencia: Gastronómica, compras.
+    *   Ubicación: Camden Town.
+*   **Noche (7:00 PM):**
+    *   Actividad: Cena en un pub tradicional inglés en Camden.
+    *   Experiencia: Gastronómica, cultural.
+    *   Ubicación: Camden Town.
+**Día 3: Fútbol en Liverpool**
+*   **Mañana (8:00 AM):**
+    *   Actividad: Viaje en tren a Liverpool (aproximadamente 2.5 horas).
+    *   Experiencia: Cultural, deportiva.
+    *   Ubicación: Estación de tren de Euston (Londres) a Estación de tren de Liverpool Lime Street.
+*   **Tarde (11:00 AM):**
+    *   Actividad: Tour por Anfield, el estadio del Liverpool FC.
+    *   Experiencia: Deportiva, histórica.
+    *   Ubicación: Anfield, Liverpool.
+*   **Noche (3:00 PM):**
+    *   Actividad: Regreso a Londres en tren.
+    *   Experiencia: Cultural, deportiva.
+    *   Ubicación: Estación de tren de Liverpool Lime Street a Estación de tren de Euston (Londres).
+**Día 4: Parques y Despedida**
+*   **Mañana (10:00 AM):**
+    *   Actividad: Paseo por Hyde Park y Kensington Gardens.
+    *   Experiencia: Relajación, naturaleza.
+    *   Ubicación: Hyde Park, Kensington Gardens.
+*   **Tarde (2:00 PM):**
+    *   Actividad: Visita a la Abadía de Westminster.
+    *   Experiencia: Cultural, histórica.
+    *   Ubicación: Westminster.
+*   **Noche (6:00 PM):**
+    *   Actividad: Cena de despedida en un restaurante con vistas a la ciudad.
+    *   Experiencia: Gastronómica, romántica.
+    *   Ubicación: The Shard o similar.
+**V. Toques Finales**
+*   **Consejos Exclusivos:**
+    *   Para los amantes del fútbol, intentar conseguir entradas para un partido de la Premier League con anticipación (¡es difícil!).
+    *   Aprovechar los museos gratuitos de Londres (National Gallery, Tate Modern, etc.).
+    *   Explorar los barrios menos turísticos como Shoreditch o Notting Hill.
+*   **Reservas Anticipadas y Transporte:**
+    *   Reservar vuelos y alojamiento con la mayor anticipación posible para obtener mejores precios.
+    *   Comprar una Oyster Card para el transporte público en Londres (metro, autobuses).
+    *   Reservar tours y actividades en línea para evitar colas.
+¡Espero que este itinerario optimizado y lleno de emoción haga que su viaje a Londres sea inolvidable!
 Y estas alianzas activas de Davivienda en hotelería y turismo:
 - **TÃ­tulo de producto**: SubtÃ­tulo de producto. Beneficio: Millas Acumule. Aplica para: . [INSCRÃBASE AQUÃ]({{ URL_FRONT }}producto/{{ product.seo_url }})
-Devuelve exactamente el mismo itinerario, pero **inserta** en cada sección recomendaciones concretas de productos Davivienda (tarjetas, 0% interés, descuentos) para que el usuario aproveche al máximo las alianzas: desde la compra de tiquetes, reservas de alojamiento, actividades y compras locales. Mantén la estructura original y agrega en cada punto la sugerencia correspondiente.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>¡Por supuesto! DaviTravel ha revisado el itinerario y lo ha enriquecido con recomendaciones de productos Davivienda para que el viajero aproveche al máximo sus alianzas y beneficios. ¡Aquí está el itinerario actualizado!
-**I. Documentos y requisitos**
-*   **Documentos imprescindibles:**
-    *   Pasaporte: Con una validez mínima de 6 meses a partir de la fecha de regreso.
+Devuelve exactamente el mismo itinerario, pero **inserta** en cada sección recomendaciones concretas de productos Davivienda (tarjetas, 0% interés, descuentos) para que el usuario aproveche al máximo las alianzas: desde la compra de tiquetes, reservas de alojamiento, actividades y compras locales. Mantén la estructura original y agrega en cada punto la sugerencia correspondiente. Responde en español</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>¡DaviTravel está aquí para hacer de este viaje a Londres una experiencia inolvidable y llena de beneficios! Se ha tomado el itinerario y se ha optimizado con recomendaciones de productos Davivienda para que la pareja aproveche al máximo sus alianzas y ahorre en cada paso. ¡A viajar se ha dicho!
+**I. Documentos y Requisitos**
+*   **Documentos Imprescindibles:**
+    *   Pasaporte: Con una validez mínima de 6 meses después de la fecha de regreso prevista.
+    *   Visa: Los ciudadanos colombianos necesitan una visa para ingresar al Reino Unido. Se recomienda solicitarla con suficiente antelación.
     *   Tiquetes aéreos: Ida y vuelta.
-        *   **Recomendación DaviTravel:** ¡Use su Tarjeta de Crédito Davivienda para comprar los tiquetes y acumule millas! Consulte las opciones de financiamiento a 0% de interés para viajes.
-    *   Comprobante de alojamiento: Reservas de hotel o similar.
-        *   **Recomendación DaviTravel:** ¡Aproveche las alianzas de Davivienda en hoteles! Consulte los descuentos especiales al pagar con su tarjeta Davivienda.
+        *   **Recomendación DaviTravel:** ¡Aproveche las tarjetas de crédito Davivienda para acumular millas con cada compra de tiquete! Así, el próximo viaje estará más cerca.
+    *   Comprobante de alojamiento: Reservas de hotel o carta de invitación si se hospeda con alguien.
+        *   **Recomendación DaviTravel:** ¡Consulte las alianzas de Davivienda con hoteles! Podría encontrar descuentos especiales o beneficios exclusivos al pagar con su tarjeta Davivienda.
     *   Seguro de viaje: Con cobertura médica internacional.
-        *   **Recomendación DaviTravel:** ¡Algunas tarjetas Davivienda ofrecen seguros de viaje como beneficio! Verifique si su tarjeta incluye esta cobertura.
-*   **Visa:**
-    *   Los ciudadanos colombianos requieren visa para ingresar al Reino Unido. Se recomienda iniciar el trámite con suficiente antelación (al menos 2-3 meses antes del viaje).
-*   **Vacunas:**
-    *   No se exigen vacunas obligatorias para ingresar al Reino Unido desde Colombia. Sin embargo, es recomendable tener al día el esquema de vacunación general.
-**II. Resumen del destino**
-*   **Clima en primavera (marzo-mayo):**
-    *   Templado y variable. Temperaturas promedio entre 8°C y 15°C. Posibilidad de lluvias.
-*   **Temporada:**
-    *   Temporada alta (especialmente en abril y mayo). Mayor afluencia de turistas y precios más elevados.
-*   **Eventos especiales:**
-    *   Festivales de música, arte y gastronomía. Partidos de fútbol de la Premier League. Celebraciones de Pascua (si el viaje coincide).
-**III. Desglose de presupuesto (Ajustado)**
-Dado el presupuesto inicial de 18 millones COP y el costo estimado de 18,750,000 COP, se proponen los siguientes ajustes:
-*   **Opción 1: Reducción de la duración del viaje (Ajuste Principal)**
-    *   Reducir la duración a 4 días en lugar de 5. Esto impacta directamente los costos de alojamiento y alimentación.
-*   **Opción 2: Alojamiento más económico (Ajuste Complementario)**
-    *   Buscar opciones de alojamiento fuera de las zonas más céntricas (ej. barrios como Shoreditch, Camden Town).
-    *   Considerar hostales con habitaciones privadas o apartamentos tipo Airbnb.
-**Presupuesto Ajustado (Estimado para 4 días):**
-*   **Tiquetes aéreos (ida y vuelta):** 6,000,000 COP (aproximado)
-    *   **Recomendación DaviTravel:** ¡Use su Tarjeta de Crédito Davivienda para comprar los tiquetes y acumule millas! Consulte las opciones de financiamiento a 0% de interés para viajes.
-*   **Alojamiento (4 noches):** 4,000,000 COP (aproximado, buscando opciones más económicas)
-    *   **Recomendación DaviTravel:** ¡Aproveche las alianzas de Davivienda en hoteles! Consulte los descuentos especiales al pagar con su tarjeta Davivienda.
-*   **Alimentación (4 días):** 2,000,000 COP (aproximado, equilibrando restaurantes y opciones más económicas)
-    *   **Recomendación DaviTravel:** ¡Use su Tarjeta Débito Davivienda para pagar en restaurantes y evitar comisiones por cambio de moneda!
-*   **Transporte local (Oyster card):** 500,000 COP (aproximado)
-    *   **Recomendación DaviTravel:** ¡Recargue su Oyster card con su Tarjeta Débito Davivienda y aproveche los beneficios de DaviPlata!
-*   **Entradas a atracciones y partido de fútbol:** 4,000,000 COP (aproximado)
-    *   **Recomendación DaviTravel:** ¡Consulte si Davivienda tiene alianzas con empresas de turismo o eventos deportivos para obtener descuentos!
-*   **Seguro de viaje:** 500,000 COP (aproximado)
-    *   **Recomendación DaviTravel:** ¡Algunas tarjetas Davivienda ofrecen seguros de viaje como beneficio! Verifique si su tarjeta incluye esta cobertura.
-*   **Imprevistos:** 1,000,000 COP
-    *   **Recomendación DaviTravel:** ¡Tenga a mano su Tarjeta de Crédito Davivienda para cualquier emergencia!
-*   **Total:** 18,000,000 COP
-**IV. Itinerario diario (Ajustado a 4 días)**
-**Día 1: Llegada a Londres y Clásicos Imperdibles**
-*   **Mañana (9:00 AM):** Llegada al aeropuerto de Heathrow (LHR) o Gatwick (LGW). Traslado al hotel y check-in.
-    *   *Tipo de experiencia:* Logística, adaptación.
-    *   *Ubicación:* Aeropuerto, hotel.
-    *   **Recomendación DaviTravel:** ¡Pague el traslado al hotel con su Tarjeta Débito Davivienda y evite cargos adicionales!
-*   **Tarde (1:00 PM):** Visita al Palacio de Buckingham y ceremonia del cambio de guardia (consultar horarios).
-    *   *Tipo de experiencia:* Cultural, histórica.
-    *   *Ubicación:* Palacio de Buckingham.
-*   **Noche (6:00 PM):** Cena en un pub tradicional inglés.
-    *   *Tipo de experiencia:* Gastronómica, cultural.
-    *   *Ubicación:* Pub en Westminster o alrededores.
-    *   **Recomendación DaviTravel:** ¡Use su Tarjeta Débito Davivienda para pagar la cena y disfrute de la gastronomía local!
-**Día 2: Iconos de Londres y Ambiente Futbolero**
-*   **Mañana (9:00 AM):** Visita al Big Ben y las Casas del Parlamento. Paseo por el Puente de Westminster.
-    *   *Tipo de experiencia:* Cultural, histórica.
-    *   *Ubicación:* Westminster.
-*   **Tarde (1:00 PM):** Subida al London Eye para vistas panorámicas de la ciudad.
-    *   *Tipo de experiencia:* Turística, visual.
-    *   *Ubicación:* London Eye.
-    *   **Recomendación DaviTravel:** ¡Consulte si Davivienda tiene alianzas con el London Eye para obtener descuentos en las entradas!
-*   **Noche (6:00 PM):** Tour por un estadio de fútbol (ej. Stamford Bridge, Emirates Stadium) o asistir a un partido (si coincide con la programación).
-    *   *Tipo de experiencia:* Futbolística, cultural.
-    *   *Ubicación:* Estadio de fútbol.
-    *   **Recomendación DaviTravel:** ¡Use su Tarjeta de Crédito Davivienda para comprar las entradas al tour o al partido y acumule millas!
-**Día 3: Liverpool - La Cuna del Fútbol y los Beatles**
-*   **Mañana (7:00 AM):** Viaje en tren a Liverpool (aproximadamente 2-3 horas).
-    *   *Tipo de experiencia:* Logística, traslado.
-    *   *Ubicación:* Estación de tren.
-    *   **Recomendación DaviTravel:** ¡Compre los tiquetes de tren con su Tarjeta Débito Davivienda y evite comisiones por cambio de moneda!
-*   **Tarde (10:00 AM):** Visita al estadio de Anfield, hogar del Liverpool FC. Tour y museo.
-    *   *Tipo de experiencia:* Futbolística, histórica.
-    *   *Ubicación:* Anfield, Liverpool.
-*   **Noche (2:00 PM):** The Beatles Story, museo dedicado a la banda más famosa de Liverpool.
-    *   *Tipo de experiencia:* Cultural, musical.
-    *   *Ubicación:* The Beatles Story, Liverpool.
-    *   **Recomendación DaviTravel:** ¡Use su Tarjeta de Crédito Davivienda para comprar las entradas al museo y acumule millas!
-**Día 4: Museos y Regreso a Casa**
-*   **Mañana (9:00 AM):** Visita al Museo Británico (entrada gratuita) o la Galería Nacional.
-    *   *Tipo de experiencia:* Cultural, artística.
-    *   *Ubicación:* Museo Británico o Galería Nacional.
-*   **Tarde (1:00 PM):** Compras de souvenirs en Covent Garden o Oxford Street.
-    *   *Tipo de experiencia:* Compras, turística.
-    *   *Ubicación:* Covent Garden o Oxford Street.
-    *   **Recomendación DaviTravel:** ¡Use su Tarjeta de Crédito Davivienda para comprar souvenirs y acumule millas! Consulte las opciones de pago a cuotas sin interés.
-*   **Noche (6:00 PM):** Traslado al aeropuerto para el vuelo de regreso a Colombia.
-    *   *Tipo de experiencia:* Logística, despedida.
-    *   *Ubicación:* Aeropuerto.
-    *   **Recomendación DaviTravel:** ¡Pague el traslado al aeropuerto con su Tarjeta Débito Davivienda y evite cargos adicionales!
-**V. Toques finales**
-*   **Consejos exclusivos:**
-    *   Para una pareja, considerar un paseo romántico por el Támesis en barco.
-    *   Si son fanáticos del fútbol, investigar la posibilidad de asistir a un partido de la Premier League (reservar con mucha anticipación).
-    *   Aprovechar los parques de Londres (ej. Hyde Park, Regent's Park) para momentos de relax.
-*   **Recomendaciones:**
-    *   Reservar vuelos y alojamiento con la mayor antelación posible para obtener mejores precios.
-    *   Adquirir una Oyster card para el transporte público en Londres (metro, autobús).
-    *   Consultar los horarios de apertura y cierre de las atracciones turísticas.
-    *   Descargar aplicaciones de transporte público y mapas offline para facilitar la movilidad.
-    *   Llevar ropa adecuada para el clima variable (paraguas, chaqueta).
-    *   **Recomendación DaviTravel:** ¡No olvide activar las notificaciones de su Tarjeta Davivienda para estar al tanto de sus gastos y movimientos!
-¡DaviTravel espera que este itinerario detallado y con recomendaciones Davivienda les ayude a planificar un viaje inolvidable a Londres! ¡Que disfruten mucho!</t>
+        *   **Recomendación DaviTravel:** ¡Algunas tarjetas Davivienda ofrecen seguros de viaje como beneficio! Revise las condiciones de su tarjeta para ver si aplica.
+    *   Prueba de solvencia económica: Extractos bancarios, tarjetas de crédito, etc.
+*   **Visa, Vacunas y Otros Permisos:**
+    *   Visa de turista del Reino Unido: Solicitarla a través del sitio web oficial del gobierno británico.
+        *   **Recomendación DaviTravel:** ¡Pague la solicitud de la visa con su tarjeta Davivienda y acumule puntos o millas!
+    *   Vacunas: No se requieren vacunas obligatorias para ingresar al Reino Unido desde Colombia, pero se recomienda tener al día las vacunas de rutina.
+    *   Permisos: Ninguno adicional específico para este tipo de viaje.
+**II. Resumen del Destino**
+*   **Clima en Primavera (Marzo-Mayo):**
+    *   Temperaturas: Oscilan entre 8°C y 18°C.
+    *   Precipitaciones: Moderadas, con posibilidad de lluvias ocasionales.
+    *   Días soleados: Aumentan gradualmente a medida que avanza la primavera.
+*   **Temporada y Eventos Especiales:**
+    *   Temporada alta: La primavera es una temporada popular para visitar Londres, por lo que es recomendable reservar con anticipación.
+    *   Eventos:
+        *   Maratón de Londres (abril).
+        *   Chelsea Flower Show (mayo).
+        *   Festivales de música y arte al aire libre.
+            *   **Recomendación DaviTravel:** ¡Esté atento a los descuentos especiales que Davivienda pueda tener en eventos culturales!
+        *   Partidos de fútbol de la Premier League.
+**III. Desglose de Presupuesto (Ajustado)**
+Dado el presupuesto de 18 millones de COP para una pareja, se propone un viaje de 4 días optimizado:
+*   **Transporte (Tiquetes Aéreos):** 6,000,000 COP (aproximadamente, dependiendo de la anticipación de la compra y la aerolínea).
+    *   **Recomendación DaviTravel:** ¡Utilice su tarjeta de crédito Davivienda para diferir la compra de los tiquetes a 0% de interés! Consulte las opciones disponibles.
+*   **Alojamiento (4 noches):** 4,000,000 COP (hotel económico o Airbnb bien ubicado).
+    *   **Recomendación DaviTravel:** ¡Busque hoteles con alianzas Davivienda para obtener descuentos o beneficios adicionales!
+*   **Alimentación:** 2,000,000 COP (comidas en restaurantes económicos, mercados de comida, supermercados).
+    *   **Recomendación DaviTravel:** ¡Muchos restaurantes ofrecen descuentos al pagar con tarjetas Davivienda! ¡Pregunte antes de ordenar!
+*   **Actividades y Entradas:** 3,000,000 COP (entradas a atracciones, tours, partidos de fútbol).
+    *   **Recomendación DaviTravel:** ¡Revise si Davivienda tiene alianzas con empresas de tours o atracciones en Londres!
+*   **Transporte Local (Oyster Card):** 1,000,000 COP (metro, autobuses).
+    *   **Recomendación DaviTravel:** ¡Aunque no haya descuentos directos en la Oyster Card, use su tarjeta Davivienda para recargarla y acumular puntos o millas!
+*   **Imprevistos:** 1,000,000 COP.
+**Total Estimado:** 17,000,000 COP
+**Ajustes:**
+*   **Alojamiento:** Considerar hostales con habitaciones privadas o Airbnb fuera del centro para ahorrar.
+*   **Alimentación:** Cocinar algunas comidas en el alojamiento o aprovechar los mercados de comida callejera.
+*   **Actividades:** Priorizar atracciones gratuitas (museos, parques) y buscar descuentos en línea.
+**IV. Itinerario Diario**
+**Día 1: Clásicos de Londres**
+*   **Mañana (9:00 AM):**
+    *   Actividad: Visita al Palacio de Buckingham y ceremonia del cambio de guardia (si coincide con el horario).
+    *   Experiencia: Cultural, histórica.
+    *   Ubicación: Palacio de Buckingham.
+*   **Tarde (1:00 PM):**
+    *   Actividad: Recorrido por el Big Ben y las Casas del Parlamento.
+    *   Experiencia: Cultural, arquitectónica.
+    *   Ubicación: Westminster.
+*   **Noche (6:00 PM):**
+    *   Actividad: Paseo por el London Eye al atardecer.
+    *   Experiencia: Panorámica, romántica.
+    *   Ubicación: South Bank.
+        *   **Recomendación DaviTravel:** ¡Compre los tiquetes para el London Eye en línea con su tarjeta Davivienda y acumule puntos!
+**Día 2: Cultura y Mercados**
+*   **Mañana (10:00 AM):**
+    *   Actividad: Visita al Museo Británico.
+    *   Experiencia: Cultural, histórica.
+    *   Ubicación: Bloomsbury.
+*   **Tarde (2:00 PM):**
+    *   Actividad: Exploración del mercado de Camden Town.
+    *   Experiencia: Gastronómica, compras.
+    *   Ubicación: Camden Town.
+        *   **Recomendación DaviTravel:** ¡Disfrute de la gastronomía en Camden Town y pague con su tarjeta Davivienda! ¡Muchos puestos de comida aceptan tarjetas!
+*   **Noche (7:00 PM):**
+    *   Actividad: Cena en un pub tradicional inglés en Camden.
+    *   Experiencia: Gastronómica, cultural.
+    *   Ubicación: Camden Town.
+**Día 3: Fútbol en Liverpool**
+*   **Mañana (8:00 AM):**
+    *   Actividad: Viaje en tren a Liverpool (aproximadamente 2.5 horas).
+    *   Experiencia: Cultural, deportiva.
+    *   Ubicación: Estación de tren de Euston (Londres) a Estación de tren de Liverpool Lime Street.
+        *   **Recomendación DaviTravel:** ¡Compre los tiquetes de tren con anticipación en línea y pague con su tarjeta Davivienda!
+*   **Tarde (11:00 AM):**
+    *   Actividad: Tour por Anfield, el estadio del Liverpool FC.
+    *   Experiencia: Deportiva, histórica.
+    *   Ubicación: Anfield, Liverpool.
+        *   **Recomendación DaviTravel:** ¡Si es posible, compre los tiquetes del tour por Anfield en línea y pague con su tarjeta Davivienda!
+*   **Noche (3:00 PM):**
+    *   Actividad: Regreso a Londres en tren.
+    *   Experiencia: Cultural, deportiva.
+    *   Ubicación: Estación de tren de Liverpool Lime Street a Estación de tren de Euston (Londres).
+**Día 4: Parques y Despedida**
+*   **Mañana (10:00 AM):**
+    *   Actividad: Paseo por Hyde Park y Kensington Gardens.
+    *   Experiencia: Relajación, naturaleza.
+    *   Ubicación: Hyde Park, Kensington Gardens.
+*   **Tarde (2:00 PM):**
+    *   Actividad: Visita a la Abadía de Westminster.
+    *   Experiencia: Cultural, histórica.
+    *   Ubicación: Westminster.
+*   **Noche (6:00 PM):**
+    *   Actividad: Cena de despedida en un restaurante con vistas a la ciudad.
+    *   Experiencia: Gastronómica, romántica.
+    *   Ubicación: The Shard o similar.
+        *   **Recomendación DaviTravel:** ¡Reserve la cena con anticipación y pregunte si tienen descuentos al pagar con tarjetas Davivienda!
+**V. Toques Finales**
+*   **Consejos Exclusivos:**
+    *   Para los amantes del fútbol, intentar conseguir entradas para un partido de la Premier League con anticipación (¡es difícil!).
+    *   Aprovechar los museos gratuitos de Londres (National Gallery, Tate Modern, etc.).
+    *   Explorar los barrios menos turísticos como Shoreditch o Notting Hill.
+        *   **Recomendación DaviTravel:** ¡Explore Shoreditch y Notting Hill y pague en los comercios locales con su tarjeta Davivienda! ¡Apoye el comercio local!
+*   **Reservas Anticipadas y Transporte:**
+    *   Reservar vuelos y alojamiento con la mayor anticipación posible para obtener mejores precios.
+    *   Comprar una Oyster Card para el transporte público en Londres (metro, autobuses).
+    *   Reservar tours y actividades en línea para evitar colas.
+¡DaviTravel espera que este itinerario optimizado y lleno de beneficios haga que su viaje a Londres sea inolvidable! ¡Buen viaje!</t>
         </is>
       </c>
     </row>
